--- a/Launches/8-inch-flight/Design/Calculations/tags/Rev1/Q-8in-motor_calc.xlsx
+++ b/Launches/8-inch-flight/Design/Calculations/tags/Rev1/Q-8in-motor_calc.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Triton_Rocket_Club\Propulsion\Launches\8-inch-flight\Design\Calculations\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Triton_Rocket_Club\Propulsion\Launches\8-inch-flight\Design\Calculations\tags\Rev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Bates Grain Kn Calculator" sheetId="1" r:id="rId1"/>
@@ -1431,174 +1431,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
@@ -1608,59 +1440,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="3" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="3" applyBorder="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1695,26 +1479,8 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="45" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="48" xfId="4" applyBorder="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1724,27 +1490,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1757,20 +1502,8 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,37 +1542,10 @@
     <xf numFmtId="165" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1886,15 +1592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1902,12 +1599,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1920,6 +1611,315 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2035,94 +2035,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>317.30939153909469</c:v>
+                  <c:v>277.44592592592596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.46776579259461</c:v>
+                  <c:v>283.06683930065617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325.40141785634387</c:v>
+                  <c:v>288.3965015193553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329.11034773034254</c:v>
+                  <c:v>293.43491258202317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>332.59455541459073</c:v>
+                  <c:v>298.18207248865997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>335.85404090908833</c:v>
+                  <c:v>302.63798123926546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338.88880421383521</c:v>
+                  <c:v>306.80263883383981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>341.69884532883157</c:v>
+                  <c:v>310.67604527238302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344.28416425407738</c:v>
+                  <c:v>314.25820055489498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>346.64476098957255</c:v>
+                  <c:v>317.54910468137575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>348.78063553531712</c:v>
+                  <c:v>320.54875765182544</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>350.69178789131109</c:v>
+                  <c:v>323.25715946624393</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>352.37821805755448</c:v>
+                  <c:v>325.67431012463123</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>353.83992603404727</c:v>
+                  <c:v>327.80020962698728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>355.07691182078952</c:v>
+                  <c:v>329.63485797331214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>356.08917541778112</c:v>
+                  <c:v>331.17825516360597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>356.87671682502224</c:v>
+                  <c:v>332.43040119786849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>357.4395360425126</c:v>
+                  <c:v>333.39129607609988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>357.77763307025248</c:v>
+                  <c:v>334.06093979830007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>357.8910079082417</c:v>
+                  <c:v>334.43933236446912</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>357.77966055648034</c:v>
+                  <c:v>334.52647377460693</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>357.44359101496843</c:v>
+                  <c:v>334.32236402871359</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>356.88279928370594</c:v>
+                  <c:v>333.82700312678912</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>356.0972853626929</c:v>
+                  <c:v>333.04039106883346</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>355.08704925192916</c:v>
+                  <c:v>331.9625278548466</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>353.85209095141494</c:v>
+                  <c:v>330.59341348482855</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>352.39241046115001</c:v>
+                  <c:v>328.9330479587793</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>350.7080077811346</c:v>
+                  <c:v>326.9814312766988</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>348.79888291136848</c:v>
+                  <c:v>324.73856343858722</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>346.66503585185194</c:v>
+                  <c:v>322.20444444444445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,94 +2350,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.27185224253509732</c:v>
+                  <c:v>0.34632051823590843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5405343420714136</c:v>
+                  <c:v>0.68719333002290783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80625164829955309</c:v>
+                  <c:v>1.02297988166384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0692035058188063</c:v>
+                  <c:v>1.3540279279146403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.329583695718535</c:v>
+                  <c:v>1.6806725820443762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5875808585231277</c:v>
+                  <c:v>2.0032373097991201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8433789000232024</c:v>
+                  <c:v>2.3220348720967641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0971573814359719</c:v>
+                  <c:v>2.6373682209643836</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3490918952651811</c:v>
+                  <c:v>2.949531352944168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5993544281650709</c:v>
+                  <c:v>3.2588101239359237</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8481137120533147</c:v>
+                  <c:v>3.5654830292117916</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0955355646642069</c:v>
+                  <c:v>3.8698219521303341</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3417832206854894</c:v>
+                  <c:v>4.1720928848907564</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5870176545795296</c:v>
+                  <c:v>4.4725566245025536</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8313978961521262</c:v>
+                  <c:v>4.7714694469998964</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0750813398996177</c:v>
+                  <c:v>5.0690837628024461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3182240491370978</c:v>
+                  <c:v>5.3656487560142567</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5609810558872219</c:v>
+                  <c:v>5.6614110103589423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.803506657490189</c:v>
+                  <c:v>5.9566151243717682</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0459547108808511</c:v>
+                  <c:v>6.2515043184071715</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2884789254686044</c:v>
+                  <c:v>6.5463210359729631</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5312331555494092</c:v>
+                  <c:v>6.8413075418697957</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7743716931773035</c:v>
+                  <c:v>7.1367065195960029</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0180495624247481</c:v>
+                  <c:v>7.4327616704737558</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2624228159673434</c:v>
+                  <c:v>7.7297183169623933</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.5076488349387862</c:v>
+                  <c:v>8.0278240126488356</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.7538866330164886</c:v>
+                  <c:v>8.3273291614435774</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0012971657171574</c:v>
+                  <c:v>8.6284876485639295</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2500436459049027</c:v>
+                  <c:v>8.9315574859543894</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5002918665422884</c:v>
+                  <c:v>9.2368014748779306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,94 +2449,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3473.6613816813619</c:v>
+                  <c:v>2612.3641311842121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3577.5181221814914</c:v>
+                  <c:v>2720.2912381771334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3678.4666582882714</c:v>
+                  <c:v>2826.4636514336025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3776.1202529437273</c:v>
+                  <c:v>2930.3934462950788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3870.0973717525544</c:v>
+                  <c:v>3031.5889676843672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3960.0241320906525</c:v>
+                  <c:v>3129.5586250591318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4045.5367510012306</c:v>
+                  <c:v>3223.8148041437935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4126.2839699645874</c:v>
+                  <c:v>3313.8778538534334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4201.9294343753118</c:v>
+                  <c:v>3399.2801044590219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4272.1540055689065</c:v>
+                  <c:v>3479.5698713089373</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4336.6579835129041</c:v>
+                  <c:v>3554.3153973611934</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4395.1632188168414</c:v>
+                  <c:v>3623.1086874268481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4447.4150935180487</c:v>
+                  <c:v>3685.5691873982187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4493.1843511593233</c:v>
+                  <c:v>3741.3472628436607</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4532.2687579796493</c:v>
+                  <c:v>3790.1274331880491</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4564.4945785760347</c:v>
+                  <c:v>3831.6313202452206</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4589.7178511452885</c:v>
+                  <c:v>3865.6202730922046</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4607.8254493580098</c:v>
+                  <c:v>3891.8976351290326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4618.7359200292767</c:v>
+                  <c:v>3910.3106235928403</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4622.4000880041103</c:v>
+                  <c:v>3920.751796721097</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4618.8014220426421</c:v>
+                  <c:v>3923.1600891050684</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4607.9561579380115</c:v>
+                  <c:v>3917.5214014524076</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4589.9131775982951</c:v>
+                  <c:v>3903.8687368907258</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4564.7536453385692</c:v>
+                  <c:v>3882.2818819919044</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4532.5904051275311</c:v>
+                  <c:v>3852.886636775851</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4493.5671449822339</c:v>
+                  <c:v>3815.8536039584455</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4447.8573370716904</c:v>
+                  <c:v>3771.3965535388102</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4395.6629643453643</c:v>
+                  <c:v>3719.7703843769095</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4337.2130466157405</c:v>
+                  <c:v>3661.2687096002337</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4272.761980969598</c:v>
+                  <c:v>3596.2210974122804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4020,45 +4020,45 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="175" t="s">
+      <c r="C2" s="176"/>
+      <c r="D2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="G2" s="173"/>
-      <c r="I2" s="107" t="s">
+      <c r="E2" s="146"/>
+      <c r="G2" s="86"/>
+      <c r="I2" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="109"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="79" t="b">
+      <c r="S2" s="165"/>
+      <c r="T2" s="179" t="b">
         <f>AND(ISNUMBER(D5),ISNUMBER(D6),ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10),ISNUMBER(D11),ISNUMBER(D12),NOT(ISBLANK($D$5:$D$12)))</f>
         <v>1</v>
       </c>
-      <c r="U2" s="79"/>
+      <c r="U2" s="179"/>
     </row>
     <row r="3" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="121"/>
+      <c r="E3" s="144"/>
       <c r="G3" s="52"/>
       <c r="I3" s="51"/>
       <c r="J3" s="5"/>
@@ -4068,91 +4068,91 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="7"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
     </row>
     <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="176"/>
-      <c r="I4" s="90" t="s">
+      <c r="G4" s="87"/>
+      <c r="I4" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="91"/>
+      <c r="J4" s="162"/>
       <c r="K4" s="37">
         <f>(($D$6-$D$7))/29</f>
-        <v>0.12570114942528737</v>
+        <v>0.14310344827586208</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>58</v>
       </c>
       <c r="M4" s="52"/>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="66"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="48">
         <f>Estimate!L4</f>
-        <v>745.97934257540339</v>
+        <v>642.22020614588871</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="178"/>
       <c r="D5" s="42">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="I5" s="71" t="s">
+      <c r="G5" s="148"/>
+      <c r="I5" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="164"/>
       <c r="K5" s="38">
         <f>$M$16</f>
-        <v>1261.6469550518068</v>
+        <v>1103.146698363154</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="174"/>
       <c r="P5" s="49">
         <f>Estimate!L5</f>
-        <v>698.39506261096119</v>
-      </c>
-      <c r="R5" s="81" t="s">
+        <v>586.52275088831789</v>
+      </c>
+      <c r="R5" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="83"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="183"/>
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="172"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="43">
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="I6" s="71" t="s">
+      <c r="F6" s="149"/>
+      <c r="G6" s="150"/>
+      <c r="I6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="164"/>
       <c r="K6" s="39">
         <f>PI()*Nozzle_Throat_Diameter^2/4</f>
         <v>4.0114996593688055</v>
@@ -4161,172 +4161,172 @@
         <v>42</v>
       </c>
       <c r="M6" s="52"/>
-      <c r="N6" s="77" t="s">
+      <c r="N6" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="174"/>
       <c r="P6" s="49">
         <f>Estimate!L6</f>
-        <v>4622.4000880041103</v>
+        <v>3923.1600891050684</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="84" t="str">
+      <c r="R6" s="184" t="str">
         <f>IF(ISNUMBER($D$5:$D$12), "", "Error: Input Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="86"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="185"/>
+      <c r="U6" s="186"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="136">
+      <c r="C7" s="138"/>
+      <c r="D7" s="64">
         <f>'Erosive Burning'!S5</f>
-        <v>3.4166666666666665</v>
+        <v>2.75</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="151">
         <v>3</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="164"/>
       <c r="K7" s="40">
         <f>$Q$16</f>
-        <v>317.30939153909469</v>
+        <v>277.44592592592596</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="174"/>
       <c r="P7" s="49">
         <f>Estimate!L7</f>
-        <v>4301.6910884659092</v>
+        <v>3550.8703801899906</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="87" t="str">
+      <c r="R7" s="167" t="str">
         <f>IF(NOT(ISBLANK($D$5:$D$12)),"", "Error: Must Enter All Input Values")</f>
         <v/>
       </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="89"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="169"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="172"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="43">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="189">
         <v>3</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="190"/>
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="164"/>
       <c r="K8" s="40">
         <f>MAX(Q17:Q45)</f>
-        <v>357.8910079082417</v>
+        <v>334.52647377460693</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="77" t="s">
+      <c r="N8" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="174"/>
       <c r="P8" s="49">
         <f>Estimate!L8</f>
-        <v>7.5002918665422884</v>
+        <v>9.2368014748779306</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="87" t="str">
+      <c r="R8" s="167" t="str">
         <f>IF(ISNUMBER($F$7:$F$12), "", "Error: Grain Core Diameter Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="89"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="169"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="172"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="43">
         <v>2.2599999999999998</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="189">
         <v>3</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="190"/>
       <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="74"/>
+      <c r="J9" s="194"/>
       <c r="K9" s="41">
         <f>$Q$45</f>
-        <v>346.66503585185194</v>
+        <v>322.20444444444445</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="77" t="s">
+      <c r="N9" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="174"/>
       <c r="P9" s="49">
         <f>Estimate!L9</f>
-        <v>32181.177321244992</v>
+        <v>32626.648861105939</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="89"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="169"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="136">
+      <c r="C10" s="138"/>
+      <c r="D10" s="64">
         <f>Nozzle_Throat_Diameter</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="191">
         <v>3.4</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="192"/>
       <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
@@ -4335,44 +4335,44 @@
       <c r="K10" s="56"/>
       <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="97" t="s">
+      <c r="N10" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="98"/>
+      <c r="O10" s="156"/>
       <c r="P10" s="50">
         <f>MAX('Erosive Burning'!L14:L19)</f>
-        <v>1.3003654800962834</v>
-      </c>
-      <c r="R10" s="94"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96"/>
+        <v>1.18406010621894</v>
+      </c>
+      <c r="R10" s="170"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="172"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="172"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="43">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="189">
         <v>3.8</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="190"/>
       <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="J11" s="196"/>
       <c r="K11" s="44">
         <f>((D6*3)+D7)/2</f>
-        <v>12.301333333333334</v>
+        <v>11.725000000000001</v>
       </c>
       <c r="L11" s="54" t="s">
         <v>14</v>
@@ -4383,20 +4383,20 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="191">
+      <c r="C12" s="140"/>
+      <c r="D12" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="187">
         <v>4.3</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="188"/>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
@@ -4404,21 +4404,21 @@
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="103" t="s">
+      <c r="N12" s="154"/>
+      <c r="O12" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="104"/>
+      <c r="P12" s="158"/>
     </row>
     <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="140">
+      <c r="C13" s="133"/>
+      <c r="D13" s="68">
         <f>(D10-D9)/29</f>
         <v>0</v>
       </c>
@@ -4426,15 +4426,15 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="58"/>
-      <c r="M13" s="97" t="s">
+      <c r="M13" s="155" t="s">
         <v>137</v>
       </c>
-      <c r="N13" s="98"/>
-      <c r="O13" s="105">
+      <c r="N13" s="156"/>
+      <c r="O13" s="159">
         <f>(36800+18400)/2</f>
         <v>27600</v>
       </c>
-      <c r="P13" s="106"/>
+      <c r="P13" s="160"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="4"/>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="D16" s="10">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E16" s="9">
         <f>$D8-C16</f>
@@ -4515,58 +4515,58 @@
       </c>
       <c r="F16" s="11">
         <f>$D7+C16</f>
-        <v>3.4166666666666665</v>
+        <v>2.75</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G45" si="0">(D16*(PI())*E16)</f>
-        <v>310.60298247511571</v>
+        <v>303.47785033677405</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" ref="H16:H45" si="1">((D16/2)^2)*PI()</f>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" ref="I16:I45" si="2">((F16/2)^2)*PI()</f>
-        <v>9.1684327268827115</v>
+        <v>5.9395736106932029</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" ref="J16:J45" si="3">H16-I16</f>
-        <v>30.000821955961342</v>
+        <v>31.453232948659313</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" ref="K16:K45" si="4">(F16*PI())*E16</f>
-        <v>150.27284859671178</v>
+        <v>120.95131716320702</v>
       </c>
       <c r="L16" s="12">
         <f t="shared" ref="L16:L45" si="5">(J16*2)+K16</f>
-        <v>210.27449250863447</v>
+        <v>183.85778306052566</v>
       </c>
       <c r="M16" s="12">
         <f>L16*D5</f>
-        <v>1261.6469550518068</v>
+        <v>1103.146698363154</v>
       </c>
       <c r="N16" s="13">
         <f t="shared" ref="N16:N45" si="6">(D16-F16)*0.5</f>
-        <v>1.8226666666666669</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="O16" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B16*$D$13</f>
+        <f t="shared" ref="O16:O45" si="7">Nozzle_Throat_Diameter-boundry_layer*2+B16*$D$13</f>
         <v>2.25</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" ref="P16:P45" si="7">PI()*O16^2/4</f>
+        <f t="shared" ref="P16:P45" si="8">PI()*O16^2/4</f>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" ref="Q16:Q45" si="8">M16/(P16)</f>
-        <v>317.30939153909469</v>
+        <f t="shared" ref="Q16:Q45" si="9">M16/(P16)</f>
+        <v>277.44592592592596</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" ref="R16:R45" si="9">Nozzle_Throat_Diameter+B16*S$6</f>
+        <f t="shared" ref="R16:R45" si="10">Nozzle_Throat_Diameter+B16*S$6</f>
         <v>2.2599999999999998</v>
       </c>
       <c r="S16" s="17">
-        <f t="shared" ref="S16:S45" si="10">PI()*R16^2/4</f>
+        <f t="shared" ref="S16:S45" si="11">PI()*R16^2/4</f>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4576,54 +4576,54 @@
       </c>
       <c r="C17" s="19">
         <f>B17*K4</f>
-        <v>0.12570114942528737</v>
+        <v>0.14310344827586208</v>
       </c>
       <c r="D17" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E17" s="19">
         <f>$D8-C17</f>
-        <v>13.874298850574712</v>
+        <v>13.856896551724137</v>
       </c>
       <c r="F17" s="21">
         <f>$D7+C17</f>
-        <v>3.5423678160919541</v>
+        <v>2.8931034482758622</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" si="0"/>
-        <v>307.81418590996964</v>
+        <v>300.375798418307</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="2"/>
-        <v>9.8554665509499042</v>
+        <v>6.5738199830784216</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="3"/>
-        <v>29.31378813189415</v>
+        <v>30.818986576274092</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="4"/>
-        <v>154.40258644916764</v>
+        <v>125.94467509893032</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="5"/>
-        <v>213.03016271295593</v>
+        <v>187.5826482514785</v>
       </c>
       <c r="M17" s="22">
         <f>L17*D5</f>
-        <v>1278.1809762777357</v>
+        <v>1125.495889508871</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" si="6"/>
-        <v>1.7598160919540231</v>
+        <v>2.0034482758620689</v>
       </c>
       <c r="O17" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B17*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P17" s="24">
@@ -4631,15 +4631,15 @@
         <v>3.9760782021995817</v>
       </c>
       <c r="Q17" s="25">
-        <f t="shared" si="8"/>
-        <v>321.46776579259461</v>
+        <f t="shared" si="9"/>
+        <v>283.06683930065617</v>
       </c>
       <c r="R17" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S17" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4649,70 +4649,70 @@
       </c>
       <c r="C18" s="19">
         <f>B18*K4</f>
-        <v>0.25140229885057475</v>
+        <v>0.28620689655172415</v>
       </c>
       <c r="D18" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E18" s="19">
         <f>$D8-C18</f>
-        <v>13.748597701149425</v>
+        <v>13.713793103448277</v>
       </c>
       <c r="F18" s="21">
         <f>$D7+C18</f>
-        <v>3.6680689655172412</v>
+        <v>3.0362068965517244</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" si="0"/>
-        <v>305.02538934482362</v>
+        <v>297.27374649984</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="2"/>
-        <v>10.567320180578701</v>
+        <v>7.240234060265335</v>
       </c>
       <c r="J18" s="22">
         <f t="shared" si="3"/>
-        <v>28.601934502265355</v>
+        <v>30.152572499087178</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="4"/>
-        <v>158.43304507937705</v>
+        <v>130.80936221544684</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="5"/>
-        <v>215.63691408390775</v>
+        <v>191.11450721362121</v>
       </c>
       <c r="M18" s="22">
         <f>L18*D5</f>
-        <v>1293.8214845034465</v>
+        <v>1146.6870432817273</v>
       </c>
       <c r="N18" s="23">
         <f t="shared" si="6"/>
-        <v>1.6969655172413796</v>
+        <v>1.931896551724138</v>
       </c>
       <c r="O18" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B18*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P18" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q18" s="25">
-        <f t="shared" si="8"/>
-        <v>325.40141785634387</v>
+        <f t="shared" si="9"/>
+        <v>288.3965015193553</v>
       </c>
       <c r="R18" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S18" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4722,54 +4722,54 @@
       </c>
       <c r="C19" s="19">
         <f>B19*K4</f>
-        <v>0.37710344827586212</v>
+        <v>0.42931034482758623</v>
       </c>
       <c r="D19" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E19" s="19">
         <f>$D8-C19</f>
-        <v>13.622896551724137</v>
+        <v>13.570689655172414</v>
       </c>
       <c r="F19" s="21">
         <f>$D7+C19</f>
-        <v>3.7937701149425287</v>
+        <v>3.1793103448275861</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" si="0"/>
-        <v>302.23659277967761</v>
+        <v>294.17169458137295</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="2"/>
-        <v>11.303993615769111</v>
+        <v>7.9388158422539403</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="3"/>
-        <v>27.865261067074947</v>
+        <v>29.453990717098574</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="4"/>
-        <v>162.36422448734007</v>
+        <v>135.54537851275654</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="5"/>
-        <v>218.09474662148995</v>
+        <v>194.4533599469537</v>
       </c>
       <c r="M19" s="22">
         <f>L19*D5</f>
-        <v>1308.5684797289396</v>
+        <v>1166.7201596817222</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="6"/>
-        <v>1.6341149425287358</v>
+        <v>1.8603448275862071</v>
       </c>
       <c r="O19" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B19*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P19" s="24">
@@ -4777,15 +4777,15 @@
         <v>3.9760782021995817</v>
       </c>
       <c r="Q19" s="25">
-        <f t="shared" si="8"/>
-        <v>329.11034773034254</v>
+        <f t="shared" si="9"/>
+        <v>293.43491258202317</v>
       </c>
       <c r="R19" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S19" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4795,70 +4795,70 @@
       </c>
       <c r="C20" s="19">
         <f>B20*K4</f>
-        <v>0.50280459770114949</v>
+        <v>0.57241379310344831</v>
       </c>
       <c r="D20" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E20" s="19">
         <f>$D8-C20</f>
-        <v>13.49719540229885</v>
+        <v>13.427586206896551</v>
       </c>
       <c r="F20" s="21">
         <f>$D7+C20</f>
-        <v>3.9194712643678162</v>
+        <v>3.3224137931034483</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="0"/>
-        <v>299.44779621453154</v>
+        <v>291.06964266290595</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="2"/>
-        <v>12.065486856521126</v>
+        <v>8.6695653290442429</v>
       </c>
       <c r="J20" s="22">
         <f t="shared" si="3"/>
-        <v>27.10376782632293</v>
+        <v>28.723241230308272</v>
       </c>
       <c r="K20" s="22">
         <f t="shared" si="4"/>
-        <v>166.19612467305666</v>
+        <v>140.1527239908595</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="5"/>
-        <v>220.4036603257025</v>
+        <v>197.59920645147605</v>
       </c>
       <c r="M20" s="22">
         <f>L20*D5</f>
-        <v>1322.421961954215</v>
+        <v>1185.5952387088564</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="6"/>
-        <v>1.571264367816092</v>
+        <v>1.788793103448276</v>
       </c>
       <c r="O20" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B20*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P20" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q20" s="25">
-        <f t="shared" si="8"/>
-        <v>332.59455541459073</v>
+        <f t="shared" si="9"/>
+        <v>298.18207248865997</v>
       </c>
       <c r="R20" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S20" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4868,70 +4868,70 @@
       </c>
       <c r="C21" s="19">
         <f>B21*K4</f>
-        <v>0.62850574712643681</v>
+        <v>0.71551724137931039</v>
       </c>
       <c r="D21" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E21" s="19">
         <f>$D8-C21</f>
-        <v>13.371494252873564</v>
+        <v>13.28448275862069</v>
       </c>
       <c r="F21" s="21">
         <f>$D7+C21</f>
-        <v>4.0451724137931038</v>
+        <v>3.4655172413793105</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="0"/>
-        <v>296.65899964938558</v>
+        <v>287.96759074443895</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="2"/>
-        <v>12.851799902834749</v>
+        <v>9.4324825206362402</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="3"/>
-        <v>26.317454780009307</v>
+        <v>27.960324038716273</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="4"/>
-        <v>169.92874563652683</v>
+        <v>144.63139864975568</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="5"/>
-        <v>222.56365519654543</v>
+        <v>200.55204672718821</v>
       </c>
       <c r="M21" s="22">
         <f>L21*D5</f>
-        <v>1335.3819311792727</v>
+        <v>1203.3122803631293</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="6"/>
-        <v>1.5084137931034483</v>
+        <v>1.7172413793103449</v>
       </c>
       <c r="O21" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B21*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P21" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q21" s="25">
-        <f t="shared" si="8"/>
-        <v>335.85404090908833</v>
+        <f t="shared" si="9"/>
+        <v>302.63798123926546</v>
       </c>
       <c r="R21" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -4941,70 +4941,70 @@
       </c>
       <c r="C22" s="19">
         <f>B22*K4</f>
-        <v>0.75420689655172424</v>
+        <v>0.85862068965517246</v>
       </c>
       <c r="D22" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E22" s="19">
         <f>$D8-C22</f>
-        <v>13.245793103448277</v>
+        <v>13.141379310344828</v>
       </c>
       <c r="F22" s="21">
         <f>$D7+C22</f>
-        <v>4.1708735632183904</v>
+        <v>3.6086206896551722</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="0"/>
-        <v>293.87020308423951</v>
+        <v>284.8655388259719</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="2"/>
-        <v>13.662932754709976</v>
+        <v>10.227567417029928</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="3"/>
-        <v>25.506321928134078</v>
+        <v>27.165239142322587</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="4"/>
-        <v>173.56208737775049</v>
+        <v>148.98140248944506</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="5"/>
-        <v>224.57473123401866</v>
+        <v>203.31188077409024</v>
       </c>
       <c r="M22" s="22">
         <f>L22*D5</f>
-        <v>1347.4483874041121</v>
+        <v>1219.8712846445414</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="6"/>
-        <v>1.4455632183908049</v>
+        <v>1.6456896551724141</v>
       </c>
       <c r="O22" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B22*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P22" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q22" s="25">
-        <f t="shared" si="8"/>
-        <v>338.88880421383521</v>
+        <f t="shared" si="9"/>
+        <v>306.80263883383981</v>
       </c>
       <c r="R22" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S22" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5014,70 +5014,70 @@
       </c>
       <c r="C23" s="19">
         <f>B23*K4</f>
-        <v>0.87990804597701167</v>
+        <v>1.0017241379310344</v>
       </c>
       <c r="D23" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E23" s="19">
         <f>$D8-C23</f>
-        <v>13.120091954022989</v>
+        <v>12.998275862068965</v>
       </c>
       <c r="F23" s="21">
         <f>$D7+C23</f>
-        <v>4.296574712643678</v>
+        <v>3.7517241379310344</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="0"/>
-        <v>291.08140651909349</v>
+        <v>281.76348690750484</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="2"/>
-        <v>14.498885412146816</v>
+        <v>11.054820018225316</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" si="3"/>
-        <v>24.67036927069724</v>
+        <v>26.337986541127201</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="4"/>
-        <v>177.09614989672778</v>
+        <v>153.20273550992766</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="5"/>
-        <v>226.43688843812225</v>
+        <v>205.87870859218208</v>
       </c>
       <c r="M23" s="22">
         <f>L23*D5</f>
-        <v>1358.6213306287336</v>
+        <v>1235.2722515530925</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="6"/>
-        <v>1.3827126436781612</v>
+        <v>1.574137931034483</v>
       </c>
       <c r="O23" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B23*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q23" s="25">
-        <f t="shared" si="8"/>
-        <v>341.69884532883157</v>
+        <f t="shared" si="9"/>
+        <v>310.67604527238302</v>
       </c>
       <c r="R23" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S23" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5087,70 +5087,70 @@
       </c>
       <c r="C24" s="19">
         <f>B24*K4</f>
-        <v>1.005609195402299</v>
+        <v>1.1448275862068966</v>
       </c>
       <c r="D24" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E24" s="19">
         <f>$D8-C24</f>
-        <v>12.994390804597701</v>
+        <v>12.855172413793102</v>
       </c>
       <c r="F24" s="21">
         <f>$D7+C24</f>
-        <v>4.4222758620689655</v>
+        <v>3.8948275862068966</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="0"/>
-        <v>288.29260995394748</v>
+        <v>278.66143498903784</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="2"/>
-        <v>15.359657875145263</v>
+        <v>11.914240324222396</v>
       </c>
       <c r="J24" s="22">
         <f t="shared" si="3"/>
-        <v>23.809596807698792</v>
+        <v>25.478566235130117</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="4"/>
-        <v>180.53093319345865</v>
+        <v>157.29539771120349</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="5"/>
-        <v>228.15012680885624</v>
+        <v>208.25253018146373</v>
       </c>
       <c r="M24" s="22">
         <f>L24*D5</f>
-        <v>1368.9007608531374</v>
+        <v>1249.5151810887824</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="6"/>
-        <v>1.3198620689655174</v>
+        <v>1.5025862068965519</v>
       </c>
       <c r="O24" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B24*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P24" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="8"/>
-        <v>344.28416425407738</v>
+        <f t="shared" si="9"/>
+        <v>314.25820055489498</v>
       </c>
       <c r="R24" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S24" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5160,70 +5160,70 @@
       </c>
       <c r="C25" s="19">
         <f>B25*K4</f>
-        <v>1.1313103448275863</v>
+        <v>1.2879310344827588</v>
       </c>
       <c r="D25" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E25" s="19">
         <f>$D8-C25</f>
-        <v>12.868689655172414</v>
+        <v>12.712068965517242</v>
       </c>
       <c r="F25" s="21">
         <f>$D7+C25</f>
-        <v>4.547977011494253</v>
+        <v>4.0379310344827584</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="0"/>
-        <v>285.5038133888014</v>
+        <v>275.55938307057085</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="2"/>
-        <v>16.24525014370532</v>
+        <v>12.805828335021168</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="3"/>
-        <v>22.924004539138735</v>
+        <v>24.586978224331347</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="4"/>
-        <v>183.86643726794307</v>
+        <v>161.25938909327255</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="5"/>
-        <v>229.71444634622054</v>
+        <v>210.43334554193524</v>
       </c>
       <c r="M25" s="22">
         <f>L25*D5</f>
-        <v>1378.2866780773234</v>
+        <v>1262.6000732516113</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="6"/>
-        <v>1.2570114942528736</v>
+        <v>1.431034482758621</v>
       </c>
       <c r="O25" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B25*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P25" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" si="8"/>
-        <v>346.64476098957255</v>
+        <f t="shared" si="9"/>
+        <v>317.54910468137575</v>
       </c>
       <c r="R25" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S25" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5233,70 +5233,70 @@
       </c>
       <c r="C26" s="19">
         <f>B26*K4</f>
-        <v>1.2570114942528736</v>
+        <v>1.4310344827586208</v>
       </c>
       <c r="D26" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E26" s="19">
         <f>$D8-C26</f>
-        <v>12.742988505747126</v>
+        <v>12.568965517241379</v>
       </c>
       <c r="F26" s="21">
         <f>$D7+C26</f>
-        <v>4.6736781609195397</v>
+        <v>4.181034482758621</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="0"/>
-        <v>282.71501682365539</v>
+        <v>272.45733115210379</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="2"/>
-        <v>17.155662217826976</v>
+        <v>13.729584050621641</v>
       </c>
       <c r="J26" s="22">
         <f t="shared" si="3"/>
-        <v>22.01359246501708</v>
+        <v>23.663222508730875</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="4"/>
-        <v>187.10266212018104</v>
+        <v>165.09470965613485</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="5"/>
-        <v>231.1298470502152</v>
+        <v>212.42115467359662</v>
       </c>
       <c r="M26" s="22">
         <f>L26*D5</f>
-        <v>1386.7790823012913</v>
+        <v>1274.5269280415796</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="6"/>
-        <v>1.1941609195402303</v>
+        <v>1.3594827586206897</v>
       </c>
       <c r="O26" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B26*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P26" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="8"/>
-        <v>348.78063553531712</v>
+        <f t="shared" si="9"/>
+        <v>320.54875765182544</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S26" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5306,70 +5306,70 @@
       </c>
       <c r="C27" s="19">
         <f>B27*K4</f>
-        <v>1.3827126436781612</v>
+        <v>1.5741379310344827</v>
       </c>
       <c r="D27" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E27" s="19">
         <f>$D8-C27</f>
-        <v>12.617287356321839</v>
+        <v>12.425862068965518</v>
       </c>
       <c r="F27" s="21">
         <f>$D7+C27</f>
-        <v>4.7993793103448272</v>
+        <v>4.3241379310344827</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="0"/>
-        <v>279.92622025850937</v>
+        <v>269.35527923363679</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I27" s="22">
         <f t="shared" si="2"/>
-        <v>18.090894097510247</v>
+        <v>14.685507471023802</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="3"/>
-        <v>21.078360585333808</v>
+        <v>22.70729908832871</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="4"/>
-        <v>190.23960775017258</v>
+        <v>168.80135939979036</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="5"/>
-        <v>232.3963289208402</v>
+        <v>214.21595757644778</v>
       </c>
       <c r="M27" s="22">
         <f>L27*D5</f>
-        <v>1394.3779735250412</v>
+        <v>1285.2957454586867</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="6"/>
-        <v>1.1313103448275865</v>
+        <v>1.2879310344827588</v>
       </c>
       <c r="O27" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B27*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P27" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" si="8"/>
-        <v>350.69178789131109</v>
+        <f t="shared" si="9"/>
+        <v>323.25715946624393</v>
       </c>
       <c r="R27" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S27" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5379,70 +5379,70 @@
       </c>
       <c r="C28" s="19">
         <f>B28*K4</f>
-        <v>1.5084137931034485</v>
+        <v>1.7172413793103449</v>
       </c>
       <c r="D28" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E28" s="19">
         <f>$D8-C28</f>
-        <v>12.491586206896551</v>
+        <v>12.282758620689656</v>
       </c>
       <c r="F28" s="21">
         <f>$D7+C28</f>
-        <v>4.9250804597701148</v>
+        <v>4.4672413793103445</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="0"/>
-        <v>277.1374236933633</v>
+        <v>266.25322731516974</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="2"/>
-        <v>19.050945782755125</v>
+        <v>15.673598596227658</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="3"/>
-        <v>20.11830890008893</v>
+        <v>21.719207963124859</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="4"/>
-        <v>193.2772741579177</v>
+        <v>172.37933832423906</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="5"/>
-        <v>233.51389195809557</v>
+        <v>215.81775425048878</v>
       </c>
       <c r="M28" s="22">
         <f>L28*D5</f>
-        <v>1401.0833517485735</v>
+        <v>1294.9065255029327</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="6"/>
-        <v>1.0684597701149428</v>
+        <v>1.2163793103448279</v>
       </c>
       <c r="O28" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B28*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P28" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q28" s="25">
-        <f t="shared" si="8"/>
-        <v>352.37821805755448</v>
+        <f t="shared" si="9"/>
+        <v>325.67431012463123</v>
       </c>
       <c r="R28" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S28" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5452,70 +5452,70 @@
       </c>
       <c r="C29" s="19">
         <f>B29*K4</f>
-        <v>1.6341149425287358</v>
+        <v>1.8603448275862071</v>
       </c>
       <c r="D29" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E29" s="19">
         <f>$D8-C29</f>
-        <v>12.365885057471264</v>
+        <v>12.139655172413793</v>
       </c>
       <c r="F29" s="21">
         <f>$D7+C29</f>
-        <v>5.0507816091954023</v>
+        <v>4.6103448275862071</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="0"/>
-        <v>274.34862712821729</v>
+        <v>263.15117539670268</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I29" s="22">
         <f t="shared" si="2"/>
-        <v>20.035817273561612</v>
+        <v>16.693857426233215</v>
       </c>
       <c r="J29" s="22">
         <f t="shared" si="3"/>
-        <v>19.133437409282443</v>
+        <v>20.698949133119299</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="4"/>
-        <v>196.21566134341637</v>
+        <v>175.82864642948101</v>
       </c>
       <c r="L29" s="22">
         <f t="shared" si="5"/>
-        <v>234.48253616198127</v>
+        <v>217.22654469571961</v>
       </c>
       <c r="M29" s="22">
         <f>L29*D5</f>
-        <v>1406.8952169718877</v>
+        <v>1303.3592681743175</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="6"/>
-        <v>1.005609195402299</v>
+        <v>1.1448275862068966</v>
       </c>
       <c r="O29" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B29*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P29" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q29" s="25">
-        <f t="shared" si="8"/>
-        <v>353.83992603404727</v>
+        <f t="shared" si="9"/>
+        <v>327.80020962698728</v>
       </c>
       <c r="R29" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S29" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5525,70 +5525,70 @@
       </c>
       <c r="C30" s="19">
         <f>B30*K4</f>
-        <v>1.7598160919540233</v>
+        <v>2.0034482758620689</v>
       </c>
       <c r="D30" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E30" s="19">
         <f>$D8-C30</f>
-        <v>12.240183908045976</v>
+        <v>11.99655172413793</v>
       </c>
       <c r="F30" s="21">
         <f>$D7+C30</f>
-        <v>5.1764827586206899</v>
+        <v>4.7534482758620689</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="0"/>
-        <v>271.55983056307127</v>
+        <v>260.04912347823569</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I30" s="22">
         <f t="shared" si="2"/>
-        <v>21.045508569929709</v>
+        <v>17.746283961040458</v>
       </c>
       <c r="J30" s="22">
         <f t="shared" si="3"/>
-        <v>18.123746112914347</v>
+        <v>19.646522598312057</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="4"/>
-        <v>199.05476930666867</v>
+        <v>179.14928371551613</v>
       </c>
       <c r="L30" s="22">
         <f t="shared" si="5"/>
-        <v>235.30226153249737</v>
+        <v>218.44232891214025</v>
       </c>
       <c r="M30" s="22">
         <f>L30*D5</f>
-        <v>1411.8135691949842</v>
+        <v>1310.6539734728415</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="6"/>
-        <v>0.94275862068965521</v>
+        <v>1.0732758620689657</v>
       </c>
       <c r="O30" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B30*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P30" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q30" s="25">
-        <f t="shared" si="8"/>
-        <v>355.07691182078952</v>
+        <f t="shared" si="9"/>
+        <v>329.63485797331214</v>
       </c>
       <c r="R30" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S30" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5598,70 +5598,70 @@
       </c>
       <c r="C31" s="19">
         <f>B31*K4</f>
-        <v>1.8855172413793106</v>
+        <v>2.146551724137931</v>
       </c>
       <c r="D31" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E31" s="19">
         <f>$D8-C31</f>
-        <v>12.114482758620689</v>
+        <v>11.853448275862069</v>
       </c>
       <c r="F31" s="21">
         <f>$D7+C31</f>
-        <v>5.3021839080459774</v>
+        <v>4.8965517241379306</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="0"/>
-        <v>268.7710339979252</v>
+        <v>256.94707155976869</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I31" s="22">
         <f t="shared" si="2"/>
-        <v>22.080019671859411</v>
+        <v>18.830878200649401</v>
       </c>
       <c r="J31" s="22">
         <f t="shared" si="3"/>
-        <v>17.089235010984645</v>
+        <v>18.561928358703113</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="4"/>
-        <v>201.7945980476745</v>
+        <v>182.34125018234454</v>
       </c>
       <c r="L31" s="22">
         <f t="shared" si="5"/>
-        <v>235.97306806964377</v>
+        <v>219.46510689975077</v>
       </c>
       <c r="M31" s="22">
         <f>L31*D5</f>
-        <v>1415.8384084178626</v>
+        <v>1316.7906413985047</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="6"/>
-        <v>0.87990804597701144</v>
+        <v>1.0017241379310349</v>
       </c>
       <c r="O31" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B31*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P31" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" si="8"/>
-        <v>356.08917541778112</v>
+        <f t="shared" si="9"/>
+        <v>331.17825516360597</v>
       </c>
       <c r="R31" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S31" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5671,70 +5671,70 @@
       </c>
       <c r="C32" s="19">
         <f>B32*K4</f>
-        <v>2.011218390804598</v>
+        <v>2.2896551724137932</v>
       </c>
       <c r="D32" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E32" s="19">
         <f>$D8-C32</f>
-        <v>11.988781609195403</v>
+        <v>11.710344827586207</v>
       </c>
       <c r="F32" s="21">
         <f>$D7+C32</f>
-        <v>5.4278850574712649</v>
+        <v>5.0396551724137932</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" si="0"/>
-        <v>265.98223743277924</v>
+        <v>253.84501964130163</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I32" s="22">
         <f t="shared" si="2"/>
-        <v>23.139350579350722</v>
+        <v>19.947640145060038</v>
       </c>
       <c r="J32" s="22">
         <f t="shared" si="3"/>
-        <v>16.029904103493333</v>
+        <v>17.445166414292476</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="4"/>
-        <v>204.43514756643393</v>
+        <v>185.40454582996617</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="5"/>
-        <v>236.4949557734206</v>
+        <v>220.29487865855111</v>
       </c>
       <c r="M32" s="22">
         <f>L32*D5</f>
-        <v>1418.9697346405237</v>
+        <v>1321.7692719513066</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="6"/>
-        <v>0.81705747126436767</v>
+        <v>0.93017241379310356</v>
       </c>
       <c r="O32" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B32*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q32" s="25">
-        <f t="shared" si="8"/>
-        <v>356.87671682502224</v>
+        <f t="shared" si="9"/>
+        <v>332.43040119786849</v>
       </c>
       <c r="R32" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S32" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5744,70 +5744,70 @@
       </c>
       <c r="C33" s="19">
         <f>B33*K4</f>
-        <v>2.1369195402298855</v>
+        <v>2.4327586206896554</v>
       </c>
       <c r="D33" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E33" s="19">
         <f>$D8-C33</f>
-        <v>11.863080459770114</v>
+        <v>11.567241379310344</v>
       </c>
       <c r="F33" s="21">
         <f>$D7+C33</f>
-        <v>5.5535862068965525</v>
+        <v>5.1827586206896559</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" si="0"/>
-        <v>263.19344086763317</v>
+        <v>250.74296772283461</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I33" s="22">
         <f t="shared" si="2"/>
-        <v>24.223501292403643</v>
+        <v>21.096569794272376</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="3"/>
-        <v>14.945753390440412</v>
+        <v>16.296236765080138</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="4"/>
-        <v>206.97641786294685</v>
+        <v>188.33917065838102</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="5"/>
-        <v>236.86792464382768</v>
+        <v>220.9316441885413</v>
       </c>
       <c r="M33" s="22">
         <f>L33*D5</f>
-        <v>1421.2075478629661</v>
+        <v>1325.5898651312477</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="6"/>
-        <v>0.7542068965517239</v>
+        <v>0.85862068965517224</v>
       </c>
       <c r="O33" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B33*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P33" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q33" s="25">
-        <f t="shared" si="8"/>
-        <v>357.4395360425126</v>
+        <f t="shared" si="9"/>
+        <v>333.39129607609988</v>
       </c>
       <c r="R33" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S33" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5817,70 +5817,70 @@
       </c>
       <c r="C34" s="19">
         <f>B34*K4</f>
-        <v>2.2626206896551726</v>
+        <v>2.5758620689655176</v>
       </c>
       <c r="D34" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E34" s="19">
         <f>$D8-C34</f>
-        <v>11.737379310344828</v>
+        <v>11.424137931034483</v>
       </c>
       <c r="F34" s="21">
         <f>$D7+C34</f>
-        <v>5.6792873563218391</v>
+        <v>5.3258620689655176</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="0"/>
-        <v>260.40464430248716</v>
+        <v>247.64091580436761</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I34" s="22">
         <f t="shared" si="2"/>
-        <v>25.332471811018163</v>
+        <v>22.277667148286397</v>
       </c>
       <c r="J34" s="22">
         <f t="shared" si="3"/>
-        <v>13.836782871825893</v>
+        <v>15.115139411066117</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="4"/>
-        <v>209.4184089372134</v>
+        <v>191.14512466758907</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="5"/>
-        <v>237.09197468086518</v>
+        <v>221.37540348972129</v>
       </c>
       <c r="M34" s="22">
         <f>L34*D5</f>
-        <v>1422.5518480851911</v>
+        <v>1328.2524209383278</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="6"/>
-        <v>0.69135632183908058</v>
+        <v>0.78706896551724137</v>
       </c>
       <c r="O34" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B34*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P34" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" si="8"/>
-        <v>357.77763307025248</v>
+        <f t="shared" si="9"/>
+        <v>334.06093979830007</v>
       </c>
       <c r="R34" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S34" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5890,70 +5890,70 @@
       </c>
       <c r="C35" s="19">
         <f>B35*K4</f>
-        <v>2.3883218390804601</v>
+        <v>2.7189655172413794</v>
       </c>
       <c r="D35" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E35" s="19">
         <f>$D8-C35</f>
-        <v>11.61167816091954</v>
+        <v>11.281034482758621</v>
       </c>
       <c r="F35" s="21">
         <f>$D7+C35</f>
-        <v>5.8049885057471267</v>
+        <v>5.4689655172413794</v>
       </c>
       <c r="G35" s="22">
         <f t="shared" si="0"/>
-        <v>257.61584773734114</v>
+        <v>244.53886388590055</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I35" s="22">
         <f t="shared" si="2"/>
-        <v>26.466262135194295</v>
+        <v>23.490932207102116</v>
       </c>
       <c r="J35" s="22">
         <f t="shared" si="3"/>
-        <v>12.70299254764976</v>
+        <v>13.901874352250399</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="4"/>
-        <v>211.7611207892335</v>
+        <v>193.82240785759035</v>
       </c>
       <c r="L35" s="22">
         <f t="shared" si="5"/>
-        <v>237.16710588453302</v>
+        <v>221.62615656209115</v>
       </c>
       <c r="M35" s="22">
         <f>L35*D5</f>
-        <v>1423.002635307198</v>
+        <v>1329.7569393725469</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="6"/>
-        <v>0.62850574712643681</v>
+        <v>0.7155172413793105</v>
       </c>
       <c r="O35" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B35*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P35" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" si="8"/>
-        <v>357.8910079082417</v>
+        <f t="shared" si="9"/>
+        <v>334.43933236446912</v>
       </c>
       <c r="R35" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S35" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -5963,70 +5963,70 @@
       </c>
       <c r="C36" s="19">
         <f>B36*K4</f>
-        <v>2.5140229885057472</v>
+        <v>2.8620689655172415</v>
       </c>
       <c r="D36" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E36" s="19">
         <f>$D8-C36</f>
-        <v>11.485977011494253</v>
+        <v>11.137931034482758</v>
       </c>
       <c r="F36" s="21">
         <f>$D7+C36</f>
-        <v>5.9306896551724133</v>
+        <v>5.612068965517242</v>
       </c>
       <c r="G36" s="22">
         <f t="shared" si="0"/>
-        <v>254.82705117219507</v>
+        <v>241.43681196743353</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I36" s="22">
         <f t="shared" si="2"/>
-        <v>27.62487226493203</v>
+        <v>24.736364970719535</v>
       </c>
       <c r="J36" s="22">
         <f t="shared" si="3"/>
-        <v>11.544382417912026</v>
+        <v>12.65644158863298</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="4"/>
-        <v>214.00455341900712</v>
+        <v>196.37102022838482</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" si="5"/>
-        <v>237.09331825483116</v>
+        <v>221.68390340565077</v>
       </c>
       <c r="M36" s="22">
         <f>L36*D5</f>
-        <v>1422.559909528987</v>
+        <v>1330.1034204339046</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="6"/>
-        <v>0.56565517241379348</v>
+        <v>0.64396551724137918</v>
       </c>
       <c r="O36" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B36*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P36" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" si="8"/>
-        <v>357.77966055648034</v>
+        <f t="shared" si="9"/>
+        <v>334.52647377460693</v>
       </c>
       <c r="R36" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S36" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6036,70 +6036,70 @@
       </c>
       <c r="C37" s="19">
         <f>B37*K4</f>
-        <v>2.6397241379310348</v>
+        <v>3.0051724137931037</v>
       </c>
       <c r="D37" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E37" s="19">
         <f>$D8-C37</f>
-        <v>11.360275862068965</v>
+        <v>10.994827586206895</v>
       </c>
       <c r="F37" s="21">
         <f>$D7+C37</f>
-        <v>6.0563908045977008</v>
+        <v>5.7551724137931037</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="0"/>
-        <v>252.03825460704905</v>
+        <v>238.33476004896647</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I37" s="22">
         <f t="shared" si="2"/>
-        <v>28.808302200231378</v>
+        <v>26.013965439138641</v>
       </c>
       <c r="J37" s="22">
         <f t="shared" si="3"/>
-        <v>10.360952482612678</v>
+        <v>11.378841120213874</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="4"/>
-        <v>216.14870682653438</v>
+        <v>198.79096177997252</v>
       </c>
       <c r="L37" s="22">
         <f t="shared" si="5"/>
-        <v>236.87061179175973</v>
+        <v>221.54864402040027</v>
       </c>
       <c r="M37" s="22">
         <f>L37*D5</f>
-        <v>1421.2236707505583</v>
+        <v>1329.2918641224016</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="6"/>
-        <v>0.50280459770114971</v>
+        <v>0.57241379310344831</v>
       </c>
       <c r="O37" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B37*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P37" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" si="8"/>
-        <v>357.44359101496843</v>
+        <f t="shared" si="9"/>
+        <v>334.32236402871359</v>
       </c>
       <c r="R37" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S37" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6109,70 +6109,70 @@
       </c>
       <c r="C38" s="19">
         <f>B38*K4</f>
-        <v>2.7654252873563223</v>
+        <v>3.1482758620689655</v>
       </c>
       <c r="D38" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E38" s="19">
         <f>$D8-C38</f>
-        <v>11.234574712643678</v>
+        <v>10.851724137931035</v>
       </c>
       <c r="F38" s="21">
         <f>$D7+C38</f>
-        <v>6.1820919540229884</v>
+        <v>5.8982758620689655</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="0"/>
-        <v>249.24945804190301</v>
+        <v>235.23270813049947</v>
       </c>
       <c r="H38" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I38" s="22">
         <f t="shared" si="2"/>
-        <v>30.016551941092338</v>
+        <v>27.32373361235944</v>
       </c>
       <c r="J38" s="22">
         <f t="shared" si="3"/>
-        <v>9.1527027417517175</v>
+        <v>10.069072946993074</v>
       </c>
       <c r="K38" s="22">
         <f t="shared" si="4"/>
-        <v>218.19358101181518</v>
+        <v>201.0822325123535</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="5"/>
-        <v>236.4989864953186</v>
+        <v>221.22037840633965</v>
       </c>
       <c r="M38" s="22">
         <f>L38*D5</f>
-        <v>1418.9939189719116</v>
+        <v>1327.3222704380378</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="6"/>
-        <v>0.43995402298850594</v>
+        <v>0.50086206896551744</v>
       </c>
       <c r="O38" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B38*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P38" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" si="8"/>
-        <v>356.88279928370594</v>
+        <f t="shared" si="9"/>
+        <v>333.82700312678912</v>
       </c>
       <c r="R38" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S38" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6182,70 +6182,70 @@
       </c>
       <c r="C39" s="19">
         <f>B39*K4</f>
-        <v>2.8911264367816094</v>
+        <v>3.2913793103448277</v>
       </c>
       <c r="D39" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E39" s="19">
         <f>$D8-C39</f>
-        <v>11.10887356321839</v>
+        <v>10.708620689655172</v>
       </c>
       <c r="F39" s="21">
         <f>$D7+C39</f>
-        <v>6.3077931034482759</v>
+        <v>6.0413793103448281</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="0"/>
-        <v>246.46066147675697</v>
+        <v>232.13065621203245</v>
       </c>
       <c r="H39" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I39" s="22">
         <f t="shared" si="2"/>
-        <v>31.249621487514897</v>
+        <v>28.665669490381944</v>
       </c>
       <c r="J39" s="22">
         <f t="shared" si="3"/>
-        <v>7.9196331953291583</v>
+        <v>8.7271370689705705</v>
       </c>
       <c r="K39" s="22">
         <f t="shared" si="4"/>
-        <v>220.13917597484959</v>
+        <v>203.24483242552768</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="5"/>
-        <v>235.9784423655079</v>
+        <v>220.69910656346883</v>
       </c>
       <c r="M39" s="22">
         <f>L39*D5</f>
-        <v>1415.8706541930474</v>
+        <v>1324.194639380813</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="6"/>
-        <v>0.37710344827586217</v>
+        <v>0.42931034482758612</v>
       </c>
       <c r="O39" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B39*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P39" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q39" s="25">
-        <f t="shared" si="8"/>
-        <v>356.0972853626929</v>
+        <f t="shared" si="9"/>
+        <v>333.04039106883346</v>
       </c>
       <c r="R39" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6255,70 +6255,70 @@
       </c>
       <c r="C40" s="19">
         <f>B40*K4</f>
-        <v>3.0168275862068969</v>
+        <v>3.4344827586206899</v>
       </c>
       <c r="D40" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E40" s="19">
         <f>$D8-C40</f>
-        <v>10.983172413793103</v>
+        <v>10.565517241379311</v>
       </c>
       <c r="F40" s="21">
         <f>$D7+C40</f>
-        <v>6.4334942528735635</v>
+        <v>6.1844827586206899</v>
       </c>
       <c r="G40" s="22">
         <f t="shared" si="0"/>
-        <v>243.67186491161095</v>
+        <v>229.02860429356545</v>
       </c>
       <c r="H40" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I40" s="22">
         <f t="shared" si="2"/>
-        <v>32.507510839499076</v>
+        <v>30.039773073206131</v>
       </c>
       <c r="J40" s="22">
         <f t="shared" si="3"/>
-        <v>6.6617438433449792</v>
+        <v>7.3530334861463835</v>
       </c>
       <c r="K40" s="22">
         <f t="shared" si="4"/>
-        <v>221.98549171563752</v>
+        <v>205.27876151949505</v>
       </c>
       <c r="L40" s="22">
         <f t="shared" si="5"/>
-        <v>235.30897940232748</v>
+        <v>219.98482849178782</v>
       </c>
       <c r="M40" s="22">
         <f>L40*D5</f>
-        <v>1411.8538764139648</v>
+        <v>1319.9089709507271</v>
       </c>
       <c r="N40" s="23">
         <f t="shared" si="6"/>
-        <v>0.3142528735632184</v>
+        <v>0.35775862068965525</v>
       </c>
       <c r="O40" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B40*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P40" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q40" s="25">
-        <f t="shared" si="8"/>
-        <v>355.08704925192916</v>
+        <f t="shared" si="9"/>
+        <v>331.9625278548466</v>
       </c>
       <c r="R40" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6328,70 +6328,70 @@
       </c>
       <c r="C41" s="19">
         <f>B41*K4</f>
-        <v>3.1425287356321845</v>
+        <v>3.577586206896552</v>
       </c>
       <c r="D41" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E41" s="19">
         <f>$D8-C41</f>
-        <v>10.857471264367815</v>
+        <v>10.422413793103448</v>
       </c>
       <c r="F41" s="21">
         <f>$D7+C41</f>
-        <v>6.559195402298851</v>
+        <v>6.3275862068965516</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="0"/>
-        <v>240.88306834646491</v>
+        <v>225.92655237509842</v>
       </c>
       <c r="H41" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I41" s="22">
         <f t="shared" si="2"/>
-        <v>33.790219997044858</v>
+        <v>31.446044360832015</v>
       </c>
       <c r="J41" s="22">
         <f t="shared" si="3"/>
-        <v>5.3790346857991977</v>
+        <v>5.9467621985204993</v>
       </c>
       <c r="K41" s="22">
         <f t="shared" si="4"/>
-        <v>223.73252823417906</v>
+        <v>207.18401979425565</v>
       </c>
       <c r="L41" s="22">
         <f t="shared" si="5"/>
-        <v>234.49059760577745</v>
+        <v>219.07754419129665</v>
       </c>
       <c r="M41" s="22">
         <f>L41*D5</f>
-        <v>1406.9435856346647</v>
+        <v>1314.46526514778</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="6"/>
-        <v>0.25140229885057463</v>
+        <v>0.28620689655172438</v>
       </c>
       <c r="O41" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B41*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P41" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q41" s="25">
-        <f t="shared" si="8"/>
-        <v>353.85209095141494</v>
+        <f t="shared" si="9"/>
+        <v>330.59341348482855</v>
       </c>
       <c r="R41" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S41" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6401,70 +6401,70 @@
       </c>
       <c r="C42" s="19">
         <f>B42*K4</f>
-        <v>3.2682298850574716</v>
+        <v>3.7206896551724142</v>
       </c>
       <c r="D42" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E42" s="19">
         <f>$D8-C42</f>
-        <v>10.731770114942528</v>
+        <v>10.279310344827586</v>
       </c>
       <c r="F42" s="21">
         <f>$D7+C42</f>
-        <v>6.6848965517241385</v>
+        <v>6.4706896551724142</v>
       </c>
       <c r="G42" s="22">
         <f t="shared" si="0"/>
-        <v>238.09427178131887</v>
+        <v>222.82450045663137</v>
       </c>
       <c r="H42" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I42" s="22">
         <f t="shared" si="2"/>
-        <v>35.097748960152245</v>
+        <v>32.884483353259604</v>
       </c>
       <c r="J42" s="22">
         <f t="shared" si="3"/>
-        <v>4.0715057226918105</v>
+        <v>4.5083232060929106</v>
       </c>
       <c r="K42" s="22">
         <f t="shared" si="4"/>
-        <v>225.38028553047411</v>
+        <v>208.9606072498095</v>
       </c>
       <c r="L42" s="22">
         <f t="shared" si="5"/>
-        <v>233.52329697585773</v>
+        <v>217.97725366199532</v>
       </c>
       <c r="M42" s="22">
         <f>L42*D5</f>
-        <v>1401.1397818551463</v>
+        <v>1307.863521971972</v>
       </c>
       <c r="N42" s="23">
         <f t="shared" si="6"/>
-        <v>0.18855172413793087</v>
+        <v>0.21465517241379306</v>
       </c>
       <c r="O42" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B42*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P42" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" si="8"/>
-        <v>352.39241046115001</v>
+        <f t="shared" si="9"/>
+        <v>328.9330479587793</v>
       </c>
       <c r="R42" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S42" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6474,70 +6474,70 @@
       </c>
       <c r="C43" s="19">
         <f>B43*K4</f>
-        <v>3.3939310344827591</v>
+        <v>3.863793103448276</v>
       </c>
       <c r="D43" s="20">
         <f>D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E43" s="19">
         <f>$D8-C43</f>
-        <v>10.606068965517242</v>
+        <v>10.136206896551723</v>
       </c>
       <c r="F43" s="21">
         <f>$D7+C43</f>
-        <v>6.8105977011494261</v>
+        <v>6.613793103448276</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="0"/>
-        <v>235.30547521617288</v>
+        <v>219.72244853816434</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I43" s="22">
         <f t="shared" si="2"/>
-        <v>36.430097728821245</v>
+        <v>34.355090050488883</v>
       </c>
       <c r="J43" s="22">
         <f t="shared" si="3"/>
-        <v>2.7391569540228105</v>
+        <v>3.0377165088636318</v>
       </c>
       <c r="K43" s="22">
         <f t="shared" si="4"/>
-        <v>226.9287636045228</v>
+        <v>210.60852388615649</v>
       </c>
       <c r="L43" s="22">
         <f t="shared" si="5"/>
-        <v>232.40707751256843</v>
+        <v>216.68395690388377</v>
       </c>
       <c r="M43" s="22">
         <f>L43*D5</f>
-        <v>1394.4424650754106</v>
+        <v>1300.1037414233026</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="6"/>
-        <v>0.1257011494252871</v>
+        <v>0.14310344827586219</v>
       </c>
       <c r="O43" s="24">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B43*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P43" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q43" s="25">
-        <f t="shared" si="8"/>
-        <v>350.7080077811346</v>
+        <f t="shared" si="9"/>
+        <v>326.9814312766988</v>
       </c>
       <c r="R43" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S43" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6547,70 +6547,70 @@
       </c>
       <c r="C44" s="19">
         <f>B44*$K$4</f>
-        <v>3.5196321839080467</v>
+        <v>4.0068965517241377</v>
       </c>
       <c r="D44" s="20">
         <f>$D$6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E44" s="19">
         <f>$D$8-C44</f>
-        <v>10.480367816091952</v>
+        <v>9.9931034482758623</v>
       </c>
       <c r="F44" s="21">
         <f>$D$7+C44</f>
-        <v>6.9362988505747136</v>
+        <v>6.7568965517241377</v>
       </c>
       <c r="G44" s="22">
         <f t="shared" si="0"/>
-        <v>232.51667865102681</v>
+        <v>216.62039661969735</v>
       </c>
       <c r="H44" s="22">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I44" s="22">
         <f t="shared" si="2"/>
-        <v>37.787266303051851</v>
+        <v>35.857864452519841</v>
       </c>
       <c r="J44" s="22">
         <f t="shared" si="3"/>
-        <v>1.3819883797922046</v>
+        <v>1.5349421068326734</v>
       </c>
       <c r="K44" s="22">
         <f t="shared" si="4"/>
-        <v>228.37796245632498</v>
+        <v>212.12776970329679</v>
       </c>
       <c r="L44" s="22">
         <f t="shared" si="5"/>
-        <v>231.14193921590939</v>
+        <v>215.19765391696214</v>
       </c>
       <c r="M44" s="22">
         <f>L44*$D$5</f>
-        <v>1386.8516352954564</v>
+        <v>1291.1859235017728</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="6"/>
-        <v>6.2850574712643326E-2</v>
-      </c>
-      <c r="O44" s="230">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B44*$D$13</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="O44" s="127">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="P44" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q44" s="25">
-        <f t="shared" si="8"/>
-        <v>348.79888291136848</v>
+        <f t="shared" si="9"/>
+        <v>324.73856343858722</v>
       </c>
       <c r="R44" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -6620,31 +6620,31 @@
       </c>
       <c r="C45" s="29">
         <f>B45*$K$4</f>
-        <v>3.6453333333333338</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D45" s="30">
         <f>$D$6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="E45" s="29">
         <f>$D$8-C45</f>
-        <v>10.354666666666667</v>
+        <v>9.85</v>
       </c>
       <c r="F45" s="31">
         <f>$D$7+C45</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="G45" s="32">
         <f t="shared" si="0"/>
-        <v>229.72788208588082</v>
+        <v>213.51834470123029</v>
       </c>
       <c r="H45" s="32">
         <f t="shared" si="1"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="I45" s="32">
         <f t="shared" si="2"/>
-        <v>39.169254682844056</v>
+        <v>37.392806559352515</v>
       </c>
       <c r="J45" s="32">
         <f t="shared" si="3"/>
@@ -6652,38 +6652,38 @@
       </c>
       <c r="K45" s="32">
         <f t="shared" si="4"/>
-        <v>229.72788208588082</v>
+        <v>213.51834470123029</v>
       </c>
       <c r="L45" s="32">
         <f t="shared" si="5"/>
-        <v>229.72788208588082</v>
+        <v>213.51834470123029</v>
       </c>
       <c r="M45" s="32">
         <f>L45*$D$5</f>
-        <v>1378.367292515285</v>
-      </c>
-      <c r="N45" s="228">
+        <v>1281.1100682073818</v>
+      </c>
+      <c r="N45" s="125">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O45" s="33">
-        <f>Nozzle_Throat_Diameter-boundry_layer*2+B45*$D$13</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="P45" s="229">
-        <f t="shared" si="7"/>
+      <c r="P45" s="126">
+        <f t="shared" si="8"/>
         <v>3.9760782021995817</v>
       </c>
       <c r="Q45" s="34">
-        <f t="shared" si="8"/>
-        <v>346.66503585185194</v>
+        <f t="shared" si="9"/>
+        <v>322.20444444444445</v>
       </c>
       <c r="R45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="S45" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0114996593688055</v>
       </c>
     </row>
@@ -16172,6 +16172,37 @@
     <row r="996" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="B9:C9"/>
@@ -16188,37 +16219,6 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="T2:U3">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
@@ -16238,8 +16238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16256,36 +16256,36 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="221"/>
+      <c r="N2" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="164"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="199"/>
     </row>
     <row r="3" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120" t="str">
+      <c r="C3" s="142"/>
+      <c r="D3" s="143" t="str">
         <f>'Bates Grain Kn Calculator'!D3</f>
         <v>Q-Motor</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="N3" s="158" t="s">
+      <c r="E3" s="144"/>
+      <c r="N3" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="159" t="s">
+      <c r="O3" s="210" t="s">
         <v>108</v>
       </c>
       <c r="P3" s="52"/>
@@ -16303,8 +16303,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="210"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
@@ -16312,121 +16312,120 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="138">
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="66">
         <f>'Bates Grain Kn Calculator'!D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="192" t="s">
+      <c r="H5" s="200" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="202"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="211"/>
       <c r="P5" s="52"/>
-      <c r="Q5" s="130" t="s">
+      <c r="Q5" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="151"/>
-      <c r="S5" s="153">
-        <f>SUM(O14+O15+O16+O17+O18+O19+O20+O21+O22+O23)/ng</f>
-        <v>3.4166666666666665</v>
+      <c r="R5" s="207"/>
+      <c r="S5" s="234">
+        <v>2.75</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="215" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="139">
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="67">
         <f>'Bates Grain Kn Calculator'!D8</f>
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="206" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="137">
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="65">
         <v>0.57499999999999996</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="144">
-        <f>PI()*((($R$17/2)^2)-((R18/2)^2))</f>
-        <v>32.100671212267017</v>
-      </c>
-      <c r="O6" s="144">
-        <f>N6*lg</f>
-        <v>449.40939697173826</v>
+      <c r="N6" s="72">
+        <f t="shared" ref="N6:N11" si="0">PI()*((($R$17/2)^2)-((R18/2)^2))</f>
+        <v>30.324223088775483</v>
+      </c>
+      <c r="O6" s="72">
+        <f t="shared" ref="O6:O11" si="1">N6*lg</f>
+        <v>424.53912324285676</v>
       </c>
       <c r="P6" s="52"/>
-      <c r="Q6" s="132" t="s">
+      <c r="Q6" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="152"/>
-      <c r="S6" s="154">
+      <c r="R6" s="205"/>
+      <c r="S6" s="76">
         <f>AVERAGE(E14:E19)</f>
-        <v>29.811235565963457</v>
+        <v>28.034787442471924</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="128">
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="62">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="137">
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="65">
         <v>0.1</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="145">
-        <f>PI()*((($R$17/2)^2)-((R19/2)^2))</f>
-        <v>32.100671212267017</v>
-      </c>
-      <c r="O7" s="145">
-        <f>N7*lg</f>
-        <v>449.40939697173826</v>
+      <c r="N7" s="73">
+        <f t="shared" si="0"/>
+        <v>30.324223088775483</v>
+      </c>
+      <c r="O7" s="73">
+        <f t="shared" si="1"/>
+        <v>424.53912324285676</v>
       </c>
       <c r="P7" s="52"/>
-      <c r="Q7" s="132" t="s">
+      <c r="Q7" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="152"/>
-      <c r="S7" s="154">
+      <c r="R7" s="205"/>
+      <c r="S7" s="76">
         <f>(C14+C15+C16+C17+C18+C19)/ng</f>
         <v>3.4166666666666665</v>
       </c>
@@ -16435,139 +16434,139 @@
       </c>
     </row>
     <row r="8" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="139">
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="67">
         <f>Estimate!D10</f>
-        <v>0.25165922323104589</v>
+        <v>0.23289725920790463</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="137">
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="145">
-        <f>PI()*((($R$17/2)^2)-((R20/2)^2))</f>
-        <v>32.100671212267017</v>
-      </c>
-      <c r="O8" s="145">
-        <f>N8*lg</f>
-        <v>449.40939697173826</v>
+      <c r="N8" s="73">
+        <f t="shared" si="0"/>
+        <v>30.324223088775483</v>
+      </c>
+      <c r="O8" s="73">
+        <f t="shared" si="1"/>
+        <v>424.53912324285676</v>
       </c>
       <c r="P8" s="52"/>
-      <c r="Q8" s="132" t="s">
+      <c r="Q8" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="154">
+      <c r="R8" s="205"/>
+      <c r="S8" s="76">
         <f>SUM(O6:O11)</f>
-        <v>2504.1437875409301</v>
+        <v>2354.9221451676417</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="139">
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="67">
         <f>[0]!Num_Grains</f>
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="137">
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="65">
         <f>PI()/4*ds^2</f>
         <v>0.25967226777328128</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="145">
-        <f>PI()*((($R$17/2)^2)-((R21/2)^2))</f>
-        <v>30.090051913969553</v>
-      </c>
-      <c r="O9" s="145">
-        <f>N9*lg</f>
-        <v>421.26072679557376</v>
+      <c r="N9" s="73">
+        <f t="shared" si="0"/>
+        <v>28.31360379047802</v>
+      </c>
+      <c r="O9" s="73">
+        <f t="shared" si="1"/>
+        <v>396.39045306669226</v>
       </c>
       <c r="P9" s="52"/>
-      <c r="Q9" s="132" t="s">
+      <c r="Q9" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="152"/>
-      <c r="S9" s="154">
+      <c r="R9" s="205"/>
+      <c r="S9" s="76">
         <f>S10*rhop</f>
-        <v>147.74448346491488</v>
-      </c>
-      <c r="T9" s="156" t="s">
+        <v>138.94040656489085</v>
+      </c>
+      <c r="T9" s="78" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="150">
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="75">
         <f>[0]!boundary_layer</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="137">
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="65">
         <f>As*sdots</f>
         <v>2.5967226777328128E-2</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="145">
-        <f>PI()*((($R$17/2)^2)-((R22/2)^2))</f>
-        <v>27.828105203384901</v>
-      </c>
-      <c r="O10" s="145">
-        <f>N10*lg</f>
-        <v>389.59347284738863</v>
+      <c r="N10" s="73">
+        <f t="shared" si="0"/>
+        <v>26.051657079893367</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="1"/>
+        <v>364.72319911850713</v>
       </c>
       <c r="P10" s="52"/>
-      <c r="Q10" s="134" t="s">
+      <c r="Q10" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="149"/>
-      <c r="S10" s="155">
+      <c r="R10" s="133"/>
+      <c r="S10" s="77">
         <f>S8</f>
-        <v>2504.1437875409301</v>
-      </c>
-      <c r="T10" s="156" t="s">
+        <v>2354.9221451676417</v>
+      </c>
+      <c r="T10" s="78" t="s">
         <v>81</v>
       </c>
       <c r="AA10" s="3"/>
@@ -16579,43 +16578,43 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="129">
+      <c r="C11" s="203"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="63">
         <v>1.4</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="140">
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="68">
         <f>Vdots*rhos</f>
         <v>1.8177058744129691E-3</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="146">
-        <f>PI()*((($R$17/2)^2)-((R23/2)^2))</f>
-        <v>24.647242641625237</v>
-      </c>
-      <c r="O11" s="146">
-        <f>N11*lg</f>
-        <v>345.06139698275331</v>
+      <c r="N11" s="74">
+        <f t="shared" si="0"/>
+        <v>22.8707945181337</v>
+      </c>
+      <c r="O11" s="74">
+        <f t="shared" si="1"/>
+        <v>320.19112325387181</v>
       </c>
       <c r="P11" s="58"/>
       <c r="Q11" s="58"/>
       <c r="R11" s="58"/>
       <c r="S11" s="58"/>
-      <c r="T11" s="157"/>
+      <c r="T11" s="79"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -16645,49 +16644,49 @@
       <c r="AH12" s="3"/>
     </row>
     <row r="13" spans="2:34" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H13" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="116" t="s">
+      <c r="I13" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="116" t="s">
+      <c r="J13" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="116" t="s">
+      <c r="K13" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="116" t="s">
+      <c r="L13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="116" t="s">
+      <c r="M13" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="116" t="s">
+      <c r="N13" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="116" t="s">
+      <c r="O13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="115"/>
+      <c r="Q13" s="59"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -16697,621 +16696,621 @@
       <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="177">
+      <c r="B14" s="88">
         <v>1</v>
       </c>
-      <c r="C14" s="178">
+      <c r="C14" s="89">
         <f>'Bates Grain Kn Calculator'!F7</f>
         <v>3</v>
       </c>
-      <c r="D14" s="179">
-        <f t="shared" ref="D14:D23" si="0">IF(ig&gt;ng,0,PI()*lg*dc)</f>
+      <c r="D14" s="90">
+        <f t="shared" ref="D14:D23" si="2">IF(ig&gt;ng,0,PI()*lg*dc)</f>
         <v>131.94689145077132</v>
       </c>
-      <c r="E14" s="179">
-        <f t="shared" ref="E14:E23" si="1">IF(ig&gt;ng,0,PI()/4*(dg^2-dc^2))</f>
-        <v>32.100671212267017</v>
-      </c>
-      <c r="F14" s="179">
-        <f t="shared" ref="F14:F23" si="2">IF(ig&gt;ng,0,Acyl+2*Aend)</f>
-        <v>196.14823387530535</v>
-      </c>
-      <c r="G14" s="179">
-        <f t="shared" ref="G14:G23" si="3">Aseg*sdot</f>
-        <v>49.36251217520087</v>
-      </c>
-      <c r="H14" s="179">
-        <f t="shared" ref="H14:H23" si="4">Aend*sdot</f>
-        <v>8.0784299824743133</v>
-      </c>
-      <c r="I14" s="179">
+      <c r="E14" s="90">
+        <f t="shared" ref="E14:E23" si="3">IF(ig&gt;ng,0,PI()/4*(dg^2-dc^2))</f>
+        <v>30.324223088775483</v>
+      </c>
+      <c r="F14" s="90">
+        <f t="shared" ref="F14:F23" si="4">IF(ig&gt;ng,0,Acyl+2*Aend)</f>
+        <v>192.59533762832228</v>
+      </c>
+      <c r="G14" s="90">
+        <f t="shared" ref="G14:G23" si="5">Aseg*sdot</f>
+        <v>44.85492626985728</v>
+      </c>
+      <c r="H14" s="90">
+        <f t="shared" ref="H14:H23" si="6">Aend*sdot</f>
+        <v>7.06242844498487</v>
+      </c>
+      <c r="I14" s="90">
         <f>0+Vdot-Vdote</f>
-        <v>41.284082192726558</v>
-      </c>
-      <c r="J14" s="179">
-        <f t="shared" ref="J14:J23" si="5">IF(ig&gt;ng,0,VdotAbove*rhop+Wdots)</f>
-        <v>2.4375785552452798</v>
-      </c>
-      <c r="K14" s="179">
+        <v>37.792497824872413</v>
+      </c>
+      <c r="J14" s="90">
+        <f t="shared" ref="J14:J23" si="7">IF(ig&gt;ng,0,VdotAbove*rhop+Wdots)</f>
+        <v>2.2315750775418852</v>
+      </c>
+      <c r="K14" s="90">
         <f>PI()/4*dc^2</f>
         <v>7.0685834705770345</v>
       </c>
-      <c r="L14" s="179">
+      <c r="L14" s="90">
         <f>WdotAbove/Ac</f>
-        <v>0.34484682332629951</v>
-      </c>
-      <c r="M14" s="179">
+        <v>0.31570329286352949</v>
+      </c>
+      <c r="M14" s="90">
         <f>PI()/4*(dc-2*bl)^2</f>
         <v>7.0215381205895282</v>
       </c>
-      <c r="N14" s="179">
+      <c r="N14" s="90">
         <f>WdotAbove/M14</f>
-        <v>0.34715734834472717</v>
-      </c>
-      <c r="O14" s="180">
-        <f>IF(ig&gt;ng,0,C14)</f>
+        <v>0.31781855189223446</v>
+      </c>
+      <c r="O14" s="91">
+        <f t="shared" ref="O14:O23" si="8">IF(ig&gt;ng,0,C14)</f>
         <v>3</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="181">
+      <c r="B15" s="92">
         <v>2</v>
       </c>
-      <c r="C15" s="182">
+      <c r="C15" s="93">
         <f>'Bates Grain Kn Calculator'!F8</f>
         <v>3</v>
       </c>
-      <c r="D15" s="183">
-        <f t="shared" si="0"/>
+      <c r="D15" s="94">
+        <f t="shared" si="2"/>
         <v>131.94689145077132</v>
       </c>
-      <c r="E15" s="183">
-        <f t="shared" si="1"/>
-        <v>32.100671212267017</v>
-      </c>
-      <c r="F15" s="183">
-        <f t="shared" si="2"/>
-        <v>196.14823387530535</v>
-      </c>
-      <c r="G15" s="183">
+      <c r="E15" s="94">
         <f t="shared" si="3"/>
-        <v>49.36251217520087</v>
-      </c>
-      <c r="H15" s="183">
+        <v>30.324223088775483</v>
+      </c>
+      <c r="F15" s="94">
         <f t="shared" si="4"/>
-        <v>8.0784299824743133</v>
-      </c>
-      <c r="I15" s="183">
-        <f t="shared" ref="I15:I23" si="6">IF(ig&gt;ng,0,I14+H14+Vdot-Vdote)</f>
-        <v>90.64659436792742</v>
-      </c>
-      <c r="J15" s="183">
+        <v>192.59533762832228</v>
+      </c>
+      <c r="G15" s="94">
         <f t="shared" si="5"/>
-        <v>5.349966773582131</v>
-      </c>
-      <c r="K15" s="183">
-        <f t="shared" ref="K15:K23" si="7">IF(ig&gt;ng,0,PI()/4*dc^2)</f>
+        <v>44.85492626985728</v>
+      </c>
+      <c r="H15" s="94">
+        <f t="shared" si="6"/>
+        <v>7.06242844498487</v>
+      </c>
+      <c r="I15" s="94">
+        <f t="shared" ref="I15:I23" si="9">IF(ig&gt;ng,0,I14+H14+Vdot-Vdote)</f>
+        <v>82.647424094729686</v>
+      </c>
+      <c r="J15" s="94">
+        <f t="shared" si="7"/>
+        <v>4.8780157274634641</v>
+      </c>
+      <c r="K15" s="94">
+        <f t="shared" ref="K15:K23" si="10">IF(ig&gt;ng,0,PI()/4*dc^2)</f>
         <v>7.0685834705770345</v>
       </c>
-      <c r="L15" s="183">
-        <f t="shared" ref="L15:L23" si="8">IF(ig&gt;ng,0,WdotAbove/Ac)</f>
-        <v>0.75686547323821773</v>
-      </c>
-      <c r="M15" s="183">
-        <f t="shared" ref="M15:M23" si="9">IF(ig&gt;ng,0,PI()/4*(dc-2*bl)^2)</f>
+      <c r="L15" s="94">
+        <f t="shared" ref="L15:L23" si="11">IF(ig&gt;ng,0,WdotAbove/Ac)</f>
+        <v>0.6900980582273939</v>
+      </c>
+      <c r="M15" s="94">
+        <f t="shared" ref="M15:M23" si="12">IF(ig&gt;ng,0,PI()/4*(dc-2*bl)^2)</f>
         <v>7.0215381205895282</v>
       </c>
-      <c r="N15" s="183">
-        <f t="shared" ref="N15:N23" si="10">IF(ig&gt;ng,0,WdotAbove/M15)</f>
-        <v>0.76193658450620905</v>
-      </c>
-      <c r="O15" s="184">
-        <f>IF(ig&gt;ng,0,C15)</f>
+      <c r="N15" s="94">
+        <f t="shared" ref="N15:N23" si="13">IF(ig&gt;ng,0,WdotAbove/M15)</f>
+        <v>0.69472181788196374</v>
+      </c>
+      <c r="O15" s="95">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="181">
+      <c r="B16" s="92">
         <v>3</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="93">
         <f>'Bates Grain Kn Calculator'!F9</f>
         <v>3</v>
       </c>
-      <c r="D16" s="183">
-        <f t="shared" si="0"/>
+      <c r="D16" s="94">
+        <f t="shared" si="2"/>
         <v>131.94689145077132</v>
       </c>
-      <c r="E16" s="183">
-        <f t="shared" si="1"/>
-        <v>32.100671212267017</v>
-      </c>
-      <c r="F16" s="183">
-        <f t="shared" si="2"/>
-        <v>196.14823387530535</v>
-      </c>
-      <c r="G16" s="183">
+      <c r="E16" s="94">
         <f t="shared" si="3"/>
-        <v>49.36251217520087</v>
-      </c>
-      <c r="H16" s="183">
+        <v>30.324223088775483</v>
+      </c>
+      <c r="F16" s="94">
         <f t="shared" si="4"/>
-        <v>8.0784299824743133</v>
-      </c>
-      <c r="I16" s="183">
+        <v>192.59533762832228</v>
+      </c>
+      <c r="G16" s="94">
+        <f t="shared" si="5"/>
+        <v>44.85492626985728</v>
+      </c>
+      <c r="H16" s="94">
         <f t="shared" si="6"/>
-        <v>140.0091065431283</v>
-      </c>
-      <c r="J16" s="183">
-        <f t="shared" si="5"/>
-        <v>8.2623549919189809</v>
-      </c>
-      <c r="K16" s="183">
+        <v>7.06242844498487</v>
+      </c>
+      <c r="I16" s="94">
+        <f t="shared" si="9"/>
+        <v>127.50235036458696</v>
+      </c>
+      <c r="J16" s="94">
         <f t="shared" si="7"/>
+        <v>7.524456377385043</v>
+      </c>
+      <c r="K16" s="94">
+        <f t="shared" si="10"/>
         <v>7.0685834705770345</v>
       </c>
-      <c r="L16" s="183">
+      <c r="L16" s="94">
+        <f t="shared" si="11"/>
+        <v>1.0644928235912583</v>
+      </c>
+      <c r="M16" s="94">
+        <f t="shared" si="12"/>
+        <v>7.0215381205895282</v>
+      </c>
+      <c r="N16" s="94">
+        <f t="shared" si="13"/>
+        <v>1.071625083871693</v>
+      </c>
+      <c r="O16" s="95">
         <f t="shared" si="8"/>
-        <v>1.1688841231501359</v>
-      </c>
-      <c r="M16" s="183">
-        <f t="shared" si="9"/>
-        <v>7.0215381205895282</v>
-      </c>
-      <c r="N16" s="183">
-        <f t="shared" si="10"/>
-        <v>1.1767158206676906</v>
-      </c>
-      <c r="O16" s="184">
-        <f>IF(ig&gt;ng,0,C16)</f>
         <v>3</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="181">
+      <c r="B17" s="92">
         <v>4</v>
       </c>
-      <c r="C17" s="182">
+      <c r="C17" s="93">
         <f>'Bates Grain Kn Calculator'!F10</f>
         <v>3.4</v>
       </c>
-      <c r="D17" s="183">
-        <f t="shared" si="0"/>
+      <c r="D17" s="94">
+        <f t="shared" si="2"/>
         <v>149.53981031087415</v>
       </c>
-      <c r="E17" s="183">
-        <f t="shared" si="1"/>
-        <v>30.090051913969553</v>
-      </c>
-      <c r="F17" s="183">
-        <f t="shared" si="2"/>
-        <v>209.71991413881324</v>
-      </c>
-      <c r="G17" s="183">
+      <c r="E17" s="94">
         <f t="shared" si="3"/>
-        <v>52.77795068825538</v>
-      </c>
-      <c r="H17" s="183">
+        <v>28.31360379047802</v>
+      </c>
+      <c r="F17" s="94">
         <f t="shared" si="4"/>
-        <v>7.5724390916514235</v>
-      </c>
-      <c r="I17" s="183">
+        <v>206.1670178918302</v>
+      </c>
+      <c r="G17" s="94">
+        <f t="shared" si="5"/>
+        <v>48.01573340607429</v>
+      </c>
+      <c r="H17" s="94">
         <f t="shared" si="6"/>
-        <v>193.29304812220656</v>
-      </c>
-      <c r="J17" s="183">
-        <f t="shared" si="5"/>
-        <v>11.406107545084598</v>
-      </c>
-      <c r="K17" s="183">
+        <v>6.5941607211008701</v>
+      </c>
+      <c r="I17" s="94">
+        <f t="shared" si="9"/>
+        <v>175.98635149454526</v>
+      </c>
+      <c r="J17" s="94">
         <f t="shared" si="7"/>
+        <v>10.385012444052583</v>
+      </c>
+      <c r="K17" s="94">
+        <f t="shared" si="10"/>
         <v>9.0792027688745005</v>
       </c>
-      <c r="L17" s="183">
+      <c r="L17" s="94">
+        <f t="shared" si="11"/>
+        <v>1.1438242661189024</v>
+      </c>
+      <c r="M17" s="94">
+        <f t="shared" si="12"/>
+        <v>9.025874233579815</v>
+      </c>
+      <c r="N17" s="94">
+        <f t="shared" si="13"/>
+        <v>1.1505824450130533</v>
+      </c>
+      <c r="O17" s="95">
         <f t="shared" si="8"/>
-        <v>1.2562895482615761</v>
-      </c>
-      <c r="M17" s="183">
-        <f t="shared" si="9"/>
-        <v>9.025874233579815</v>
-      </c>
-      <c r="N17" s="183">
-        <f t="shared" si="10"/>
-        <v>1.2637122177760218</v>
-      </c>
-      <c r="O17" s="184">
-        <f>IF(ig&gt;ng,0,C17)</f>
         <v>3.4</v>
       </c>
-      <c r="Q17" s="141" t="s">
+      <c r="Q17" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="138">
+      <c r="R17" s="66">
         <f>'Bates Grain Kn Calculator'!D6</f>
-        <v>7.0620000000000003</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="181">
+      <c r="B18" s="92">
         <v>5</v>
       </c>
-      <c r="C18" s="182">
+      <c r="C18" s="93">
         <f>'Bates Grain Kn Calculator'!F11</f>
         <v>3.8</v>
       </c>
-      <c r="D18" s="183">
-        <f t="shared" si="0"/>
+      <c r="D18" s="94">
+        <f t="shared" si="2"/>
         <v>167.13272917097697</v>
       </c>
-      <c r="E18" s="183">
-        <f t="shared" si="1"/>
-        <v>27.828105203384901</v>
-      </c>
-      <c r="F18" s="183">
-        <f t="shared" si="2"/>
-        <v>222.78893957774676</v>
-      </c>
-      <c r="G18" s="183">
+      <c r="E18" s="94">
         <f t="shared" si="3"/>
-        <v>56.06689147860417</v>
-      </c>
-      <c r="H18" s="183">
+        <v>26.051657079893367</v>
+      </c>
+      <c r="F18" s="94">
         <f t="shared" si="4"/>
-        <v>7.0031993394756702</v>
-      </c>
-      <c r="I18" s="183">
+        <v>219.23604333076372</v>
+      </c>
+      <c r="G18" s="94">
+        <f t="shared" si="5"/>
+        <v>51.059473611320293</v>
+      </c>
+      <c r="H18" s="94">
         <f t="shared" si="6"/>
-        <v>249.92917935298652</v>
-      </c>
-      <c r="J18" s="183">
-        <f t="shared" si="5"/>
-        <v>14.747639287700617</v>
-      </c>
-      <c r="K18" s="183">
+        <v>6.0673595317313698</v>
+      </c>
+      <c r="I18" s="94">
+        <f t="shared" si="9"/>
+        <v>227.57262629523507</v>
+      </c>
+      <c r="J18" s="94">
         <f t="shared" si="7"/>
+        <v>13.428602657293281</v>
+      </c>
+      <c r="K18" s="94">
+        <f t="shared" si="10"/>
         <v>11.341149479459153</v>
       </c>
-      <c r="L18" s="183">
+      <c r="L18" s="94">
+        <f t="shared" si="11"/>
+        <v>1.18406010621894</v>
+      </c>
+      <c r="M18" s="94">
+        <f t="shared" si="12"/>
+        <v>11.281537758857286</v>
+      </c>
+      <c r="N18" s="94">
+        <f t="shared" si="13"/>
+        <v>1.190316687700691</v>
+      </c>
+      <c r="O18" s="95">
         <f t="shared" si="8"/>
-        <v>1.3003654800962834</v>
-      </c>
-      <c r="M18" s="183">
-        <f t="shared" si="9"/>
-        <v>11.281537758857286</v>
-      </c>
-      <c r="N18" s="183">
-        <f t="shared" si="10"/>
-        <v>1.3072366199476704</v>
-      </c>
-      <c r="O18" s="184">
-        <f>IF(ig&gt;ng,0,C18)</f>
         <v>3.8</v>
       </c>
-      <c r="Q18" s="142" t="s">
+      <c r="Q18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="R18" s="139">
-        <f>C14</f>
+      <c r="R18" s="67">
+        <f t="shared" ref="R18:R23" si="14">C14</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="181">
+      <c r="B19" s="92">
         <v>6</v>
       </c>
-      <c r="C19" s="182">
+      <c r="C19" s="93">
         <f>'Bates Grain Kn Calculator'!F12</f>
         <v>4.3</v>
       </c>
-      <c r="D19" s="183">
-        <f t="shared" si="0"/>
+      <c r="D19" s="94">
+        <f t="shared" si="2"/>
         <v>189.12387774610553</v>
       </c>
-      <c r="E19" s="183">
-        <f t="shared" si="1"/>
-        <v>24.647242641625237</v>
-      </c>
-      <c r="F19" s="183">
-        <f t="shared" si="2"/>
-        <v>238.41836302935602</v>
-      </c>
-      <c r="G19" s="183">
+      <c r="E19" s="94">
         <f t="shared" si="3"/>
-        <v>60.000180043985246</v>
-      </c>
-      <c r="H19" s="183">
+        <v>22.8707945181337</v>
+      </c>
+      <c r="F19" s="94">
         <f t="shared" si="4"/>
-        <v>6.2027059379785188</v>
-      </c>
-      <c r="I19" s="183">
+        <v>234.86546678237295</v>
+      </c>
+      <c r="G19" s="94">
+        <f t="shared" si="5"/>
+        <v>54.699523496199831</v>
+      </c>
+      <c r="H19" s="94">
         <f t="shared" si="6"/>
-        <v>310.72985279846893</v>
-      </c>
-      <c r="J19" s="183">
-        <f t="shared" si="5"/>
-        <v>18.334879020984079</v>
-      </c>
-      <c r="K19" s="183">
+        <v>5.3265453591805088</v>
+      </c>
+      <c r="I19" s="94">
+        <f t="shared" si="9"/>
+        <v>283.01296396398578</v>
+      </c>
+      <c r="J19" s="94">
         <f t="shared" si="7"/>
+        <v>16.699582579749574</v>
+      </c>
+      <c r="K19" s="94">
+        <f t="shared" si="10"/>
         <v>14.522012041218817</v>
       </c>
-      <c r="L19" s="183">
+      <c r="L19" s="94">
+        <f t="shared" si="11"/>
+        <v>1.1499496441918662</v>
+      </c>
+      <c r="M19" s="94">
+        <f t="shared" si="12"/>
+        <v>14.454546338982977</v>
+      </c>
+      <c r="N19" s="94">
+        <f t="shared" si="13"/>
+        <v>1.1553169631281943</v>
+      </c>
+      <c r="O19" s="95">
         <f t="shared" si="8"/>
-        <v>1.2625577618957307</v>
-      </c>
-      <c r="M19" s="183">
-        <f t="shared" si="9"/>
-        <v>14.454546338982977</v>
-      </c>
-      <c r="N19" s="183">
-        <f t="shared" si="10"/>
-        <v>1.2684506722660742</v>
-      </c>
-      <c r="O19" s="184">
-        <f>IF(ig&gt;ng,0,C19)</f>
         <v>4.3</v>
       </c>
-      <c r="Q19" s="142" t="s">
+      <c r="Q19" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="139">
-        <f>C15</f>
+      <c r="R19" s="67">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="181">
+      <c r="B20" s="92">
         <v>7</v>
       </c>
-      <c r="C20" s="182">
+      <c r="C20" s="93">
         <v>0</v>
       </c>
-      <c r="D20" s="183">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="183">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="183">
+      <c r="D20" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="183">
+      <c r="E20" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="183">
+      <c r="F20" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="183">
+      <c r="G20" s="94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="183">
+      <c r="I20" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="67">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92">
+        <v>8</v>
+      </c>
+      <c r="C21" s="93">
+        <v>0</v>
+      </c>
+      <c r="D21" s="94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="183">
+      <c r="H21" s="94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="183">
+      <c r="K21" s="94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M20" s="183">
+      <c r="Q21" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="67">
+        <f t="shared" si="14"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="92">
+        <v>9</v>
+      </c>
+      <c r="C22" s="93">
+        <v>0</v>
+      </c>
+      <c r="D22" s="94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="94">
+        <f>IF(ig&gt;ng,0,Acyl+2*Aend)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="94">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N20" s="183">
+      <c r="J22" s="94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="94">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O20" s="184">
-        <f>IF(ig&gt;ng,0,C20)</f>
+      <c r="L22" s="94">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="R20" s="139">
-        <f>C16</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="181">
-        <v>8</v>
-      </c>
-      <c r="C21" s="182">
+      <c r="M22" s="94">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D21" s="183">
-        <f t="shared" si="0"/>
+      <c r="N22" s="94">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E21" s="183">
-        <f t="shared" si="1"/>
+      <c r="O22" s="95">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F21" s="183">
+      <c r="Q22" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" s="67">
+        <f t="shared" si="14"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="96">
+        <v>10</v>
+      </c>
+      <c r="C23" s="97">
+        <v>0</v>
+      </c>
+      <c r="D23" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="183">
+      <c r="E23" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H21" s="183">
+      <c r="F23" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="183">
+      <c r="G23" s="98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="183">
-        <f t="shared" si="5"/>
+      <c r="I23" s="98">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="183">
+      <c r="J23" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="183">
+      <c r="K23" s="98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M21" s="183">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="183">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="184">
-        <f>IF(ig&gt;ng,0,C21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="142" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="139">
-        <f>C17</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="181">
-        <v>9</v>
-      </c>
-      <c r="C22" s="182">
-        <v>0</v>
-      </c>
-      <c r="D22" s="183">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="183">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="183">
-        <f>IF(ig&gt;ng,0,Acyl+2*Aend)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="183">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="183">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="183">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="183">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="183">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="183">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="184">
-        <f>IF(ig&gt;ng,0,C22)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="R22" s="139">
-        <f>C18</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="185">
-        <v>10</v>
-      </c>
-      <c r="C23" s="186">
-        <v>0</v>
-      </c>
-      <c r="D23" s="187">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="187">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="187">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="187">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="187">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="187">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="187">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="187">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="187">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="187">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="188">
-        <f>IF(ig&gt;ng,0,C23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="143" t="s">
+      <c r="Q23" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="R23" s="140">
-        <f>C19</f>
+      <c r="R23" s="68">
+        <f t="shared" si="14"/>
         <v>4.3</v>
       </c>
     </row>
@@ -21225,6 +21224,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B11:D11"/>
@@ -21241,16 +21250,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21277,15 +21276,15 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="232" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="F2" s="198" t="s">
+      <c r="C2" s="233"/>
+      <c r="F2" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="221">
+      <c r="G2" s="229"/>
+      <c r="H2" s="120">
         <v>1.26</v>
       </c>
       <c r="I2" s="3"/>
@@ -21298,191 +21297,191 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="168">
+      <c r="C4" s="207"/>
+      <c r="D4" s="83">
         <v>9.1</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="J4" s="122" t="s">
+      <c r="G4" s="226"/>
+      <c r="H4" s="227"/>
+      <c r="J4" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="222">
+      <c r="K4" s="214"/>
+      <c r="L4" s="121">
         <f>MAX(D14:D43)</f>
-        <v>745.97934257540339</v>
-      </c>
-      <c r="M4" s="166"/>
+        <v>642.22020614588871</v>
+      </c>
+      <c r="M4" s="81"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="169">
+      <c r="C5" s="205"/>
+      <c r="D5" s="84">
         <v>13.43</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="215">
+      <c r="G5" s="216"/>
+      <c r="H5" s="117">
         <v>1.4109999999999999E-2</v>
       </c>
-      <c r="J5" s="124" t="s">
+      <c r="J5" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="125"/>
-      <c r="L5" s="231">
+      <c r="K5" s="216"/>
+      <c r="L5" s="128">
         <f>AVERAGE(D14:D43)</f>
-        <v>698.39506261096119</v>
-      </c>
-      <c r="M5" s="166"/>
+        <v>586.52275088831789</v>
+      </c>
+      <c r="M5" s="81"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="204" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="169">
+      <c r="C6" s="205"/>
+      <c r="D6" s="84">
         <f>(('Bates Grain Kn Calculator'!D11^2)/4)/((Nozzle_Throat_Diameter^2)/4)</f>
         <v>15.858720338319371</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="215" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="215">
+      <c r="G6" s="216"/>
+      <c r="H6" s="117">
         <v>0.44005699999999998</v>
       </c>
-      <c r="J6" s="124" t="s">
+      <c r="J6" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="125"/>
-      <c r="L6" s="223">
+      <c r="K6" s="216"/>
+      <c r="L6" s="122">
         <f>MAX(L14:L43)</f>
-        <v>4622.4000880041103</v>
-      </c>
-      <c r="M6" s="166" t="s">
+        <v>3923.1600891050684</v>
+      </c>
+      <c r="M6" s="81" t="s">
         <v>56</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="169">
+      <c r="C7" s="205"/>
+      <c r="D7" s="84">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F7" s="196"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="195"/>
-      <c r="J7" s="124" t="s">
+      <c r="F7" s="230"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="101"/>
+      <c r="J7" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="223">
+      <c r="K7" s="216"/>
+      <c r="L7" s="122">
         <f>AVERAGE(L14:L43)</f>
-        <v>4301.6910884659092</v>
-      </c>
-      <c r="M7" s="166" t="s">
+        <v>3550.8703801899906</v>
+      </c>
+      <c r="M7" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="169">
+      <c r="C8" s="205"/>
+      <c r="D8" s="84">
         <f>6*2300</f>
         <v>13800</v>
       </c>
-      <c r="F8" s="216" t="s">
+      <c r="F8" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="217"/>
-      <c r="H8" s="218"/>
-      <c r="J8" s="124" t="s">
+      <c r="G8" s="226"/>
+      <c r="H8" s="227"/>
+      <c r="J8" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="125"/>
-      <c r="L8" s="224">
+      <c r="K8" s="216"/>
+      <c r="L8" s="123">
         <f>K43</f>
-        <v>7.5002918665422884</v>
-      </c>
-      <c r="M8" s="166" t="s">
+        <v>9.2368014748779306</v>
+      </c>
+      <c r="M8" s="81" t="s">
         <v>57</v>
       </c>
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="169">
+      <c r="C9" s="205"/>
+      <c r="D9" s="84">
         <f>AVERAGE(D14:D43)</f>
-        <v>698.39506261096119</v>
-      </c>
-      <c r="F9" s="124" t="s">
+        <v>586.52275088831789</v>
+      </c>
+      <c r="F9" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="125"/>
-      <c r="H9" s="219">
+      <c r="G9" s="216"/>
+      <c r="H9" s="118">
         <v>75.234999999999999</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="124" t="s">
+      <c r="J9" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="223">
+      <c r="K9" s="216"/>
+      <c r="L9" s="122">
         <f>MAX(M14:M43)</f>
-        <v>32181.177321244992</v>
-      </c>
-      <c r="M9" s="166" t="s">
+        <v>32626.648861105939</v>
+      </c>
+      <c r="M9" s="81" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="170">
+      <c r="C10" s="133"/>
+      <c r="D10" s="85">
         <f>AVERAGE(I14:I43)</f>
-        <v>0.25165922323104589</v>
-      </c>
-      <c r="F10" s="126" t="s">
+        <v>0.23289725920790463</v>
+      </c>
+      <c r="F10" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="220">
+      <c r="G10" s="224"/>
+      <c r="H10" s="119">
         <v>6.4099999999999999E-3</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="126" t="s">
+      <c r="J10" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="225">
+      <c r="K10" s="224"/>
+      <c r="L10" s="124">
         <f>L9/'Erosive Burning'!S9</f>
-        <v>217.81643934534523</v>
-      </c>
-      <c r="M10" s="166" t="s">
+        <v>234.82476889016414</v>
+      </c>
+      <c r="M10" s="81" t="s">
         <v>57</v>
       </c>
       <c r="Q10" s="3"/>
@@ -21502,1551 +21501,1551 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="J13" s="116" t="s">
+      <c r="J13" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="116" t="s">
+      <c r="K13" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="116" t="s">
+      <c r="L13" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="116" t="s">
+      <c r="M13" s="60" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="232">
+      <c r="B14" s="129">
         <v>0</v>
       </c>
-      <c r="C14" s="200">
+      <c r="C14" s="102">
         <f>'Bates Grain Kn Calculator'!Q16</f>
-        <v>317.30939153909469</v>
-      </c>
-      <c r="D14" s="212">
-        <f>($H$9*EXP(C14*$H$10))</f>
-        <v>575.1148430950891</v>
-      </c>
-      <c r="E14" s="201">
+        <v>277.44592592592596</v>
+      </c>
+      <c r="D14" s="114">
+        <f t="shared" ref="D14:D43" si="0">($H$9*EXP(C14*$H$10))</f>
+        <v>445.43214949654555</v>
+      </c>
+      <c r="E14" s="103">
         <f>'Bates Grain Kn Calculator'!P16</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F14" s="178">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D14)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D14)))</f>
-        <v>1.5190706976187018</v>
-      </c>
-      <c r="G14" s="178">
-        <f t="shared" ref="G14:G43" si="0">(D14*E14)*F14</f>
-        <v>3473.6613816813619</v>
-      </c>
-      <c r="H14" s="202">
+      <c r="F14" s="89">
+        <f t="shared" ref="F14:F43" si="1">SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D14)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D14)))</f>
+        <v>1.4750177109747984</v>
+      </c>
+      <c r="G14" s="89">
+        <f t="shared" ref="G14:G43" si="2">(D14*E14)*F14</f>
+        <v>2612.3641311842121</v>
+      </c>
+      <c r="H14" s="104">
         <f>'Bates Grain Kn Calculator'!N16-'Bates Grain Kn Calculator'!N17</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I14" s="212">
-        <f>$H$5*(D14^$H$6)</f>
-        <v>0.23119387990529261</v>
-      </c>
-      <c r="J14" s="178">
-        <f t="shared" ref="J14:J43" si="1">H14/I14</f>
-        <v>0.27185224253509732</v>
-      </c>
-      <c r="K14" s="178">
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I14" s="114">
+        <f t="shared" ref="I14:I43" si="3">$H$5*(D14^$H$6)</f>
+        <v>0.20660550088802807</v>
+      </c>
+      <c r="J14" s="89">
+        <f t="shared" ref="J14:J43" si="4">H14/I14</f>
+        <v>0.34632051823590843</v>
+      </c>
+      <c r="K14" s="89">
         <f>J14</f>
-        <v>0.27185224253509732</v>
-      </c>
-      <c r="L14" s="178">
-        <f t="shared" ref="L14:L43" si="2">G14</f>
-        <v>3473.6613816813619</v>
-      </c>
-      <c r="M14" s="203">
+        <v>0.34632051823590843</v>
+      </c>
+      <c r="L14" s="89">
+        <f t="shared" ref="L14:L43" si="5">G14</f>
+        <v>2612.3641311842121</v>
+      </c>
+      <c r="M14" s="105">
         <f>G14*J14</f>
-        <v>944.32263641764291</v>
+        <v>904.71529973261499</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="233">
+      <c r="B15" s="130">
         <v>1</v>
       </c>
-      <c r="C15" s="204">
+      <c r="C15" s="106">
         <f>'Bates Grain Kn Calculator'!Q17</f>
-        <v>321.46776579259461</v>
-      </c>
-      <c r="D15" s="213">
-        <f>($H$9*EXP(C15*$H$10))</f>
-        <v>590.65076875914372</v>
-      </c>
-      <c r="E15" s="205">
+        <v>283.06683930065617</v>
+      </c>
+      <c r="D15" s="115">
+        <f t="shared" si="0"/>
+        <v>461.77372026747497</v>
+      </c>
+      <c r="E15" s="107">
         <f>'Bates Grain Kn Calculator'!P17</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F15" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D15)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D15)))</f>
-        <v>1.523337563141598</v>
-      </c>
-      <c r="G15" s="182">
+      <c r="F15" s="93">
+        <f t="shared" si="1"/>
+        <v>1.4816010315160608</v>
+      </c>
+      <c r="G15" s="93">
+        <f t="shared" si="2"/>
+        <v>2720.2912381771334</v>
+      </c>
+      <c r="H15" s="108">
+        <f>'Bates Grain Kn Calculator'!N17-'Bates Grain Kn Calculator'!N18</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I15" s="115">
+        <f t="shared" si="3"/>
+        <v>0.20990739555562232</v>
+      </c>
+      <c r="J15" s="93">
+        <f t="shared" si="4"/>
+        <v>0.34087281178699935</v>
+      </c>
+      <c r="K15" s="93">
+        <f t="shared" ref="K15:K43" si="6">J15+K14</f>
+        <v>0.68719333002290783</v>
+      </c>
+      <c r="L15" s="93">
+        <f t="shared" si="5"/>
+        <v>2720.2912381771334</v>
+      </c>
+      <c r="M15" s="109">
+        <f t="shared" ref="M15:M43" si="7">(G15*J15)+M14</f>
+        <v>1831.9886229695926</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="130">
+        <v>2</v>
+      </c>
+      <c r="C16" s="106">
+        <f>'Bates Grain Kn Calculator'!Q18</f>
+        <v>288.3965015193553</v>
+      </c>
+      <c r="D16" s="115">
         <f t="shared" si="0"/>
-        <v>3577.5181221814914</v>
-      </c>
-      <c r="H15" s="206">
-        <f>'Bates Grain Kn Calculator'!N17-'Bates Grain Kn Calculator'!N18</f>
-        <v>6.2850574712643548E-2</v>
-      </c>
-      <c r="I15" s="213">
-        <f>$H$5*(D15^$H$6)</f>
-        <v>0.23392170457618591</v>
-      </c>
-      <c r="J15" s="182">
-        <f t="shared" si="1"/>
-        <v>0.26868209953631628</v>
-      </c>
-      <c r="K15" s="182">
-        <f t="shared" ref="K15:K43" si="3">J15+K14</f>
-        <v>0.5405343420714136</v>
-      </c>
-      <c r="L15" s="182">
-        <f t="shared" si="2"/>
-        <v>3577.5181221814914</v>
-      </c>
-      <c r="M15" s="207">
-        <f t="shared" ref="M15:M43" si="4">(G15*J15)+M14</f>
-        <v>1905.5377166145856</v>
-      </c>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="233">
-        <v>2</v>
-      </c>
-      <c r="C16" s="204">
-        <f>'Bates Grain Kn Calculator'!Q18</f>
-        <v>325.40141785634387</v>
-      </c>
-      <c r="D16" s="213">
-        <f>($H$9*EXP(C16*$H$10))</f>
-        <v>605.73320700939644</v>
-      </c>
-      <c r="E16" s="205">
+        <v>477.8219258172706</v>
+      </c>
+      <c r="E16" s="107">
         <f>'Bates Grain Kn Calculator'!P18</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F16" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D16)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D16)))</f>
-        <v>1.5273217045572653</v>
-      </c>
-      <c r="G16" s="182">
+      <c r="F16" s="93">
+        <f t="shared" si="1"/>
+        <v>1.4877241497602827</v>
+      </c>
+      <c r="G16" s="93">
+        <f t="shared" si="2"/>
+        <v>2826.4636514336025</v>
+      </c>
+      <c r="H16" s="108">
+        <f>'Bates Grain Kn Calculator'!N18-'Bates Grain Kn Calculator'!N19</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I16" s="115">
+        <f t="shared" si="3"/>
+        <v>0.21308692616863212</v>
+      </c>
+      <c r="J16" s="93">
+        <f t="shared" si="4"/>
+        <v>0.33578655164093207</v>
+      </c>
+      <c r="K16" s="93">
+        <f t="shared" si="6"/>
+        <v>1.02297988166384</v>
+      </c>
+      <c r="L16" s="93">
+        <f t="shared" si="5"/>
+        <v>2826.4636514336025</v>
+      </c>
+      <c r="M16" s="109">
+        <f t="shared" si="7"/>
+        <v>2781.0771058229193</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="130">
+        <v>3</v>
+      </c>
+      <c r="C17" s="106">
+        <f>'Bates Grain Kn Calculator'!Q19</f>
+        <v>293.43491258202317</v>
+      </c>
+      <c r="D17" s="115">
         <f t="shared" si="0"/>
-        <v>3678.4666582882714</v>
-      </c>
-      <c r="H16" s="206">
-        <f>'Bates Grain Kn Calculator'!N18-'Bates Grain Kn Calculator'!N19</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I16" s="213">
-        <f>$H$5*(D16^$H$6)</f>
-        <v>0.23653173218112311</v>
-      </c>
-      <c r="J16" s="182">
-        <f t="shared" si="1"/>
-        <v>0.26571730622813949</v>
-      </c>
-      <c r="K16" s="182">
-        <f t="shared" si="3"/>
-        <v>0.80625164829955309</v>
-      </c>
-      <c r="L16" s="182">
-        <f t="shared" si="2"/>
-        <v>3678.4666582882714</v>
-      </c>
-      <c r="M16" s="207">
-        <f t="shared" si="4"/>
-        <v>2882.9699681049715</v>
-      </c>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="233">
-        <v>3</v>
-      </c>
-      <c r="C17" s="204">
-        <f>'Bates Grain Kn Calculator'!Q19</f>
-        <v>329.11034773034254</v>
-      </c>
-      <c r="D17" s="213">
-        <f>($H$9*EXP(C17*$H$10))</f>
-        <v>620.30660324232576</v>
-      </c>
-      <c r="E17" s="205">
+        <v>493.50566491312799</v>
+      </c>
+      <c r="E17" s="107">
         <f>'Bates Grain Kn Calculator'!P19</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F17" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D17)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D17)))</f>
-        <v>1.5310327980556258</v>
-      </c>
-      <c r="G17" s="182">
+      <c r="F17" s="93">
+        <f t="shared" si="1"/>
+        <v>1.493409379126277</v>
+      </c>
+      <c r="G17" s="93">
+        <f t="shared" si="2"/>
+        <v>2930.3934462950788</v>
+      </c>
+      <c r="H17" s="108">
+        <f>'Bates Grain Kn Calculator'!N19-'Bates Grain Kn Calculator'!N20</f>
+        <v>7.1551724137931094E-2</v>
+      </c>
+      <c r="I17" s="115">
+        <f t="shared" si="3"/>
+        <v>0.21613697754229869</v>
+      </c>
+      <c r="J17" s="93">
+        <f t="shared" si="4"/>
+        <v>0.33104804625080037</v>
+      </c>
+      <c r="K17" s="93">
+        <f t="shared" si="6"/>
+        <v>1.3540279279146403</v>
+      </c>
+      <c r="L17" s="93">
+        <f t="shared" si="5"/>
+        <v>2930.3934462950788</v>
+      </c>
+      <c r="M17" s="109">
+        <f t="shared" si="7"/>
+        <v>3751.1781309650551</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="130">
+        <v>4</v>
+      </c>
+      <c r="C18" s="106">
+        <f>'Bates Grain Kn Calculator'!Q20</f>
+        <v>298.18207248865997</v>
+      </c>
+      <c r="D18" s="115">
         <f t="shared" si="0"/>
-        <v>3776.1202529437273</v>
-      </c>
-      <c r="H17" s="206">
-        <f>'Bates Grain Kn Calculator'!N19-'Bates Grain Kn Calculator'!N20</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I17" s="213">
-        <f>$H$5*(D17^$H$6)</f>
-        <v>0.23901932203708376</v>
-      </c>
-      <c r="J17" s="182">
-        <f t="shared" si="1"/>
-        <v>0.26295185751925332</v>
-      </c>
-      <c r="K17" s="182">
-        <f t="shared" si="3"/>
-        <v>1.0692035058188063</v>
-      </c>
-      <c r="L17" s="182">
-        <f t="shared" si="2"/>
-        <v>3776.1202529437273</v>
-      </c>
-      <c r="M17" s="207">
-        <f t="shared" si="4"/>
-        <v>3875.9078028325976</v>
-      </c>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="233">
-        <v>4</v>
-      </c>
-      <c r="C18" s="204">
-        <f>'Bates Grain Kn Calculator'!Q20</f>
-        <v>332.59455541459073</v>
-      </c>
-      <c r="D18" s="213">
-        <f>($H$9*EXP(C18*$H$10))</f>
-        <v>634.3162508336834</v>
-      </c>
-      <c r="E18" s="205">
+        <v>508.75350840620121</v>
+      </c>
+      <c r="E18" s="107">
         <f>'Bates Grain Kn Calculator'!P20</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F18" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D18)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D18)))</f>
-        <v>1.5344796614247713</v>
-      </c>
-      <c r="G18" s="182">
+      <c r="F18" s="93">
+        <f t="shared" si="1"/>
+        <v>1.4986767960031118</v>
+      </c>
+      <c r="G18" s="93">
+        <f t="shared" si="2"/>
+        <v>3031.5889676843672</v>
+      </c>
+      <c r="H18" s="108">
+        <f>'Bates Grain Kn Calculator'!N20-'Bates Grain Kn Calculator'!N21</f>
+        <v>7.1551724137931094E-2</v>
+      </c>
+      <c r="I18" s="115">
+        <f t="shared" si="3"/>
+        <v>0.21905065101574381</v>
+      </c>
+      <c r="J18" s="93">
+        <f t="shared" si="4"/>
+        <v>0.32664465412973581</v>
+      </c>
+      <c r="K18" s="93">
+        <f t="shared" si="6"/>
+        <v>1.6806725820443762</v>
+      </c>
+      <c r="L18" s="93">
+        <f t="shared" si="5"/>
+        <v>3031.5889676843672</v>
+      </c>
+      <c r="M18" s="109">
+        <f t="shared" si="7"/>
+        <v>4741.4304607778377</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="130">
+        <v>5</v>
+      </c>
+      <c r="C19" s="106">
+        <f>'Bates Grain Kn Calculator'!Q21</f>
+        <v>302.63798123926546</v>
+      </c>
+      <c r="D19" s="115">
         <f t="shared" si="0"/>
-        <v>3870.0973717525544</v>
-      </c>
-      <c r="H18" s="206">
-        <f>'Bates Grain Kn Calculator'!N20-'Bates Grain Kn Calculator'!N21</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I18" s="213">
-        <f>$H$5*(D18^$H$6)</f>
-        <v>0.24138001718505264</v>
-      </c>
-      <c r="J18" s="182">
-        <f t="shared" si="1"/>
-        <v>0.26038018989972866</v>
-      </c>
-      <c r="K18" s="182">
-        <f t="shared" si="3"/>
-        <v>1.329583695718535</v>
-      </c>
-      <c r="L18" s="182">
-        <f t="shared" si="2"/>
-        <v>3870.0973717525544</v>
-      </c>
-      <c r="M18" s="207">
-        <f t="shared" si="4"/>
-        <v>4883.6044914199683</v>
-      </c>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="233">
-        <v>5</v>
-      </c>
-      <c r="C19" s="204">
-        <f>'Bates Grain Kn Calculator'!Q21</f>
-        <v>335.85404090908833</v>
-      </c>
-      <c r="D19" s="213">
-        <f>($H$9*EXP(C19*$H$10))</f>
-        <v>647.70863017371903</v>
-      </c>
-      <c r="E19" s="205">
+        <v>523.49422982840372</v>
+      </c>
+      <c r="E19" s="107">
         <f>'Bates Grain Kn Calculator'!P21</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F19" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D19)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D19)))</f>
-        <v>1.5376703181440567</v>
-      </c>
-      <c r="G19" s="182">
+      <c r="F19" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5035444601589307</v>
+      </c>
+      <c r="G19" s="93">
+        <f t="shared" si="2"/>
+        <v>3129.5586250591318</v>
+      </c>
+      <c r="H19" s="108">
+        <f>'Bates Grain Kn Calculator'!N21-'Bates Grain Kn Calculator'!N22</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I19" s="115">
+        <f t="shared" si="3"/>
+        <v>0.22182129036853002</v>
+      </c>
+      <c r="J19" s="93">
+        <f t="shared" si="4"/>
+        <v>0.32256472775474387</v>
+      </c>
+      <c r="K19" s="93">
+        <f t="shared" si="6"/>
+        <v>2.0032373097991201</v>
+      </c>
+      <c r="L19" s="93">
+        <f t="shared" si="5"/>
+        <v>3129.5586250591318</v>
+      </c>
+      <c r="M19" s="109">
+        <f t="shared" si="7"/>
+        <v>5750.9156866625472</v>
+      </c>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="130">
+        <v>6</v>
+      </c>
+      <c r="C20" s="106">
+        <f>'Bates Grain Kn Calculator'!Q22</f>
+        <v>306.80263883383981</v>
+      </c>
+      <c r="D20" s="115">
         <f t="shared" si="0"/>
-        <v>3960.0241320906525</v>
-      </c>
-      <c r="H19" s="206">
-        <f>'Bates Grain Kn Calculator'!N21-'Bates Grain Kn Calculator'!N22</f>
-        <v>6.2850574712643326E-2</v>
-      </c>
-      <c r="I19" s="213">
-        <f>$H$5*(D19^$H$6)</f>
-        <v>0.24360955767659515</v>
-      </c>
-      <c r="J19" s="182">
-        <f t="shared" si="1"/>
-        <v>0.25799716280459267</v>
-      </c>
-      <c r="K19" s="182">
-        <f t="shared" si="3"/>
-        <v>1.5875808585231277</v>
-      </c>
-      <c r="L19" s="182">
-        <f t="shared" si="2"/>
-        <v>3960.0241320906525</v>
-      </c>
-      <c r="M19" s="207">
-        <f t="shared" si="4"/>
-        <v>5905.2794821370762</v>
-      </c>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="233">
-        <v>6</v>
-      </c>
-      <c r="C20" s="204">
-        <f>'Bates Grain Kn Calculator'!Q22</f>
-        <v>338.88880421383521</v>
-      </c>
-      <c r="D20" s="213">
-        <f>($H$9*EXP(C20*$H$10))</f>
-        <v>660.43174696738538</v>
-      </c>
-      <c r="E20" s="205">
+        <v>537.65735096192736</v>
+      </c>
+      <c r="E20" s="107">
         <f>'Bates Grain Kn Calculator'!P22</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F20" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D20)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D20)))</f>
-        <v>1.540612054165736</v>
-      </c>
-      <c r="G20" s="182">
+      <c r="F20" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5080286058392234</v>
+      </c>
+      <c r="G20" s="93">
+        <f t="shared" si="2"/>
+        <v>3223.8148041437935</v>
+      </c>
+      <c r="H20" s="108">
+        <f>'Bates Grain Kn Calculator'!N22-'Bates Grain Kn Calculator'!N23</f>
+        <v>7.1551724137931094E-2</v>
+      </c>
+      <c r="I20" s="115">
+        <f t="shared" si="3"/>
+        <v>0.22444250709523036</v>
+      </c>
+      <c r="J20" s="93">
+        <f t="shared" si="4"/>
+        <v>0.31879756229764394</v>
+      </c>
+      <c r="K20" s="93">
+        <f t="shared" si="6"/>
+        <v>2.3220348720967641</v>
+      </c>
+      <c r="L20" s="93">
+        <f t="shared" si="5"/>
+        <v>3223.8148041437935</v>
+      </c>
+      <c r="M20" s="109">
+        <f t="shared" si="7"/>
+        <v>6778.6599875226448</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="130">
+        <v>7</v>
+      </c>
+      <c r="C21" s="106">
+        <f>'Bates Grain Kn Calculator'!Q23</f>
+        <v>310.67604527238302</v>
+      </c>
+      <c r="D21" s="115">
         <f t="shared" si="0"/>
-        <v>4045.5367510012306</v>
-      </c>
-      <c r="H20" s="206">
-        <f>'Bates Grain Kn Calculator'!N22-'Bates Grain Kn Calculator'!N23</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I20" s="213">
-        <f>$H$5*(D20^$H$6)</f>
-        <v>0.24570389336864973</v>
-      </c>
-      <c r="J20" s="182">
-        <f t="shared" si="1"/>
-        <v>0.25579804150007462</v>
-      </c>
-      <c r="K20" s="182">
-        <f t="shared" si="3"/>
-        <v>1.8433789000232024</v>
-      </c>
-      <c r="L20" s="182">
-        <f t="shared" si="2"/>
-        <v>4045.5367510012306</v>
-      </c>
-      <c r="M20" s="207">
-        <f t="shared" si="4"/>
-        <v>6940.1198598597657</v>
-      </c>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="233">
-        <v>7</v>
-      </c>
-      <c r="C21" s="204">
-        <f>'Bates Grain Kn Calculator'!Q23</f>
-        <v>341.69884532883157</v>
-      </c>
-      <c r="D21" s="213">
-        <f>($H$9*EXP(C21*$H$10))</f>
-        <v>672.43546683081513</v>
-      </c>
-      <c r="E21" s="205">
+        <v>551.17369665112096</v>
+      </c>
+      <c r="E21" s="107">
         <f>'Bates Grain Kn Calculator'!P23</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F21" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D21)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D21)))</f>
-        <v>1.5433114681910689</v>
-      </c>
-      <c r="G21" s="182">
+      <c r="F21" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5121438076589107</v>
+      </c>
+      <c r="G21" s="93">
+        <f t="shared" si="2"/>
+        <v>3313.8778538534334</v>
+      </c>
+      <c r="H21" s="108">
+        <f>'Bates Grain Kn Calculator'!N23-'Bates Grain Kn Calculator'!N24</f>
+        <v>7.1551724137931094E-2</v>
+      </c>
+      <c r="I21" s="115">
+        <f t="shared" si="3"/>
+        <v>0.22690820490404046</v>
+      </c>
+      <c r="J21" s="93">
+        <f t="shared" si="4"/>
+        <v>0.31533334886761955</v>
+      </c>
+      <c r="K21" s="93">
+        <f t="shared" si="6"/>
+        <v>2.6373682209643836</v>
+      </c>
+      <c r="L21" s="93">
+        <f t="shared" si="5"/>
+        <v>3313.8778538534334</v>
+      </c>
+      <c r="M21" s="109">
+        <f t="shared" si="7"/>
+        <v>7823.6361889164873</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="130">
+        <v>8</v>
+      </c>
+      <c r="C22" s="106">
+        <f>'Bates Grain Kn Calculator'!Q24</f>
+        <v>314.25820055489498</v>
+      </c>
+      <c r="D22" s="115">
         <f t="shared" si="0"/>
-        <v>4126.2839699645874</v>
-      </c>
-      <c r="H21" s="206">
-        <f>'Bates Grain Kn Calculator'!N23-'Bates Grain Kn Calculator'!N24</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I21" s="213">
-        <f>$H$5*(D21^$H$6)</f>
-        <v>0.24765919617281326</v>
-      </c>
-      <c r="J21" s="182">
-        <f t="shared" si="1"/>
-        <v>0.25377848141276965</v>
-      </c>
-      <c r="K21" s="182">
-        <f t="shared" si="3"/>
-        <v>2.0971573814359719</v>
-      </c>
-      <c r="L21" s="182">
-        <f t="shared" si="2"/>
-        <v>4126.2839699645874</v>
-      </c>
-      <c r="M21" s="207">
-        <f t="shared" si="4"/>
-        <v>7987.2819396352334</v>
-      </c>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="233">
-        <v>8</v>
-      </c>
-      <c r="C22" s="204">
-        <f>'Bates Grain Kn Calculator'!Q24</f>
-        <v>344.28416425407738</v>
-      </c>
-      <c r="D22" s="213">
-        <f>($H$9*EXP(C22*$H$10))</f>
-        <v>683.67184318821376</v>
-      </c>
-      <c r="E22" s="205">
+        <v>563.97595283274973</v>
+      </c>
+      <c r="E22" s="107">
         <f>'Bates Grain Kn Calculator'!P24</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F22" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D22)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D22)))</f>
-        <v>1.545774516134687</v>
-      </c>
-      <c r="G22" s="182">
+      <c r="F22" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5159031247113479</v>
+      </c>
+      <c r="G22" s="93">
+        <f t="shared" si="2"/>
+        <v>3399.2801044590219</v>
+      </c>
+      <c r="H22" s="108">
+        <f>'Bates Grain Kn Calculator'!N24-'Bates Grain Kn Calculator'!N25</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I22" s="115">
+        <f t="shared" si="3"/>
+        <v>0.22921260330821047</v>
+      </c>
+      <c r="J22" s="93">
+        <f t="shared" si="4"/>
+        <v>0.3121631319797844</v>
+      </c>
+      <c r="K22" s="93">
+        <f t="shared" si="6"/>
+        <v>2.949531352944168</v>
+      </c>
+      <c r="L22" s="93">
+        <f t="shared" si="5"/>
+        <v>3399.2801044590219</v>
+      </c>
+      <c r="M22" s="109">
+        <f t="shared" si="7"/>
+        <v>8884.766112800984</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="130">
+        <v>9</v>
+      </c>
+      <c r="C23" s="106">
+        <f>'Bates Grain Kn Calculator'!Q25</f>
+        <v>317.54910468137575</v>
+      </c>
+      <c r="D23" s="115">
         <f t="shared" si="0"/>
-        <v>4201.9294343753118</v>
-      </c>
-      <c r="H22" s="206">
-        <f>'Bates Grain Kn Calculator'!N24-'Bates Grain Kn Calculator'!N25</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I22" s="213">
-        <f>$H$5*(D22^$H$6)</f>
-        <v>0.24947187170730903</v>
-      </c>
-      <c r="J22" s="182">
-        <f t="shared" si="1"/>
-        <v>0.25193451382920928</v>
-      </c>
-      <c r="K22" s="182">
-        <f t="shared" si="3"/>
-        <v>2.3490918952651811</v>
-      </c>
-      <c r="L22" s="182">
-        <f t="shared" si="2"/>
-        <v>4201.9294343753118</v>
-      </c>
-      <c r="M22" s="207">
-        <f t="shared" si="4"/>
-        <v>9045.8929888292223</v>
-      </c>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="233">
-        <v>9</v>
-      </c>
-      <c r="C23" s="204">
-        <f>'Bates Grain Kn Calculator'!Q25</f>
-        <v>346.64476098957255</v>
-      </c>
-      <c r="D23" s="213">
-        <f>($H$9*EXP(C23*$H$10))</f>
-        <v>694.09543548046304</v>
-      </c>
-      <c r="E23" s="205">
+        <v>575.99922154952549</v>
+      </c>
+      <c r="E23" s="107">
         <f>'Bates Grain Kn Calculator'!P25</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F23" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D23)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D23)))</f>
-        <v>1.5480065503747182</v>
-      </c>
-      <c r="G23" s="182">
+      <c r="F23" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5193182257576041</v>
+      </c>
+      <c r="G23" s="93">
+        <f t="shared" si="2"/>
+        <v>3479.5698713089373</v>
+      </c>
+      <c r="H23" s="108">
+        <f>'Bates Grain Kn Calculator'!N25-'Bates Grain Kn Calculator'!N26</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I23" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23135026018270946</v>
+      </c>
+      <c r="J23" s="93">
+        <f t="shared" si="4"/>
+        <v>0.30927877099175577</v>
+      </c>
+      <c r="K23" s="93">
+        <f t="shared" si="6"/>
+        <v>3.2588101239359237</v>
+      </c>
+      <c r="L23" s="93">
+        <f t="shared" si="5"/>
+        <v>3479.5698713089373</v>
+      </c>
+      <c r="M23" s="109">
+        <f t="shared" si="7"/>
+        <v>9960.9232061793537</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="130">
+        <v>10</v>
+      </c>
+      <c r="C24" s="106">
+        <f>'Bates Grain Kn Calculator'!Q26</f>
+        <v>320.54875765182544</v>
+      </c>
+      <c r="D24" s="115">
         <f t="shared" si="0"/>
-        <v>4272.1540055689065</v>
-      </c>
-      <c r="H23" s="206">
-        <f>'Bates Grain Kn Calculator'!N25-'Bates Grain Kn Calculator'!N26</f>
-        <v>6.2850574712643326E-2</v>
-      </c>
-      <c r="I23" s="213">
-        <f>$H$5*(D23^$H$6)</f>
-        <v>0.25113857030203091</v>
-      </c>
-      <c r="J23" s="182">
-        <f t="shared" si="1"/>
-        <v>0.25026253289988992</v>
-      </c>
-      <c r="K23" s="182">
-        <f t="shared" si="3"/>
-        <v>2.5993544281650709</v>
-      </c>
-      <c r="L23" s="182">
-        <f t="shared" si="2"/>
-        <v>4272.1540055689065</v>
-      </c>
-      <c r="M23" s="207">
-        <f t="shared" si="4"/>
-        <v>10115.053071201308</v>
-      </c>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="233">
-        <v>10</v>
-      </c>
-      <c r="C24" s="204">
-        <f>'Bates Grain Kn Calculator'!Q26</f>
-        <v>348.78063553531712</v>
-      </c>
-      <c r="D24" s="213">
-        <f>($H$9*EXP(C24*$H$10))</f>
-        <v>703.66361473867153</v>
-      </c>
-      <c r="E24" s="205">
+        <v>587.18156658910743</v>
+      </c>
+      <c r="E24" s="107">
         <f>'Bates Grain Kn Calculator'!P26</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F24" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D24)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D24)))</f>
-        <v>1.5500123543031232</v>
-      </c>
-      <c r="G24" s="182">
+      <c r="F24" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5223994978966091</v>
+      </c>
+      <c r="G24" s="93">
+        <f t="shared" si="2"/>
+        <v>3554.3153973611934</v>
+      </c>
+      <c r="H24" s="108">
+        <f>'Bates Grain Kn Calculator'!N26-'Bates Grain Kn Calculator'!N27</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I24" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23331609316306082</v>
+      </c>
+      <c r="J24" s="93">
+        <f t="shared" si="4"/>
+        <v>0.30667290527586771</v>
+      </c>
+      <c r="K24" s="93">
+        <f t="shared" si="6"/>
+        <v>3.5654830292117916</v>
+      </c>
+      <c r="L24" s="93">
+        <f t="shared" si="5"/>
+        <v>3554.3153973611934</v>
+      </c>
+      <c r="M24" s="109">
+        <f t="shared" si="7"/>
+        <v>11050.935435354861</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="130">
+        <v>11</v>
+      </c>
+      <c r="C25" s="106">
+        <f>'Bates Grain Kn Calculator'!Q27</f>
+        <v>323.25715946624393</v>
+      </c>
+      <c r="D25" s="115">
         <f t="shared" si="0"/>
-        <v>4336.6579835129041</v>
-      </c>
-      <c r="H24" s="206">
-        <f>'Bates Grain Kn Calculator'!N26-'Bates Grain Kn Calculator'!N27</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I24" s="213">
-        <f>$H$5*(D24^$H$6)</f>
-        <v>0.25265619730952327</v>
-      </c>
-      <c r="J24" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24875928388824353</v>
-      </c>
-      <c r="K24" s="182">
-        <f t="shared" si="3"/>
-        <v>2.8481137120533147</v>
-      </c>
-      <c r="L24" s="182">
-        <f t="shared" si="2"/>
-        <v>4336.6579835129041</v>
-      </c>
-      <c r="M24" s="207">
-        <f t="shared" si="4"/>
-        <v>11193.837005648213</v>
-      </c>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="233">
-        <v>11</v>
-      </c>
-      <c r="C25" s="204">
-        <f>'Bates Grain Kn Calculator'!Q27</f>
-        <v>350.69178789131109</v>
-      </c>
-      <c r="D25" s="213">
-        <f>($H$9*EXP(C25*$H$10))</f>
-        <v>712.33685365283884</v>
-      </c>
-      <c r="E25" s="205">
+        <v>597.46454336088959</v>
+      </c>
+      <c r="E25" s="107">
         <f>'Bates Grain Kn Calculator'!P27</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F25" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D25)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D25)))</f>
-        <v>1.5517961726186635</v>
-      </c>
-      <c r="G25" s="182">
+      <c r="F25" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5251561407317806</v>
+      </c>
+      <c r="G25" s="93">
+        <f t="shared" si="2"/>
+        <v>3623.1086874268481</v>
+      </c>
+      <c r="H25" s="108">
+        <f>'Bates Grain Kn Calculator'!N27-'Bates Grain Kn Calculator'!N28</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I25" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23510539976867151</v>
+      </c>
+      <c r="J25" s="93">
+        <f t="shared" si="4"/>
+        <v>0.30433892291854264</v>
+      </c>
+      <c r="K25" s="93">
+        <f t="shared" si="6"/>
+        <v>3.8698219521303341</v>
+      </c>
+      <c r="L25" s="93">
+        <f t="shared" si="5"/>
+        <v>3623.1086874268481</v>
+      </c>
+      <c r="M25" s="109">
+        <f t="shared" si="7"/>
+        <v>12153.588430903163</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="130">
+        <v>12</v>
+      </c>
+      <c r="C26" s="106">
+        <f>'Bates Grain Kn Calculator'!Q28</f>
+        <v>325.67431012463123</v>
+      </c>
+      <c r="D26" s="115">
         <f t="shared" si="0"/>
-        <v>4395.1632188168414</v>
-      </c>
-      <c r="H25" s="206">
-        <f>'Bates Grain Kn Calculator'!N27-'Bates Grain Kn Calculator'!N28</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I25" s="213">
-        <f>$H$5*(D25^$H$6)</f>
-        <v>0.25402192267748364</v>
-      </c>
-      <c r="J25" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24742185261089203</v>
-      </c>
-      <c r="K25" s="182">
-        <f t="shared" si="3"/>
-        <v>3.0955355646642069</v>
-      </c>
-      <c r="L25" s="182">
-        <f t="shared" si="2"/>
-        <v>4395.1632188168414</v>
-      </c>
-      <c r="M25" s="207">
-        <f t="shared" si="4"/>
-        <v>12281.296431775127</v>
-      </c>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="233">
-        <v>12</v>
-      </c>
-      <c r="C26" s="204">
-        <f>'Bates Grain Kn Calculator'!Q28</f>
-        <v>352.37821805755448</v>
-      </c>
-      <c r="D26" s="213">
-        <f>($H$9*EXP(C26*$H$10))</f>
-        <v>720.07899837729121</v>
-      </c>
-      <c r="E26" s="205">
+        <v>606.79370668856575</v>
+      </c>
+      <c r="E26" s="107">
         <f>'Bates Grain Kn Calculator'!P28</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F26" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D26)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D26)))</f>
-        <v>1.5533617377421216</v>
-      </c>
-      <c r="G26" s="182">
+      <c r="F26" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5275962477273854</v>
+      </c>
+      <c r="G26" s="93">
+        <f t="shared" si="2"/>
+        <v>3685.5691873982187</v>
+      </c>
+      <c r="H26" s="108">
+        <f>'Bates Grain Kn Calculator'!N28-'Bates Grain Kn Calculator'!N29</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I26" s="115">
+        <f t="shared" si="3"/>
+        <v>0.2367138761392007</v>
+      </c>
+      <c r="J26" s="93">
+        <f t="shared" si="4"/>
+        <v>0.30227093276042249</v>
+      </c>
+      <c r="K26" s="93">
+        <f t="shared" si="6"/>
+        <v>4.1720928848907564</v>
+      </c>
+      <c r="L26" s="93">
+        <f t="shared" si="5"/>
+        <v>3685.5691873982187</v>
+      </c>
+      <c r="M26" s="109">
+        <f t="shared" si="7"/>
+        <v>13267.628866931094</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="130">
+        <v>13</v>
+      </c>
+      <c r="C27" s="106">
+        <f>'Bates Grain Kn Calculator'!Q29</f>
+        <v>327.80020962698728</v>
+      </c>
+      <c r="D27" s="115">
         <f t="shared" si="0"/>
-        <v>4447.4150935180487</v>
-      </c>
-      <c r="H26" s="206">
-        <f>'Bates Grain Kn Calculator'!N28-'Bates Grain Kn Calculator'!N29</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I26" s="213">
-        <f>$H$5*(D26^$H$6)</f>
-        <v>0.25523318974135434</v>
-      </c>
-      <c r="J26" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24624765602128257</v>
-      </c>
-      <c r="K26" s="182">
-        <f t="shared" si="3"/>
-        <v>3.3417832206854894</v>
-      </c>
-      <c r="L26" s="182">
-        <f t="shared" si="2"/>
-        <v>4447.4150935180487</v>
-      </c>
-      <c r="M26" s="207">
-        <f t="shared" si="4"/>
-        <v>13376.461973907619</v>
-      </c>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="233">
-        <v>13</v>
-      </c>
-      <c r="C27" s="204">
-        <f>'Bates Grain Kn Calculator'!Q29</f>
-        <v>353.83992603404727</v>
-      </c>
-      <c r="D27" s="213">
-        <f>($H$9*EXP(C27*$H$10))</f>
-        <v>726.85751945969025</v>
-      </c>
-      <c r="E27" s="205">
+        <v>615.11909035869746</v>
+      </c>
+      <c r="E27" s="107">
         <f>'Bates Grain Kn Calculator'!P29</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F27" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D27)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D27)))</f>
-        <v>1.5547122926782908</v>
-      </c>
-      <c r="G27" s="182">
+      <c r="F27" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5297268761761222</v>
+      </c>
+      <c r="G27" s="93">
+        <f t="shared" si="2"/>
+        <v>3741.3472628436607</v>
+      </c>
+      <c r="H27" s="108">
+        <f>'Bates Grain Kn Calculator'!N29-'Bates Grain Kn Calculator'!N30</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I27" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23813763427951909</v>
+      </c>
+      <c r="J27" s="93">
+        <f t="shared" si="4"/>
+        <v>0.30046373961179745</v>
+      </c>
+      <c r="K27" s="93">
+        <f t="shared" si="6"/>
+        <v>4.4725566245025536</v>
+      </c>
+      <c r="L27" s="93">
+        <f t="shared" si="5"/>
+        <v>3741.3472628436607</v>
+      </c>
+      <c r="M27" s="109">
+        <f t="shared" si="7"/>
+        <v>14391.768056711462</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="130">
+        <v>14</v>
+      </c>
+      <c r="C28" s="106">
+        <f>'Bates Grain Kn Calculator'!Q30</f>
+        <v>329.63485797331214</v>
+      </c>
+      <c r="D28" s="115">
         <f t="shared" si="0"/>
-        <v>4493.1843511593233</v>
-      </c>
-      <c r="H27" s="206">
-        <f>'Bates Grain Kn Calculator'!N29-'Bates Grain Kn Calculator'!N30</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I27" s="213">
-        <f>$H$5*(D27^$H$6)</f>
-        <v>0.25628772319877358</v>
-      </c>
-      <c r="J27" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24523443389404043</v>
-      </c>
-      <c r="K27" s="182">
-        <f t="shared" si="3"/>
-        <v>3.5870176545795296</v>
-      </c>
-      <c r="L27" s="182">
-        <f t="shared" si="2"/>
-        <v>4493.1843511593233</v>
-      </c>
-      <c r="M27" s="207">
-        <f t="shared" si="4"/>
-        <v>14478.345494645737</v>
-      </c>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="233">
-        <v>14</v>
-      </c>
-      <c r="C28" s="204">
-        <f>'Bates Grain Kn Calculator'!Q30</f>
-        <v>355.07691182078952</v>
-      </c>
-      <c r="D28" s="213">
-        <f>($H$9*EXP(C28*$H$10))</f>
-        <v>732.64373945781813</v>
-      </c>
-      <c r="E28" s="205">
+        <v>622.39565252354305</v>
+      </c>
+      <c r="E28" s="107">
         <f>'Bates Grain Kn Calculator'!P30</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F28" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D28)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D28)))</f>
-        <v>1.555850610600569</v>
-      </c>
-      <c r="G28" s="182">
+      <c r="F28" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5315541069686216</v>
+      </c>
+      <c r="G28" s="93">
+        <f t="shared" si="2"/>
+        <v>3790.1274331880491</v>
+      </c>
+      <c r="H28" s="108">
+        <f>'Bates Grain Kn Calculator'!N30-'Bates Grain Kn Calculator'!N31</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I28" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23937321771657014</v>
+      </c>
+      <c r="J28" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29891282249734258</v>
+      </c>
+      <c r="K28" s="93">
+        <f t="shared" si="6"/>
+        <v>4.7714694469998964</v>
+      </c>
+      <c r="L28" s="93">
+        <f t="shared" si="5"/>
+        <v>3790.1274331880491</v>
+      </c>
+      <c r="M28" s="109">
+        <f t="shared" si="7"/>
+        <v>15524.68574539031</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="130">
+        <v>15</v>
+      </c>
+      <c r="C29" s="106">
+        <f>'Bates Grain Kn Calculator'!Q31</f>
+        <v>331.17825516360597</v>
+      </c>
+      <c r="D29" s="115">
         <f t="shared" si="0"/>
-        <v>4532.2687579796493</v>
-      </c>
-      <c r="H28" s="206">
-        <f>'Bates Grain Kn Calculator'!N30-'Bates Grain Kn Calculator'!N31</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I28" s="213">
-        <f>$H$5*(D28^$H$6)</f>
-        <v>0.25718353623107082</v>
-      </c>
-      <c r="J28" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24438024157259672</v>
-      </c>
-      <c r="K28" s="182">
-        <f t="shared" si="3"/>
-        <v>3.8313978961521262</v>
-      </c>
-      <c r="L28" s="182">
-        <f t="shared" si="2"/>
-        <v>4532.2687579796493</v>
-      </c>
-      <c r="M28" s="207">
-        <f t="shared" si="4"/>
-        <v>15585.942428592736</v>
-      </c>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="233">
-        <v>15</v>
-      </c>
-      <c r="C29" s="204">
-        <f>'Bates Grain Kn Calculator'!Q31</f>
-        <v>356.08917541778112</v>
-      </c>
-      <c r="D29" s="213">
-        <f>($H$9*EXP(C29*$H$10))</f>
-        <v>737.41303501612072</v>
-      </c>
-      <c r="E29" s="205">
+        <v>628.58368140763196</v>
+      </c>
+      <c r="E29" s="107">
         <f>'Bates Grain Kn Calculator'!P31</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F29" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D29)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D29)))</f>
-        <v>1.5567790113906383</v>
-      </c>
-      <c r="G29" s="182">
+      <c r="F29" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5330830951579257</v>
+      </c>
+      <c r="G29" s="93">
+        <f t="shared" si="2"/>
+        <v>3831.6313202452206</v>
+      </c>
+      <c r="H29" s="108">
+        <f>'Bates Grain Kn Calculator'!N31-'Bates Grain Kn Calculator'!N32</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I29" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24041761547990145</v>
+      </c>
+      <c r="J29" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29761431580254954</v>
+      </c>
+      <c r="K29" s="93">
+        <f t="shared" si="6"/>
+        <v>5.0690837628024461</v>
+      </c>
+      <c r="L29" s="93">
+        <f t="shared" si="5"/>
+        <v>3831.6313202452206</v>
+      </c>
+      <c r="M29" s="109">
+        <f t="shared" si="7"/>
+        <v>16665.03407917271</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="130">
+        <v>16</v>
+      </c>
+      <c r="C30" s="106">
+        <f>'Bates Grain Kn Calculator'!Q32</f>
+        <v>332.43040119786849</v>
+      </c>
+      <c r="D30" s="115">
         <f t="shared" si="0"/>
-        <v>4564.4945785760347</v>
-      </c>
-      <c r="H29" s="206">
-        <f>'Bates Grain Kn Calculator'!N31-'Bates Grain Kn Calculator'!N32</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I29" s="213">
-        <f>$H$5*(D29^$H$6)</f>
-        <v>0.25791893674061223</v>
-      </c>
-      <c r="J29" s="182">
-        <f t="shared" si="1"/>
-        <v>0.2436834437474914</v>
-      </c>
-      <c r="K29" s="182">
-        <f t="shared" si="3"/>
-        <v>4.0750813398996177</v>
-      </c>
-      <c r="L29" s="182">
-        <f t="shared" si="2"/>
-        <v>4564.4945785760347</v>
-      </c>
-      <c r="M29" s="207">
-        <f t="shared" si="4"/>
-        <v>16698.2341864669</v>
-      </c>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="233">
-        <v>16</v>
-      </c>
-      <c r="C30" s="204">
-        <f>'Bates Grain Kn Calculator'!Q32</f>
-        <v>356.87671682502224</v>
-      </c>
-      <c r="D30" s="213">
-        <f>($H$9*EXP(C30*$H$10))</f>
-        <v>741.14501140978359</v>
-      </c>
-      <c r="E30" s="205">
+        <v>633.6491562075762</v>
+      </c>
+      <c r="E30" s="107">
         <f>'Bates Grain Kn Calculator'!P32</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F30" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D30)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D30)))</f>
-        <v>1.5574993753267825</v>
-      </c>
-      <c r="G30" s="182">
+      <c r="F30" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5343181121412168</v>
+      </c>
+      <c r="G30" s="93">
+        <f t="shared" si="2"/>
+        <v>3865.6202730922046</v>
+      </c>
+      <c r="H30" s="108">
+        <f>'Bates Grain Kn Calculator'!N32-'Bates Grain Kn Calculator'!N33</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I30" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24126827432672804</v>
+      </c>
+      <c r="J30" s="93">
+        <f t="shared" si="4"/>
+        <v>0.2965649932118104</v>
+      </c>
+      <c r="K30" s="93">
+        <f t="shared" si="6"/>
+        <v>5.3656487560142567</v>
+      </c>
+      <c r="L30" s="93">
+        <f t="shared" si="5"/>
+        <v>3865.6202730922046</v>
+      </c>
+      <c r="M30" s="109">
+        <f t="shared" si="7"/>
+        <v>17811.441729221737</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="130">
+        <v>17</v>
+      </c>
+      <c r="C31" s="106">
+        <f>'Bates Grain Kn Calculator'!Q33</f>
+        <v>333.39129607609988</v>
+      </c>
+      <c r="D31" s="115">
         <f t="shared" si="0"/>
-        <v>4589.7178511452885</v>
-      </c>
-      <c r="H30" s="206">
-        <f>'Bates Grain Kn Calculator'!N32-'Bates Grain Kn Calculator'!N33</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I30" s="213">
-        <f>$H$5*(D30^$H$6)</f>
-        <v>0.25849253267658923</v>
-      </c>
-      <c r="J30" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24314270923748016</v>
-      </c>
-      <c r="K30" s="182">
-        <f t="shared" si="3"/>
-        <v>4.3182240491370978</v>
-      </c>
-      <c r="L30" s="182">
-        <f t="shared" si="2"/>
-        <v>4589.7178511452885</v>
-      </c>
-      <c r="M30" s="207">
-        <f t="shared" si="4"/>
-        <v>17814.190619429992</v>
-      </c>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="233">
-        <v>17</v>
-      </c>
-      <c r="C31" s="204">
-        <f>'Bates Grain Kn Calculator'!Q33</f>
-        <v>357.4395360425126</v>
-      </c>
-      <c r="D31" s="213">
-        <f>($H$9*EXP(C31*$H$10))</f>
-        <v>743.82364782513105</v>
-      </c>
-      <c r="E31" s="205">
+        <v>637.56405859733229</v>
+      </c>
+      <c r="E31" s="107">
         <f>'Bates Grain Kn Calculator'!P33</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F31" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D31)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D31)))</f>
-        <v>1.5580131540790343</v>
-      </c>
-      <c r="G31" s="182">
+      <c r="F31" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5352625801318753</v>
+      </c>
+      <c r="G31" s="93">
+        <f t="shared" si="2"/>
+        <v>3891.8976351290326</v>
+      </c>
+      <c r="H31" s="108">
+        <f>'Bates Grain Kn Calculator'!N33-'Bates Grain Kn Calculator'!N34</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I31" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24192310914205956</v>
+      </c>
+      <c r="J31" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29576225434468528</v>
+      </c>
+      <c r="K31" s="93">
+        <f t="shared" si="6"/>
+        <v>5.6614110103589423</v>
+      </c>
+      <c r="L31" s="93">
+        <f t="shared" si="5"/>
+        <v>3891.8976351290326</v>
+      </c>
+      <c r="M31" s="109">
+        <f t="shared" si="7"/>
+        <v>18962.51814746625</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="130">
+        <v>18</v>
+      </c>
+      <c r="C32" s="106">
+        <f>'Bates Grain Kn Calculator'!Q34</f>
+        <v>334.06093979830007</v>
+      </c>
+      <c r="D32" s="115">
         <f t="shared" si="0"/>
-        <v>4607.8254493580098</v>
-      </c>
-      <c r="H31" s="206">
-        <f>'Bates Grain Kn Calculator'!N33-'Bates Grain Kn Calculator'!N34</f>
-        <v>6.2850574712643326E-2</v>
-      </c>
-      <c r="I31" s="213">
-        <f>$H$5*(D31^$H$6)</f>
-        <v>0.25890323642578478</v>
-      </c>
-      <c r="J31" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24275700675012454</v>
-      </c>
-      <c r="K31" s="182">
-        <f t="shared" si="3"/>
-        <v>4.5609810558872219</v>
-      </c>
-      <c r="L31" s="182">
-        <f t="shared" si="2"/>
-        <v>4607.8254493580098</v>
-      </c>
-      <c r="M31" s="207">
-        <f t="shared" si="4"/>
-        <v>18932.77253314319</v>
-      </c>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="233">
-        <v>18</v>
-      </c>
-      <c r="C32" s="204">
-        <f>'Bates Grain Kn Calculator'!Q34</f>
-        <v>357.77763307025248</v>
-      </c>
-      <c r="D32" s="213">
-        <f>($H$9*EXP(C32*$H$10))</f>
-        <v>745.43741192825814</v>
-      </c>
-      <c r="E32" s="205">
+        <v>640.30663084871219</v>
+      </c>
+      <c r="E32" s="107">
         <f>'Bates Grain Kn Calculator'!P34</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F32" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D32)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D32)))</f>
-        <v>1.5583213791369208</v>
-      </c>
-      <c r="G32" s="182">
+      <c r="F32" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5359190994630392</v>
+      </c>
+      <c r="G32" s="93">
+        <f t="shared" si="2"/>
+        <v>3910.3106235928403</v>
+      </c>
+      <c r="H32" s="108">
+        <f>'Bates Grain Kn Calculator'!N34-'Bates Grain Kn Calculator'!N35</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I32" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24238051145460016</v>
+      </c>
+      <c r="J32" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29520411401282604</v>
+      </c>
+      <c r="K32" s="93">
+        <f t="shared" si="6"/>
+        <v>5.9566151243717682</v>
+      </c>
+      <c r="L32" s="93">
+        <f t="shared" si="5"/>
+        <v>3910.3106235928403</v>
+      </c>
+      <c r="M32" s="109">
+        <f t="shared" si="7"/>
+        <v>20116.857930618917</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="130">
+        <v>19</v>
+      </c>
+      <c r="C33" s="106">
+        <f>'Bates Grain Kn Calculator'!Q35</f>
+        <v>334.43933236446912</v>
+      </c>
+      <c r="D33" s="115">
         <f t="shared" si="0"/>
-        <v>4618.7359200292767</v>
-      </c>
-      <c r="H32" s="206">
-        <f>'Bates Grain Kn Calculator'!N34-'Bates Grain Kn Calculator'!N35</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I32" s="213">
-        <f>$H$5*(D32^$H$6)</f>
-        <v>0.25915026824893683</v>
-      </c>
-      <c r="J32" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24252560160296732</v>
-      </c>
-      <c r="K32" s="182">
-        <f t="shared" si="3"/>
-        <v>4.803506657490189</v>
-      </c>
-      <c r="L32" s="182">
-        <f t="shared" si="2"/>
-        <v>4618.7359200292767</v>
-      </c>
-      <c r="M32" s="207">
-        <f t="shared" si="4"/>
-        <v>20052.934240793526</v>
-      </c>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="233">
-        <v>19</v>
-      </c>
-      <c r="C33" s="204">
-        <f>'Bates Grain Kn Calculator'!Q35</f>
-        <v>357.8910079082417</v>
-      </c>
-      <c r="D33" s="213">
-        <f>($H$9*EXP(C33*$H$10))</f>
-        <v>745.97934257540339</v>
-      </c>
-      <c r="E33" s="205">
+        <v>641.86157724024952</v>
+      </c>
+      <c r="E33" s="107">
         <f>'Bates Grain Kn Calculator'!P35</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F33" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D33)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D33)))</f>
-        <v>1.5584246677653868</v>
-      </c>
-      <c r="G33" s="182">
+      <c r="F33" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5362894691454851</v>
+      </c>
+      <c r="G33" s="93">
+        <f t="shared" si="2"/>
+        <v>3920.751796721097</v>
+      </c>
+      <c r="H33" s="108">
+        <f>'Bates Grain Kn Calculator'!N35-'Bates Grain Kn Calculator'!N36</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I33" s="115">
+        <f t="shared" si="3"/>
+        <v>0.2426393560197434</v>
+      </c>
+      <c r="J33" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29488919403540292</v>
+      </c>
+      <c r="K33" s="93">
+        <f t="shared" si="6"/>
+        <v>6.2515043184071715</v>
+      </c>
+      <c r="L33" s="93">
+        <f t="shared" si="5"/>
+        <v>3920.751796721097</v>
+      </c>
+      <c r="M33" s="109">
+        <f t="shared" si="7"/>
+        <v>21273.04526796686</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="130">
+        <v>20</v>
+      </c>
+      <c r="C34" s="106">
+        <f>'Bates Grain Kn Calculator'!Q36</f>
+        <v>334.52647377460693</v>
+      </c>
+      <c r="D34" s="115">
         <f t="shared" si="0"/>
-        <v>4622.4000880041103</v>
-      </c>
-      <c r="H33" s="206">
-        <f>'Bates Grain Kn Calculator'!N35-'Bates Grain Kn Calculator'!N36</f>
-        <v>6.2850574712643326E-2</v>
-      </c>
-      <c r="I33" s="213">
-        <f>$H$5*(D33^$H$6)</f>
-        <v>0.25923315874749753</v>
-      </c>
-      <c r="J33" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24244805339066233</v>
-      </c>
-      <c r="K33" s="182">
-        <f t="shared" si="3"/>
-        <v>5.0459547108808511</v>
-      </c>
-      <c r="L33" s="182">
-        <f t="shared" si="2"/>
-        <v>4622.4000880041103</v>
-      </c>
-      <c r="M33" s="207">
-        <f t="shared" si="4"/>
-        <v>21173.626144122947</v>
-      </c>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="233">
-        <v>20</v>
-      </c>
-      <c r="C34" s="204">
-        <f>'Bates Grain Kn Calculator'!Q36</f>
-        <v>357.77966055648034</v>
-      </c>
-      <c r="D34" s="213">
-        <f>($H$9*EXP(C34*$H$10))</f>
-        <v>745.44709983500479</v>
-      </c>
-      <c r="E34" s="205">
+        <v>642.22020614588871</v>
+      </c>
+      <c r="E34" s="107">
         <f>'Bates Grain Kn Calculator'!P36</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F34" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D34)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D34)))</f>
-        <v>1.5583232265560274</v>
-      </c>
-      <c r="G34" s="182">
+      <c r="F34" s="93">
+        <f t="shared" si="1"/>
+        <v>1.536374700994759</v>
+      </c>
+      <c r="G34" s="93">
+        <f t="shared" si="2"/>
+        <v>3923.1600891050684</v>
+      </c>
+      <c r="H34" s="108">
+        <f>'Bates Grain Kn Calculator'!N36-'Bates Grain Kn Calculator'!N37</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I34" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24269900543195366</v>
+      </c>
+      <c r="J34" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29481671756579186</v>
+      </c>
+      <c r="K34" s="93">
+        <f t="shared" si="6"/>
+        <v>6.5463210359729631</v>
+      </c>
+      <c r="L34" s="93">
+        <f t="shared" si="5"/>
+        <v>3923.1600891050684</v>
+      </c>
+      <c r="M34" s="109">
+        <f t="shared" si="7"/>
+        <v>22429.658447921935</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="130">
+        <v>21</v>
+      </c>
+      <c r="C35" s="106">
+        <f>'Bates Grain Kn Calculator'!Q37</f>
+        <v>334.32236402871359</v>
+      </c>
+      <c r="D35" s="115">
         <f t="shared" si="0"/>
-        <v>4618.8014220426421</v>
-      </c>
-      <c r="H34" s="206">
-        <f>'Bates Grain Kn Calculator'!N36-'Bates Grain Kn Calculator'!N37</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I34" s="213">
-        <f>$H$5*(D34^$H$6)</f>
-        <v>0.25915175034986992</v>
-      </c>
-      <c r="J34" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24252421458775347</v>
-      </c>
-      <c r="K34" s="182">
-        <f t="shared" si="3"/>
-        <v>5.2884789254686044</v>
-      </c>
-      <c r="L34" s="182">
-        <f t="shared" si="2"/>
-        <v>4618.8014220426421</v>
-      </c>
-      <c r="M34" s="207">
-        <f t="shared" si="4"/>
-        <v>22293.797331340636</v>
-      </c>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="233">
-        <v>21</v>
-      </c>
-      <c r="C35" s="204">
-        <f>'Bates Grain Kn Calculator'!Q37</f>
-        <v>357.44359101496843</v>
-      </c>
-      <c r="D35" s="213">
-        <f>($H$9*EXP(C35*$H$10))</f>
-        <v>743.84298181842735</v>
-      </c>
-      <c r="E35" s="205">
+        <v>641.38051095675939</v>
+      </c>
+      <c r="E35" s="107">
         <f>'Bates Grain Kn Calculator'!P37</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F35" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D35)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D35)))</f>
-        <v>1.5580168526134832</v>
-      </c>
-      <c r="G35" s="182">
+      <c r="F35" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5361750275422363</v>
+      </c>
+      <c r="G35" s="93">
+        <f t="shared" si="2"/>
+        <v>3917.5214014524076</v>
+      </c>
+      <c r="H35" s="108">
+        <f>'Bates Grain Kn Calculator'!N37-'Bates Grain Kn Calculator'!N38</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I35" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24255931274007148</v>
+      </c>
+      <c r="J35" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29498650589683306</v>
+      </c>
+      <c r="K35" s="93">
+        <f t="shared" si="6"/>
+        <v>6.8413075418697957</v>
+      </c>
+      <c r="L35" s="93">
+        <f t="shared" si="5"/>
+        <v>3917.5214014524076</v>
+      </c>
+      <c r="M35" s="109">
+        <f t="shared" si="7"/>
+        <v>23585.274397912446</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="130">
+        <v>22</v>
+      </c>
+      <c r="C36" s="106">
+        <f>'Bates Grain Kn Calculator'!Q38</f>
+        <v>333.82700312678912</v>
+      </c>
+      <c r="D36" s="115">
         <f t="shared" si="0"/>
-        <v>4607.9561579380115</v>
-      </c>
-      <c r="H35" s="206">
-        <f>'Bates Grain Kn Calculator'!N37-'Bates Grain Kn Calculator'!N38</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I35" s="213">
-        <f>$H$5*(D35^$H$6)</f>
-        <v>0.25890619781052993</v>
-      </c>
-      <c r="J35" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24275423008080491</v>
-      </c>
-      <c r="K35" s="182">
-        <f t="shared" si="3"/>
-        <v>5.5312331555494092</v>
-      </c>
-      <c r="L35" s="182">
-        <f t="shared" si="2"/>
-        <v>4607.9561579380115</v>
-      </c>
-      <c r="M35" s="207">
-        <f t="shared" si="4"/>
-        <v>23412.398180706983</v>
-      </c>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="233">
-        <v>22</v>
-      </c>
-      <c r="C36" s="204">
-        <f>'Bates Grain Kn Calculator'!Q38</f>
-        <v>356.88279928370594</v>
-      </c>
-      <c r="D36" s="213">
-        <f>($H$9*EXP(C36*$H$10))</f>
-        <v>741.17390814996736</v>
-      </c>
-      <c r="E36" s="205">
+        <v>639.34718878191745</v>
+      </c>
+      <c r="E36" s="107">
         <f>'Bates Grain Kn Calculator'!P38</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F36" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D36)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D36)))</f>
-        <v>1.5575049323902785</v>
-      </c>
-      <c r="G36" s="182">
+      <c r="F36" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5356899038496987</v>
+      </c>
+      <c r="G36" s="93">
+        <f t="shared" si="2"/>
+        <v>3903.8687368907258</v>
+      </c>
+      <c r="H36" s="108">
+        <f>'Bates Grain Kn Calculator'!N38-'Bates Grain Kn Calculator'!N39</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I36" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24222062205052597</v>
+      </c>
+      <c r="J36" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29539897772620699</v>
+      </c>
+      <c r="K36" s="93">
+        <f t="shared" si="6"/>
+        <v>7.1367065195960029</v>
+      </c>
+      <c r="L36" s="93">
+        <f t="shared" si="5"/>
+        <v>3903.8687368907258</v>
+      </c>
+      <c r="M36" s="109">
+        <f t="shared" si="7"/>
+        <v>24738.473231967266</v>
+      </c>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="130">
+        <v>23</v>
+      </c>
+      <c r="C37" s="106">
+        <f>'Bates Grain Kn Calculator'!Q39</f>
+        <v>333.04039106883346</v>
+      </c>
+      <c r="D37" s="115">
         <f t="shared" si="0"/>
-        <v>4589.9131775982951</v>
-      </c>
-      <c r="H36" s="206">
-        <f>'Bates Grain Kn Calculator'!N38-'Bates Grain Kn Calculator'!N39</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I36" s="213">
-        <f>$H$5*(D36^$H$6)</f>
-        <v>0.25849696771982705</v>
-      </c>
-      <c r="J36" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24313853762789439</v>
-      </c>
-      <c r="K36" s="182">
-        <f t="shared" si="3"/>
-        <v>5.7743716931773035</v>
-      </c>
-      <c r="L36" s="182">
-        <f t="shared" si="2"/>
-        <v>4589.9131775982951</v>
-      </c>
-      <c r="M36" s="207">
-        <f t="shared" si="4"/>
-        <v>24528.382958547234</v>
-      </c>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="233">
-        <v>23</v>
-      </c>
-      <c r="C37" s="204">
-        <f>'Bates Grain Kn Calculator'!Q39</f>
-        <v>356.0972853626929</v>
-      </c>
-      <c r="D37" s="213">
-        <f>($H$9*EXP(C37*$H$10))</f>
-        <v>737.45137024251028</v>
-      </c>
-      <c r="E37" s="205">
+        <v>636.13159668421122</v>
+      </c>
+      <c r="E37" s="107">
         <f>'Bates Grain Kn Calculator'!P39</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F37" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D37)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D37)))</f>
-        <v>1.5567864381570686</v>
-      </c>
-      <c r="G37" s="182">
+      <c r="F37" s="93">
+        <f t="shared" si="1"/>
+        <v>1.534918003254798</v>
+      </c>
+      <c r="G37" s="93">
+        <f t="shared" si="2"/>
+        <v>3882.2818819919044</v>
+      </c>
+      <c r="H37" s="108">
+        <f>'Bates Grain Kn Calculator'!N39-'Bates Grain Kn Calculator'!N40</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I37" s="115">
+        <f t="shared" si="3"/>
+        <v>0.2416837671149856</v>
+      </c>
+      <c r="J37" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29605515087775336</v>
+      </c>
+      <c r="K37" s="93">
+        <f t="shared" si="6"/>
+        <v>7.4327616704737558</v>
+      </c>
+      <c r="L37" s="93">
+        <f t="shared" si="5"/>
+        <v>3882.2818819919044</v>
+      </c>
+      <c r="M37" s="109">
+        <f t="shared" si="7"/>
+        <v>25887.842780290346</v>
+      </c>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="130">
+        <v>24</v>
+      </c>
+      <c r="C38" s="106">
+        <f>'Bates Grain Kn Calculator'!Q40</f>
+        <v>331.9625278548466</v>
+      </c>
+      <c r="D38" s="115">
         <f t="shared" si="0"/>
-        <v>4564.7536453385692</v>
-      </c>
-      <c r="H37" s="206">
-        <f>'Bates Grain Kn Calculator'!N39-'Bates Grain Kn Calculator'!N40</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I37" s="213">
-        <f>$H$5*(D37^$H$6)</f>
-        <v>0.25792483702663072</v>
-      </c>
-      <c r="J37" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24367786924744458</v>
-      </c>
-      <c r="K37" s="182">
-        <f t="shared" si="3"/>
-        <v>6.0180495624247481</v>
-      </c>
-      <c r="L37" s="182">
-        <f t="shared" si="2"/>
-        <v>4564.7536453385692</v>
-      </c>
-      <c r="M37" s="207">
-        <f t="shared" si="4"/>
-        <v>25640.712400482844</v>
-      </c>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="233">
-        <v>24</v>
-      </c>
-      <c r="C38" s="204">
-        <f>'Bates Grain Kn Calculator'!Q40</f>
-        <v>355.08704925192916</v>
-      </c>
-      <c r="D38" s="213">
-        <f>($H$9*EXP(C38*$H$10))</f>
-        <v>732.69134887884354</v>
-      </c>
-      <c r="E38" s="205">
+        <v>631.7516460217812</v>
+      </c>
+      <c r="E38" s="107">
         <f>'Bates Grain Kn Calculator'!P40</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F38" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D38)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D38)))</f>
-        <v>1.5558599220686633</v>
-      </c>
-      <c r="G38" s="182">
+      <c r="F38" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5338572069832028</v>
+      </c>
+      <c r="G38" s="93">
+        <f t="shared" si="2"/>
+        <v>3852.886636775851</v>
+      </c>
+      <c r="H38" s="108">
+        <f>'Bates Grain Kn Calculator'!N40-'Bates Grain Kn Calculator'!N41</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I38" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24095006791056489</v>
+      </c>
+      <c r="J38" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29695664648863773</v>
+      </c>
+      <c r="K38" s="93">
+        <f t="shared" si="6"/>
+        <v>7.7297183169623933</v>
+      </c>
+      <c r="L38" s="93">
+        <f t="shared" si="5"/>
+        <v>3852.886636775851</v>
+      </c>
+      <c r="M38" s="109">
+        <f t="shared" si="7"/>
+        <v>27031.98307524819</v>
+      </c>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="130">
+        <v>25</v>
+      </c>
+      <c r="C39" s="106">
+        <f>'Bates Grain Kn Calculator'!Q41</f>
+        <v>330.59341348482855</v>
+      </c>
+      <c r="D39" s="115">
         <f t="shared" si="0"/>
-        <v>4532.5904051275311</v>
-      </c>
-      <c r="H38" s="206">
-        <f>'Bates Grain Kn Calculator'!N40-'Bates Grain Kn Calculator'!N41</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I38" s="213">
-        <f>$H$5*(D38^$H$6)</f>
-        <v>0.25719089058037431</v>
-      </c>
-      <c r="J38" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24437325354259559</v>
-      </c>
-      <c r="K38" s="182">
-        <f t="shared" si="3"/>
-        <v>6.2624228159673434</v>
-      </c>
-      <c r="L38" s="182">
-        <f t="shared" si="2"/>
-        <v>4532.5904051275311</v>
-      </c>
-      <c r="M38" s="207">
-        <f t="shared" si="4"/>
-        <v>26748.356264759808</v>
-      </c>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="233">
-        <v>25</v>
-      </c>
-      <c r="C39" s="204">
-        <f>'Bates Grain Kn Calculator'!Q41</f>
-        <v>353.85209095141494</v>
-      </c>
-      <c r="D39" s="213">
-        <f>($H$9*EXP(C39*$H$10))</f>
-        <v>726.91419992580643</v>
-      </c>
-      <c r="E39" s="205">
+        <v>626.23163627050849</v>
+      </c>
+      <c r="E39" s="107">
         <f>'Bates Grain Kn Calculator'!P41</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F39" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D39)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D39)))</f>
-        <v>1.5547235077589729</v>
-      </c>
-      <c r="G39" s="182">
+      <c r="F39" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5325045874701184</v>
+      </c>
+      <c r="G39" s="93">
+        <f t="shared" si="2"/>
+        <v>3815.8536039584455</v>
+      </c>
+      <c r="H39" s="108">
+        <f>'Bates Grain Kn Calculator'!N41-'Bates Grain Kn Calculator'!N42</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I39" s="115">
+        <f t="shared" si="3"/>
+        <v>0.24002132523221478</v>
+      </c>
+      <c r="J39" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29810569568644274</v>
+      </c>
+      <c r="K39" s="93">
+        <f t="shared" si="6"/>
+        <v>8.0278240126488356</v>
+      </c>
+      <c r="L39" s="93">
+        <f t="shared" si="5"/>
+        <v>3815.8536039584455</v>
+      </c>
+      <c r="M39" s="109">
+        <f t="shared" si="7"/>
+        <v>28169.510768493841</v>
+      </c>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="130">
+        <v>26</v>
+      </c>
+      <c r="C40" s="106">
+        <f>'Bates Grain Kn Calculator'!Q42</f>
+        <v>328.9330479587793</v>
+      </c>
+      <c r="D40" s="115">
         <f t="shared" si="0"/>
-        <v>4493.5671449822339</v>
-      </c>
-      <c r="H39" s="206">
-        <f>'Bates Grain Kn Calculator'!N41-'Bates Grain Kn Calculator'!N42</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I39" s="213">
-        <f>$H$5*(D39^$H$6)</f>
-        <v>0.25629651770337986</v>
-      </c>
-      <c r="J39" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24522601897144286</v>
-      </c>
-      <c r="K39" s="182">
-        <f t="shared" si="3"/>
-        <v>6.5076488349387862</v>
-      </c>
-      <c r="L39" s="182">
-        <f t="shared" si="2"/>
-        <v>4493.5671449822339</v>
-      </c>
-      <c r="M39" s="207">
-        <f t="shared" si="4"/>
-        <v>27850.295846704674</v>
-      </c>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="233">
-        <v>26</v>
-      </c>
-      <c r="C40" s="204">
-        <f>'Bates Grain Kn Calculator'!Q42</f>
-        <v>352.39241046115001</v>
-      </c>
-      <c r="D40" s="213">
-        <f>($H$9*EXP(C40*$H$10))</f>
-        <v>720.14450932493742</v>
-      </c>
-      <c r="E40" s="205">
+        <v>619.60203048451342</v>
+      </c>
+      <c r="E40" s="107">
         <f>'Bates Grain Kn Calculator'!P42</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F40" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D40)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D40)))</f>
-        <v>1.5533748793695339</v>
-      </c>
-      <c r="G40" s="182">
+      <c r="F40" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5308563851369961</v>
+      </c>
+      <c r="G40" s="93">
+        <f t="shared" si="2"/>
+        <v>3771.3965535388102</v>
+      </c>
+      <c r="H40" s="108">
+        <f>'Bates Grain Kn Calculator'!N42-'Bates Grain Kn Calculator'!N43</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I40" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23889981332830737</v>
+      </c>
+      <c r="J40" s="93">
+        <f t="shared" si="4"/>
+        <v>0.29950514879474238</v>
+      </c>
+      <c r="K40" s="93">
+        <f t="shared" si="6"/>
+        <v>8.3273291614435774</v>
+      </c>
+      <c r="L40" s="93">
+        <f t="shared" si="5"/>
+        <v>3771.3965535388102</v>
+      </c>
+      <c r="M40" s="109">
+        <f t="shared" si="7"/>
+        <v>29299.063454425461</v>
+      </c>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="130">
+        <v>27</v>
+      </c>
+      <c r="C41" s="106">
+        <f>'Bates Grain Kn Calculator'!Q43</f>
+        <v>326.9814312766988</v>
+      </c>
+      <c r="D41" s="115">
         <f t="shared" si="0"/>
-        <v>4447.8573370716904</v>
-      </c>
-      <c r="H40" s="206">
-        <f>'Bates Grain Kn Calculator'!N42-'Bates Grain Kn Calculator'!N43</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I40" s="213">
-        <f>$H$5*(D40^$H$6)</f>
-        <v>0.25524340780862048</v>
-      </c>
-      <c r="J40" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24623779807770252</v>
-      </c>
-      <c r="K40" s="182">
-        <f t="shared" si="3"/>
-        <v>6.7538866330164886</v>
-      </c>
-      <c r="L40" s="182">
-        <f t="shared" si="2"/>
-        <v>4447.8573370716904</v>
-      </c>
-      <c r="M40" s="207">
-        <f t="shared" si="4"/>
-        <v>28945.526443548959</v>
-      </c>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="233">
-        <v>27</v>
-      </c>
-      <c r="C41" s="204">
-        <f>'Bates Grain Kn Calculator'!Q43</f>
-        <v>350.7080077811346</v>
-      </c>
-      <c r="D41" s="213">
-        <f>($H$9*EXP(C41*$H$10))</f>
-        <v>712.41091880509725</v>
-      </c>
-      <c r="E41" s="205">
+        <v>611.89917529763659</v>
+      </c>
+      <c r="E41" s="107">
         <f>'Bates Grain Kn Calculator'!P43</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F41" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D41)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D41)))</f>
-        <v>1.5518112678861506</v>
-      </c>
-      <c r="G41" s="182">
+      <c r="F41" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5289079782662429</v>
+      </c>
+      <c r="G41" s="93">
+        <f t="shared" si="2"/>
+        <v>3719.7703843769095</v>
+      </c>
+      <c r="H41" s="108">
+        <f>'Bates Grain Kn Calculator'!N43-'Bates Grain Kn Calculator'!N44</f>
+        <v>7.1551724137930872E-2</v>
+      </c>
+      <c r="I41" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23758827062156426</v>
+      </c>
+      <c r="J41" s="93">
+        <f t="shared" si="4"/>
+        <v>0.3011584871203512</v>
+      </c>
+      <c r="K41" s="93">
+        <f t="shared" si="6"/>
+        <v>8.6284876485639295</v>
+      </c>
+      <c r="L41" s="93">
+        <f t="shared" si="5"/>
+        <v>3719.7703843769095</v>
+      </c>
+      <c r="M41" s="109">
+        <f t="shared" si="7"/>
+        <v>30419.3038758195</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="130">
+        <v>28</v>
+      </c>
+      <c r="C42" s="106">
+        <f>'Bates Grain Kn Calculator'!Q44</f>
+        <v>324.73856343858722</v>
+      </c>
+      <c r="D42" s="115">
         <f t="shared" si="0"/>
-        <v>4395.6629643453643</v>
-      </c>
-      <c r="H41" s="206">
-        <f>'Bates Grain Kn Calculator'!N43-'Bates Grain Kn Calculator'!N44</f>
-        <v>6.285057471264377E-2</v>
-      </c>
-      <c r="I41" s="213">
-        <f>$H$5*(D41^$H$6)</f>
-        <v>0.25403354508226988</v>
-      </c>
-      <c r="J41" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24741053270066884</v>
-      </c>
-      <c r="K41" s="182">
-        <f t="shared" si="3"/>
-        <v>7.0012971657171574</v>
-      </c>
-      <c r="L41" s="182">
-        <f t="shared" si="2"/>
-        <v>4395.6629643453643</v>
-      </c>
-      <c r="M41" s="207">
-        <f t="shared" si="4"/>
-        <v>30033.059759130247</v>
-      </c>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="233">
-        <v>28</v>
-      </c>
-      <c r="C42" s="204">
-        <f>'Bates Grain Kn Calculator'!Q44</f>
-        <v>348.79888291136848</v>
-      </c>
-      <c r="D42" s="213">
-        <f>($H$9*EXP(C42*$H$10))</f>
-        <v>703.74592404579312</v>
-      </c>
-      <c r="E42" s="205">
+        <v>603.16496906642317</v>
+      </c>
+      <c r="E42" s="107">
         <f>'Bates Grain Kn Calculator'!P44</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F42" s="182">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D42)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D42)))</f>
-        <v>1.5500294346257488</v>
-      </c>
-      <c r="G42" s="182">
+      <c r="F42" s="93">
+        <f t="shared" si="1"/>
+        <v>1.5266538455050014</v>
+      </c>
+      <c r="G42" s="93">
+        <f t="shared" si="2"/>
+        <v>3661.2687096002337</v>
+      </c>
+      <c r="H42" s="108">
+        <f>'Bates Grain Kn Calculator'!N44-'Bates Grain Kn Calculator'!N45</f>
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I42" s="115">
+        <f t="shared" si="3"/>
+        <v>0.23608988856831653</v>
+      </c>
+      <c r="J42" s="93">
+        <f t="shared" si="4"/>
+        <v>0.30306983739045917</v>
+      </c>
+      <c r="K42" s="93">
+        <f t="shared" si="6"/>
+        <v>8.9315574859543894</v>
+      </c>
+      <c r="L42" s="93">
+        <f t="shared" si="5"/>
+        <v>3661.2687096002337</v>
+      </c>
+      <c r="M42" s="109">
+        <f t="shared" si="7"/>
+        <v>31528.923988280818</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="131">
+        <v>29</v>
+      </c>
+      <c r="C43" s="110">
+        <f>'Bates Grain Kn Calculator'!Q45</f>
+        <v>322.20444444444445</v>
+      </c>
+      <c r="D43" s="116">
         <f t="shared" si="0"/>
-        <v>4337.2130466157405</v>
-      </c>
-      <c r="H42" s="206">
-        <f>'Bates Grain Kn Calculator'!N44-'Bates Grain Kn Calculator'!N45</f>
-        <v>6.2850574712643326E-2</v>
-      </c>
-      <c r="I42" s="213">
-        <f>$H$5*(D42^$H$6)</f>
-        <v>0.25266920225446404</v>
-      </c>
-      <c r="J42" s="182">
-        <f t="shared" si="1"/>
-        <v>0.24874648018774481</v>
-      </c>
-      <c r="K42" s="182">
-        <f t="shared" si="3"/>
-        <v>7.2500436459049027</v>
-      </c>
-      <c r="L42" s="182">
-        <f t="shared" si="2"/>
-        <v>4337.2130466157405</v>
-      </c>
-      <c r="M42" s="207">
-        <f t="shared" si="4"/>
-        <v>31111.926238300279</v>
-      </c>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="234">
-        <v>29</v>
-      </c>
-      <c r="C43" s="208">
-        <f>'Bates Grain Kn Calculator'!Q45</f>
-        <v>346.66503585185194</v>
-      </c>
-      <c r="D43" s="214">
-        <f>($H$9*EXP(C43*$H$10))</f>
-        <v>694.18564728120077</v>
-      </c>
-      <c r="E43" s="209">
+        <v>593.44648239324306</v>
+      </c>
+      <c r="E43" s="111">
         <f>'Bates Grain Kn Calculator'!P45</f>
         <v>3.9760782021995817</v>
       </c>
-      <c r="F43" s="186">
-        <f>SQRT((((2*$H$2^2)/($H$2-1))*((2/($H$2+1))^(($H$2+1)/($H$2-1))*(1-(($D$4/D43)^(($H$2-1)/$H$2)))))+($D$6*(($D$4-$D$5)/D43)))</f>
-        <v>1.5480256516802318</v>
-      </c>
-      <c r="G43" s="186">
-        <f t="shared" si="0"/>
-        <v>4272.761980969598</v>
-      </c>
-      <c r="H43" s="210">
+      <c r="F43" s="97">
+        <f t="shared" si="1"/>
+        <v>1.5240875204056743</v>
+      </c>
+      <c r="G43" s="97">
+        <f t="shared" si="2"/>
+        <v>3596.2210974122804</v>
+      </c>
+      <c r="H43" s="112">
         <f>H42</f>
-        <v>6.2850574712643326E-2</v>
-      </c>
-      <c r="I43" s="214">
-        <f>$H$5*(D43^$H$6)</f>
-        <v>0.25115293348564882</v>
-      </c>
-      <c r="J43" s="186">
-        <f t="shared" si="1"/>
-        <v>0.25024822063738578</v>
-      </c>
-      <c r="K43" s="186">
+        <v>7.1551724137931316E-2</v>
+      </c>
+      <c r="I43" s="116">
         <f t="shared" si="3"/>
-        <v>7.5002918665422884</v>
-      </c>
-      <c r="L43" s="186">
-        <f t="shared" si="2"/>
-        <v>4272.761980969598</v>
-      </c>
-      <c r="M43" s="211">
+        <v>0.234408298719533</v>
+      </c>
+      <c r="J43" s="97">
         <f t="shared" si="4"/>
-        <v>32181.177321244992</v>
+        <v>0.30524398892354138</v>
+      </c>
+      <c r="K43" s="97">
+        <f t="shared" si="6"/>
+        <v>9.2368014748779306</v>
+      </c>
+      <c r="L43" s="97">
+        <f t="shared" si="5"/>
+        <v>3596.2210974122804</v>
+      </c>
+      <c r="M43" s="113">
+        <f t="shared" si="7"/>
+        <v>32626.648861105939</v>
       </c>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="167"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="Q44" s="3"/>
@@ -30734,15 +30733,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F2:G2"/>
@@ -30757,6 +30747,15 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Launches/8-inch-flight/Design/Calculations/tags/Rev1/Q-8in-motor_calc.xlsx
+++ b/Launches/8-inch-flight/Design/Calculations/tags/Rev1/Q-8in-motor_calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28680" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bates Grain Kn Calculator" sheetId="1" r:id="rId1"/>
@@ -1612,6 +1612,135 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1626,12 +1755,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1675,18 +1798,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1699,113 +1810,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1828,13 +1864,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="41" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyBorder="1">
@@ -1852,53 +1882,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="2" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
@@ -1912,14 +1900,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="2" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3989,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4020,45 +4020,45 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="145" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="146"/>
+      <c r="E2" s="187"/>
       <c r="G2" s="86"/>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="165" t="s">
+      <c r="R2" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="165"/>
-      <c r="T2" s="179" t="b">
+      <c r="S2" s="168"/>
+      <c r="T2" s="155" t="b">
         <f>AND(ISNUMBER(D5),ISNUMBER(D6),ISNUMBER(D7),ISNUMBER(D8),ISNUMBER(D9),ISNUMBER(D10),ISNUMBER(D11),ISNUMBER(D12),NOT(ISBLANK($D$5:$D$12)))</f>
         <v>1</v>
       </c>
-      <c r="U2" s="179"/>
+      <c r="U2" s="155"/>
     </row>
     <row r="3" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143" t="s">
+      <c r="C3" s="183"/>
+      <c r="D3" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="144"/>
+      <c r="E3" s="185"/>
       <c r="G3" s="52"/>
       <c r="I3" s="51"/>
       <c r="J3" s="5"/>
@@ -4068,17 +4068,17 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="7"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
     </row>
     <row r="4" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="87"/>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="162"/>
+      <c r="J4" s="167"/>
       <c r="K4" s="37">
         <f>(($D$6-$D$7))/29</f>
         <v>0.14310344827586208</v>
@@ -4087,72 +4087,72 @@
         <v>58</v>
       </c>
       <c r="M4" s="52"/>
-      <c r="N4" s="153" t="s">
+      <c r="N4" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="154"/>
+      <c r="O4" s="136"/>
       <c r="P4" s="48">
         <f>Estimate!L4</f>
         <v>642.22020614588871</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="178"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="42">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="I5" s="163" t="s">
+      <c r="G5" s="189"/>
+      <c r="I5" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="164"/>
+      <c r="J5" s="142"/>
       <c r="K5" s="38">
         <f>$M$16</f>
         <v>1103.146698363154</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="173" t="s">
+      <c r="N5" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="174"/>
+      <c r="O5" s="148"/>
       <c r="P5" s="49">
         <f>Estimate!L5</f>
         <v>586.52275088831789</v>
       </c>
-      <c r="R5" s="181" t="s">
+      <c r="R5" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="183"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="159"/>
     </row>
     <row r="6" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="138"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="43">
         <v>6.9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="I6" s="163" t="s">
+      <c r="F6" s="190"/>
+      <c r="G6" s="191"/>
+      <c r="I6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="164"/>
+      <c r="J6" s="142"/>
       <c r="K6" s="39">
         <f>PI()*Nozzle_Throat_Diameter^2/4</f>
         <v>4.0114996593688055</v>
@@ -4161,28 +4161,28 @@
         <v>42</v>
       </c>
       <c r="M6" s="52"/>
-      <c r="N6" s="173" t="s">
+      <c r="N6" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="174"/>
+      <c r="O6" s="148"/>
       <c r="P6" s="49">
         <f>Estimate!L6</f>
         <v>3923.1600891050684</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="184" t="str">
+      <c r="R6" s="160" t="str">
         <f>IF(ISNUMBER($D$5:$D$12), "", "Error: Input Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S6" s="185"/>
-      <c r="T6" s="185"/>
-      <c r="U6" s="186"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="162"/>
     </row>
     <row r="7" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="138"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="64">
         <f>'Erosive Burning'!S5</f>
         <v>2.75</v>
@@ -4190,132 +4190,132 @@
       <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="151">
+      <c r="F7" s="192">
         <v>3</v>
       </c>
-      <c r="G7" s="152"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="164"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="40">
         <f>$Q$16</f>
         <v>277.44592592592596</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="173" t="s">
+      <c r="N7" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="174"/>
+      <c r="O7" s="148"/>
       <c r="P7" s="49">
         <f>Estimate!L7</f>
         <v>3550.8703801899906</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="167" t="str">
+      <c r="R7" s="163" t="str">
         <f>IF(NOT(ISBLANK($D$5:$D$12)),"", "Error: Must Enter All Input Values")</f>
         <v/>
       </c>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="169"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="165"/>
     </row>
     <row r="8" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="43">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="189">
+      <c r="F8" s="137">
         <v>3</v>
       </c>
-      <c r="G8" s="190"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="163" t="s">
+      <c r="I8" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="164"/>
+      <c r="J8" s="142"/>
       <c r="K8" s="40">
         <f>MAX(Q17:Q45)</f>
         <v>334.52647377460693</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="173" t="s">
+      <c r="N8" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="174"/>
+      <c r="O8" s="148"/>
       <c r="P8" s="49">
         <f>Estimate!L8</f>
         <v>9.2368014748779306</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="167" t="str">
+      <c r="R8" s="163" t="str">
         <f>IF(ISNUMBER($F$7:$F$12), "", "Error: Grain Core Diameter Values Must be Numerical")</f>
         <v/>
       </c>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="169"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="165"/>
     </row>
     <row r="9" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="154"/>
       <c r="D9" s="43">
         <v>2.2599999999999998</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="189">
+      <c r="F9" s="137">
         <v>3</v>
       </c>
-      <c r="G9" s="190"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="193" t="s">
+      <c r="I9" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="194"/>
+      <c r="J9" s="144"/>
       <c r="K9" s="41">
         <f>$Q$45</f>
         <v>322.20444444444445</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="173" t="s">
+      <c r="N9" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="174"/>
+      <c r="O9" s="148"/>
       <c r="P9" s="49">
         <f>Estimate!L9</f>
         <v>32626.648861105939</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="169"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="165"/>
     </row>
     <row r="10" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="64">
         <f>Nozzle_Throat_Diameter</f>
         <v>2.2599999999999998</v>
@@ -4323,10 +4323,10 @@
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="191">
+      <c r="F10" s="139">
         <v>3.4</v>
       </c>
-      <c r="G10" s="192"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
@@ -4335,10 +4335,10 @@
       <c r="K10" s="56"/>
       <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="155" t="s">
+      <c r="N10" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="156"/>
+      <c r="O10" s="174"/>
       <c r="P10" s="50">
         <f>MAX('Erosive Burning'!L14:L19)</f>
         <v>1.18406010621894</v>
@@ -4349,27 +4349,27 @@
       <c r="U10" s="172"/>
     </row>
     <row r="11" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="138"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="43">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="189">
+      <c r="F11" s="137">
         <v>3.8</v>
       </c>
-      <c r="G11" s="190"/>
+      <c r="G11" s="138"/>
       <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="195" t="s">
+      <c r="I11" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="196"/>
+      <c r="J11" s="146"/>
       <c r="K11" s="44">
         <f>((D6*3)+D7)/2</f>
         <v>11.725000000000001</v>
@@ -4383,20 +4383,20 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="187">
+      <c r="F12" s="133">
         <v>4.3</v>
       </c>
-      <c r="G12" s="188"/>
+      <c r="G12" s="134"/>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
@@ -4404,20 +4404,20 @@
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="153" t="s">
+      <c r="M12" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="N12" s="154"/>
-      <c r="O12" s="157" t="s">
+      <c r="N12" s="136"/>
+      <c r="O12" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="158"/>
+      <c r="P12" s="195"/>
     </row>
     <row r="13" spans="1:21" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="133"/>
+      <c r="C13" s="176"/>
       <c r="D13" s="68">
         <f>(D10-D9)/29</f>
         <v>0</v>
@@ -4426,15 +4426,15 @@
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="58"/>
-      <c r="M13" s="155" t="s">
+      <c r="M13" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="N13" s="156"/>
-      <c r="O13" s="159">
+      <c r="N13" s="174"/>
+      <c r="O13" s="196">
         <f>(36800+18400)/2</f>
         <v>27600</v>
       </c>
-      <c r="P13" s="160"/>
+      <c r="P13" s="197"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="4"/>
@@ -16172,37 +16172,6 @@
     <row r="996" spans="3:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="R8:U8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="B9:C9"/>
@@ -16219,6 +16188,37 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="T2:U3">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
@@ -16256,36 +16256,36 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="221"/>
-      <c r="N2" s="197" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="200"/>
+      <c r="N2" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
     </row>
     <row r="3" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143" t="str">
+      <c r="C3" s="183"/>
+      <c r="D3" s="184" t="str">
         <f>'Bates Grain Kn Calculator'!D3</f>
         <v>Q-Motor</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="N3" s="208" t="s">
+      <c r="E3" s="185"/>
+      <c r="N3" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="210" t="s">
+      <c r="O3" s="220" t="s">
         <v>108</v>
       </c>
       <c r="P3" s="52"/>
@@ -16303,8 +16303,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="210"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="220"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
@@ -16312,11 +16312,11 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="222" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="66">
         <f>'Bates Grain Kn Calculator'!D6</f>
         <v>6.9</v>
@@ -16324,20 +16324,20 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="200" t="s">
+      <c r="H5" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="202"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="211"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="214"/>
+      <c r="N5" s="219"/>
+      <c r="O5" s="221"/>
       <c r="P5" s="52"/>
-      <c r="Q5" s="206" t="s">
+      <c r="Q5" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="207"/>
-      <c r="S5" s="234">
+      <c r="R5" s="217"/>
+      <c r="S5" s="132">
         <v>2.75</v>
       </c>
       <c r="T5" s="7" t="s">
@@ -16345,11 +16345,11 @@
       </c>
     </row>
     <row r="6" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="215" t="s">
+      <c r="B6" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="67">
         <f>'Bates Grain Kn Calculator'!D8</f>
         <v>14</v>
@@ -16357,11 +16357,11 @@
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="206" t="s">
+      <c r="H6" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
       <c r="K6" s="65">
         <v>0.57499999999999996</v>
       </c>
@@ -16377,10 +16377,10 @@
         <v>424.53912324285676</v>
       </c>
       <c r="P6" s="52"/>
-      <c r="Q6" s="204" t="s">
+      <c r="Q6" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="205"/>
+      <c r="R6" s="216"/>
       <c r="S6" s="76">
         <f>AVERAGE(E14:E19)</f>
         <v>28.034787442471924</v>
@@ -16390,22 +16390,22 @@
       </c>
     </row>
     <row r="7" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="62">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="204" t="s">
+      <c r="H7" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
       <c r="K7" s="65">
         <v>0.1</v>
       </c>
@@ -16421,10 +16421,10 @@
         <v>424.53912324285676</v>
       </c>
       <c r="P7" s="52"/>
-      <c r="Q7" s="204" t="s">
+      <c r="Q7" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="205"/>
+      <c r="R7" s="216"/>
       <c r="S7" s="76">
         <f>(C14+C15+C16+C17+C18+C19)/ng</f>
         <v>3.4166666666666665</v>
@@ -16434,11 +16434,11 @@
       </c>
     </row>
     <row r="8" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="67">
         <f>Estimate!D10</f>
         <v>0.23289725920790463</v>
@@ -16446,11 +16446,11 @@
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="204" t="s">
+      <c r="H8" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
       <c r="K8" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -16466,10 +16466,10 @@
         <v>424.53912324285676</v>
       </c>
       <c r="P8" s="52"/>
-      <c r="Q8" s="204" t="s">
+      <c r="Q8" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="205"/>
+      <c r="R8" s="216"/>
       <c r="S8" s="76">
         <f>SUM(O6:O11)</f>
         <v>2354.9221451676417</v>
@@ -16479,11 +16479,11 @@
       </c>
     </row>
     <row r="9" spans="2:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="215" t="s">
+      <c r="B9" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
       <c r="E9" s="67">
         <f>[0]!Num_Grains</f>
         <v>6</v>
@@ -16491,11 +16491,11 @@
       <c r="F9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="H9" s="203" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
       <c r="K9" s="65">
         <f>PI()/4*ds^2</f>
         <v>0.25967226777328128</v>
@@ -16512,10 +16512,10 @@
         <v>396.39045306669226</v>
       </c>
       <c r="P9" s="52"/>
-      <c r="Q9" s="204" t="s">
+      <c r="Q9" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="205"/>
+      <c r="R9" s="216"/>
       <c r="S9" s="76">
         <f>S10*rhop</f>
         <v>138.94040656489085</v>
@@ -16525,11 +16525,11 @@
       </c>
     </row>
     <row r="10" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
       <c r="E10" s="75">
         <f>[0]!boundary_layer</f>
         <v>5.0000000000000001E-3</v>
@@ -16537,11 +16537,11 @@
       <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="204" t="s">
+      <c r="H10" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
       <c r="K10" s="65">
         <f>As*sdots</f>
         <v>2.5967226777328128E-2</v>
@@ -16558,10 +16558,10 @@
         <v>364.72319911850713</v>
       </c>
       <c r="P10" s="52"/>
-      <c r="Q10" s="132" t="s">
+      <c r="Q10" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="133"/>
+      <c r="R10" s="176"/>
       <c r="S10" s="77">
         <f>S8</f>
         <v>2354.9221451676417</v>
@@ -16578,11 +16578,11 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="2:34" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="133"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="63">
         <v>1.4</v>
       </c>
@@ -16590,11 +16590,11 @@
         <v>92</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
       <c r="K11" s="68">
         <f>Vdots*rhos</f>
         <v>1.8177058744129691E-3</v>
@@ -21224,18 +21224,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H5:K5"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
@@ -21250,6 +21238,18 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21258,10 +21258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V1007"/>
+  <dimension ref="B1:AC1007"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21274,45 +21274,45 @@
     <col min="28" max="16384" width="17.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="232" t="s">
+    <row r="1" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="230" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="F2" s="228" t="s">
+      <c r="C2" s="231"/>
+      <c r="F2" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="229"/>
+      <c r="G2" s="225"/>
       <c r="H2" s="120">
         <v>1.26</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="51"/>
       <c r="G3" s="52"/>
       <c r="H3" s="7"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="206" t="s">
+    <row r="4" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="217"/>
       <c r="D4" s="83">
         <v>9.1</v>
       </c>
-      <c r="F4" s="225" t="s">
+      <c r="F4" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="226"/>
-      <c r="H4" s="227"/>
-      <c r="J4" s="213" t="s">
+      <c r="G4" s="233"/>
+      <c r="H4" s="234"/>
+      <c r="J4" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="214"/>
+      <c r="K4" s="223"/>
       <c r="L4" s="121">
         <f>MAX(D14:D43)</f>
         <v>642.22020614588871</v>
@@ -21321,25 +21321,25 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="204" t="s">
+    <row r="5" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="205"/>
+      <c r="C5" s="216"/>
       <c r="D5" s="84">
         <v>13.43</v>
       </c>
-      <c r="F5" s="215" t="s">
+      <c r="F5" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="216"/>
+      <c r="G5" s="206"/>
       <c r="H5" s="117">
         <v>1.4109999999999999E-2</v>
       </c>
-      <c r="J5" s="215" t="s">
+      <c r="J5" s="205" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="216"/>
+      <c r="K5" s="206"/>
       <c r="L5" s="128">
         <f>AVERAGE(D14:D43)</f>
         <v>586.52275088831789</v>
@@ -21348,26 +21348,26 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="204" t="s">
+    <row r="6" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="203" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="205"/>
+      <c r="C6" s="216"/>
       <c r="D6" s="84">
         <f>(('Bates Grain Kn Calculator'!D11^2)/4)/((Nozzle_Throat_Diameter^2)/4)</f>
         <v>15.858720338319371</v>
       </c>
-      <c r="F6" s="215" t="s">
+      <c r="F6" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="216"/>
+      <c r="G6" s="206"/>
       <c r="H6" s="117">
         <v>0.44005699999999998</v>
       </c>
-      <c r="J6" s="215" t="s">
+      <c r="J6" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="216"/>
+      <c r="K6" s="206"/>
       <c r="L6" s="122">
         <f>MAX(L14:L43)</f>
         <v>3923.1600891050684</v>
@@ -21377,21 +21377,21 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="204" t="s">
+    <row r="7" spans="2:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="203" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="205"/>
+      <c r="C7" s="216"/>
       <c r="D7" s="84">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F7" s="230"/>
-      <c r="G7" s="231"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="227"/>
       <c r="H7" s="101"/>
-      <c r="J7" s="215" t="s">
+      <c r="J7" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="216"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="122">
         <f>AVERAGE(L14:L43)</f>
         <v>3550.8703801899906</v>
@@ -21400,24 +21400,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="204" t="s">
+    <row r="8" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="203" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="205"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="84">
         <f>6*2300</f>
         <v>13800</v>
       </c>
-      <c r="F8" s="225" t="s">
+      <c r="F8" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="226"/>
-      <c r="H8" s="227"/>
-      <c r="J8" s="215" t="s">
+      <c r="G8" s="233"/>
+      <c r="H8" s="234"/>
+      <c r="J8" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="216"/>
+      <c r="K8" s="206"/>
       <c r="L8" s="123">
         <f>K43</f>
         <v>9.2368014748779306</v>
@@ -21427,27 +21427,27 @@
       </c>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="204" t="s">
+    <row r="9" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="203" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="205"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="84">
         <f>AVERAGE(D14:D43)</f>
         <v>586.52275088831789</v>
       </c>
-      <c r="F9" s="215" t="s">
+      <c r="F9" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="216"/>
+      <c r="G9" s="206"/>
       <c r="H9" s="118">
         <v>75.234999999999999</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="215" t="s">
+      <c r="J9" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="216"/>
+      <c r="K9" s="206"/>
       <c r="L9" s="122">
         <f>MAX(M14:M43)</f>
         <v>32626.648861105939</v>
@@ -21456,27 +21456,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="132" t="s">
+    <row r="10" spans="2:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="133"/>
+      <c r="C10" s="176"/>
       <c r="D10" s="85">
         <f>AVERAGE(I14:I43)</f>
         <v>0.23289725920790463</v>
       </c>
-      <c r="F10" s="223" t="s">
+      <c r="F10" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="224"/>
+      <c r="G10" s="229"/>
       <c r="H10" s="119">
         <v>6.4099999999999999E-3</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="223" t="s">
+      <c r="J10" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="224"/>
+      <c r="K10" s="229"/>
       <c r="L10" s="124">
         <f>L9/'Erosive Burning'!S9</f>
         <v>234.82476889016414</v>
@@ -21487,20 +21487,20 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
       <c r="I11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:22" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:22" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="60" t="s">
         <v>5</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="129">
         <v>0</v>
       </c>
@@ -21575,7 +21575,6 @@
         <v>0.34632051823590843</v>
       </c>
       <c r="K14" s="89">
-        <f>J14</f>
         <v>0.34632051823590843</v>
       </c>
       <c r="L14" s="89">
@@ -21583,12 +21582,24 @@
         <v>2612.3641311842121</v>
       </c>
       <c r="M14" s="105">
-        <f>G14*J14</f>
         <v>904.71529973261499</v>
       </c>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="105">
+        <v>2612.3641311842121</v>
+      </c>
+      <c r="AA14" s="89">
+        <v>0.34632051823590843</v>
+      </c>
+      <c r="AB14" s="105">
+        <f>Y14*4.45</f>
+        <v>11625.020383769745</v>
+      </c>
+      <c r="AC14" s="105">
+        <v>2612.3641311842121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="130">
         <v>1</v>
       </c>
@@ -21625,7 +21636,6 @@
         <v>0.34087281178699935</v>
       </c>
       <c r="K15" s="93">
-        <f t="shared" ref="K15:K43" si="6">J15+K14</f>
         <v>0.68719333002290783</v>
       </c>
       <c r="L15" s="93">
@@ -21633,12 +21643,24 @@
         <v>2720.2912381771334</v>
       </c>
       <c r="M15" s="109">
-        <f t="shared" ref="M15:M43" si="7">(G15*J15)+M14</f>
         <v>1831.9886229695926</v>
       </c>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="109">
+        <v>2720.2912381771334</v>
+      </c>
+      <c r="AA15" s="93">
+        <v>0.68719333002290783</v>
+      </c>
+      <c r="AB15" s="105">
+        <f t="shared" ref="AB15:AB43" si="6">Y15*4.45</f>
+        <v>12105.296009888245</v>
+      </c>
+      <c r="AC15" s="109">
+        <v>2720.2912381771334</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="130">
         <v>2</v>
       </c>
@@ -21675,7 +21697,6 @@
         <v>0.33578655164093207</v>
       </c>
       <c r="K16" s="93">
-        <f t="shared" si="6"/>
         <v>1.02297988166384</v>
       </c>
       <c r="L16" s="93">
@@ -21683,12 +21704,24 @@
         <v>2826.4636514336025</v>
       </c>
       <c r="M16" s="109">
-        <f t="shared" si="7"/>
         <v>2781.0771058229193</v>
       </c>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="109">
+        <v>2826.4636514336025</v>
+      </c>
+      <c r="AA16" s="93">
+        <v>1.02297988166384</v>
+      </c>
+      <c r="AB16" s="105">
+        <f t="shared" si="6"/>
+        <v>12577.763248879532</v>
+      </c>
+      <c r="AC16" s="109">
+        <v>2826.4636514336025</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="130">
         <v>3</v>
       </c>
@@ -21725,7 +21758,6 @@
         <v>0.33104804625080037</v>
       </c>
       <c r="K17" s="93">
-        <f t="shared" si="6"/>
         <v>1.3540279279146403</v>
       </c>
       <c r="L17" s="93">
@@ -21733,12 +21765,24 @@
         <v>2930.3934462950788</v>
       </c>
       <c r="M17" s="109">
-        <f t="shared" si="7"/>
         <v>3751.1781309650551</v>
       </c>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="109">
+        <v>2930.3934462950788</v>
+      </c>
+      <c r="AA17" s="93">
+        <v>1.3540279279146403</v>
+      </c>
+      <c r="AB17" s="105">
+        <f t="shared" si="6"/>
+        <v>13040.250836013101</v>
+      </c>
+      <c r="AC17" s="109">
+        <v>2930.3934462950788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="130">
         <v>4</v>
       </c>
@@ -21775,7 +21819,6 @@
         <v>0.32664465412973581</v>
       </c>
       <c r="K18" s="93">
-        <f t="shared" si="6"/>
         <v>1.6806725820443762</v>
       </c>
       <c r="L18" s="93">
@@ -21783,12 +21826,24 @@
         <v>3031.5889676843672</v>
       </c>
       <c r="M18" s="109">
-        <f t="shared" si="7"/>
         <v>4741.4304607778377</v>
       </c>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="109">
+        <v>3031.5889676843672</v>
+      </c>
+      <c r="AA18" s="93">
+        <v>1.6806725820443762</v>
+      </c>
+      <c r="AB18" s="105">
+        <f t="shared" si="6"/>
+        <v>13490.570906195435</v>
+      </c>
+      <c r="AC18" s="109">
+        <v>3031.5889676843672</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="130">
         <v>5</v>
       </c>
@@ -21825,7 +21880,6 @@
         <v>0.32256472775474387</v>
       </c>
       <c r="K19" s="93">
-        <f t="shared" si="6"/>
         <v>2.0032373097991201</v>
       </c>
       <c r="L19" s="93">
@@ -21833,12 +21887,24 @@
         <v>3129.5586250591318</v>
       </c>
       <c r="M19" s="109">
-        <f t="shared" si="7"/>
         <v>5750.9156866625472</v>
       </c>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="109">
+        <v>3129.5586250591318</v>
+      </c>
+      <c r="AA19" s="93">
+        <v>2.0032373097991201</v>
+      </c>
+      <c r="AB19" s="105">
+        <f t="shared" si="6"/>
+        <v>13926.535881513137</v>
+      </c>
+      <c r="AC19" s="109">
+        <v>3129.5586250591318</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="130">
         <v>6</v>
       </c>
@@ -21875,7 +21941,6 @@
         <v>0.31879756229764394</v>
       </c>
       <c r="K20" s="93">
-        <f t="shared" si="6"/>
         <v>2.3220348720967641</v>
       </c>
       <c r="L20" s="93">
@@ -21883,12 +21948,24 @@
         <v>3223.8148041437935</v>
       </c>
       <c r="M20" s="109">
-        <f t="shared" si="7"/>
         <v>6778.6599875226448</v>
       </c>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="109">
+        <v>3223.8148041437935</v>
+      </c>
+      <c r="AA20" s="93">
+        <v>2.3220348720967641</v>
+      </c>
+      <c r="AB20" s="105">
+        <f t="shared" si="6"/>
+        <v>14345.975878439882</v>
+      </c>
+      <c r="AC20" s="109">
+        <v>3223.8148041437935</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="130">
         <v>7</v>
       </c>
@@ -21925,7 +22002,6 @@
         <v>0.31533334886761955</v>
       </c>
       <c r="K21" s="93">
-        <f t="shared" si="6"/>
         <v>2.6373682209643836</v>
       </c>
       <c r="L21" s="93">
@@ -21933,12 +22009,24 @@
         <v>3313.8778538534334</v>
       </c>
       <c r="M21" s="109">
-        <f t="shared" si="7"/>
         <v>7823.6361889164873</v>
       </c>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="109">
+        <v>3313.8778538534334</v>
+      </c>
+      <c r="AA21" s="93">
+        <v>2.6373682209643836</v>
+      </c>
+      <c r="AB21" s="105">
+        <f t="shared" si="6"/>
+        <v>14746.756449647779</v>
+      </c>
+      <c r="AC21" s="109">
+        <v>3313.8778538534334</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="130">
         <v>8</v>
       </c>
@@ -21975,7 +22063,6 @@
         <v>0.3121631319797844</v>
       </c>
       <c r="K22" s="93">
-        <f t="shared" si="6"/>
         <v>2.949531352944168</v>
       </c>
       <c r="L22" s="93">
@@ -21983,12 +22070,24 @@
         <v>3399.2801044590219</v>
       </c>
       <c r="M22" s="109">
-        <f t="shared" si="7"/>
         <v>8884.766112800984</v>
       </c>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="109">
+        <v>3399.2801044590219</v>
+      </c>
+      <c r="AA22" s="93">
+        <v>2.949531352944168</v>
+      </c>
+      <c r="AB22" s="105">
+        <f t="shared" si="6"/>
+        <v>15126.796464842648</v>
+      </c>
+      <c r="AC22" s="109">
+        <v>3399.2801044590219</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="130">
         <v>9</v>
       </c>
@@ -22025,7 +22124,6 @@
         <v>0.30927877099175577</v>
       </c>
       <c r="K23" s="93">
-        <f t="shared" si="6"/>
         <v>3.2588101239359237</v>
       </c>
       <c r="L23" s="93">
@@ -22033,12 +22131,24 @@
         <v>3479.5698713089373</v>
       </c>
       <c r="M23" s="109">
-        <f t="shared" si="7"/>
         <v>9960.9232061793537</v>
       </c>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="109">
+        <v>3479.5698713089373</v>
+      </c>
+      <c r="AA23" s="93">
+        <v>3.2588101239359237</v>
+      </c>
+      <c r="AB23" s="105">
+        <f t="shared" si="6"/>
+        <v>15484.085927324772</v>
+      </c>
+      <c r="AC23" s="109">
+        <v>3479.5698713089373</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="130">
         <v>10</v>
       </c>
@@ -22075,7 +22185,6 @@
         <v>0.30667290527586771</v>
       </c>
       <c r="K24" s="93">
-        <f t="shared" si="6"/>
         <v>3.5654830292117916</v>
       </c>
       <c r="L24" s="93">
@@ -22083,12 +22192,24 @@
         <v>3554.3153973611934</v>
       </c>
       <c r="M24" s="109">
-        <f t="shared" si="7"/>
         <v>11050.935435354861</v>
       </c>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="109">
+        <v>3554.3153973611934</v>
+      </c>
+      <c r="AA24" s="93">
+        <v>3.5654830292117916</v>
+      </c>
+      <c r="AB24" s="105">
+        <f t="shared" si="6"/>
+        <v>15816.703518257311</v>
+      </c>
+      <c r="AC24" s="109">
+        <v>3554.3153973611934</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="130">
         <v>11</v>
       </c>
@@ -22125,7 +22246,6 @@
         <v>0.30433892291854264</v>
       </c>
       <c r="K25" s="93">
-        <f t="shared" si="6"/>
         <v>3.8698219521303341</v>
       </c>
       <c r="L25" s="93">
@@ -22133,12 +22253,24 @@
         <v>3623.1086874268481</v>
       </c>
       <c r="M25" s="109">
-        <f t="shared" si="7"/>
         <v>12153.588430903163</v>
       </c>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="109">
+        <v>3623.1086874268481</v>
+      </c>
+      <c r="AA25" s="93">
+        <v>3.8698219521303341</v>
+      </c>
+      <c r="AB25" s="105">
+        <f t="shared" si="6"/>
+        <v>16122.833659049475</v>
+      </c>
+      <c r="AC25" s="109">
+        <v>3623.1086874268481</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="130">
         <v>12</v>
       </c>
@@ -22175,7 +22307,6 @@
         <v>0.30227093276042249</v>
       </c>
       <c r="K26" s="93">
-        <f t="shared" si="6"/>
         <v>4.1720928848907564</v>
       </c>
       <c r="L26" s="93">
@@ -22183,12 +22314,24 @@
         <v>3685.5691873982187</v>
       </c>
       <c r="M26" s="109">
-        <f t="shared" si="7"/>
         <v>13267.628866931094</v>
       </c>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="109">
+        <v>3685.5691873982187</v>
+      </c>
+      <c r="AA26" s="93">
+        <v>4.1720928848907564</v>
+      </c>
+      <c r="AB26" s="105">
+        <f t="shared" si="6"/>
+        <v>16400.782883922075</v>
+      </c>
+      <c r="AC26" s="109">
+        <v>3685.5691873982187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="130">
         <v>13</v>
       </c>
@@ -22225,7 +22368,6 @@
         <v>0.30046373961179745</v>
       </c>
       <c r="K27" s="93">
-        <f t="shared" si="6"/>
         <v>4.4725566245025536</v>
       </c>
       <c r="L27" s="93">
@@ -22233,12 +22375,24 @@
         <v>3741.3472628436607</v>
       </c>
       <c r="M27" s="109">
-        <f t="shared" si="7"/>
         <v>14391.768056711462</v>
       </c>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="109">
+        <v>3741.3472628436607</v>
+      </c>
+      <c r="AA27" s="93">
+        <v>4.4725566245025536</v>
+      </c>
+      <c r="AB27" s="105">
+        <f t="shared" si="6"/>
+        <v>16648.995319654292</v>
+      </c>
+      <c r="AC27" s="109">
+        <v>3741.3472628436607</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="130">
         <v>14</v>
       </c>
@@ -22275,7 +22429,6 @@
         <v>0.29891282249734258</v>
       </c>
       <c r="K28" s="93">
-        <f t="shared" si="6"/>
         <v>4.7714694469998964</v>
       </c>
       <c r="L28" s="93">
@@ -22283,12 +22436,24 @@
         <v>3790.1274331880491</v>
       </c>
       <c r="M28" s="109">
-        <f t="shared" si="7"/>
         <v>15524.68574539031</v>
       </c>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="109">
+        <v>3790.1274331880491</v>
+      </c>
+      <c r="AA28" s="93">
+        <v>4.7714694469998964</v>
+      </c>
+      <c r="AB28" s="105">
+        <f t="shared" si="6"/>
+        <v>16866.067077686817</v>
+      </c>
+      <c r="AC28" s="109">
+        <v>3790.1274331880491</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="130">
         <v>15</v>
       </c>
@@ -22325,7 +22490,6 @@
         <v>0.29761431580254954</v>
       </c>
       <c r="K29" s="93">
-        <f t="shared" si="6"/>
         <v>5.0690837628024461</v>
       </c>
       <c r="L29" s="93">
@@ -22333,12 +22497,24 @@
         <v>3831.6313202452206</v>
       </c>
       <c r="M29" s="109">
-        <f t="shared" si="7"/>
         <v>16665.03407917271</v>
       </c>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="109">
+        <v>3831.6313202452206</v>
+      </c>
+      <c r="AA29" s="93">
+        <v>5.0690837628024461</v>
+      </c>
+      <c r="AB29" s="105">
+        <f t="shared" si="6"/>
+        <v>17050.759375091231</v>
+      </c>
+      <c r="AC29" s="109">
+        <v>3831.6313202452206</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="130">
         <v>16</v>
       </c>
@@ -22375,7 +22551,6 @@
         <v>0.2965649932118104</v>
       </c>
       <c r="K30" s="93">
-        <f t="shared" si="6"/>
         <v>5.3656487560142567</v>
       </c>
       <c r="L30" s="93">
@@ -22383,12 +22558,24 @@
         <v>3865.6202730922046</v>
       </c>
       <c r="M30" s="109">
-        <f t="shared" si="7"/>
         <v>17811.441729221737</v>
       </c>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="109">
+        <v>3865.6202730922046</v>
+      </c>
+      <c r="AA30" s="93">
+        <v>5.3656487560142567</v>
+      </c>
+      <c r="AB30" s="105">
+        <f t="shared" si="6"/>
+        <v>17202.01021526031</v>
+      </c>
+      <c r="AC30" s="109">
+        <v>3865.6202730922046</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="130">
         <v>17</v>
       </c>
@@ -22425,7 +22612,6 @@
         <v>0.29576225434468528</v>
       </c>
       <c r="K31" s="93">
-        <f t="shared" si="6"/>
         <v>5.6614110103589423</v>
       </c>
       <c r="L31" s="93">
@@ -22433,12 +22619,24 @@
         <v>3891.8976351290326</v>
       </c>
       <c r="M31" s="109">
-        <f t="shared" si="7"/>
         <v>18962.51814746625</v>
       </c>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="109">
+        <v>3891.8976351290326</v>
+      </c>
+      <c r="AA31" s="93">
+        <v>5.6614110103589423</v>
+      </c>
+      <c r="AB31" s="105">
+        <f t="shared" si="6"/>
+        <v>17318.944476324195</v>
+      </c>
+      <c r="AC31" s="109">
+        <v>3891.8976351290326</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="130">
         <v>18</v>
       </c>
@@ -22475,7 +22673,6 @@
         <v>0.29520411401282604</v>
       </c>
       <c r="K32" s="93">
-        <f t="shared" si="6"/>
         <v>5.9566151243717682</v>
       </c>
       <c r="L32" s="93">
@@ -22483,12 +22680,24 @@
         <v>3910.3106235928403</v>
       </c>
       <c r="M32" s="109">
-        <f t="shared" si="7"/>
         <v>20116.857930618917</v>
       </c>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="109">
+        <v>3910.3106235928403</v>
+      </c>
+      <c r="AA32" s="93">
+        <v>5.9566151243717682</v>
+      </c>
+      <c r="AB32" s="105">
+        <f t="shared" si="6"/>
+        <v>17400.88227498814</v>
+      </c>
+      <c r="AC32" s="109">
+        <v>3910.3106235928403</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="130">
         <v>19</v>
       </c>
@@ -22525,7 +22734,6 @@
         <v>0.29488919403540292</v>
       </c>
       <c r="K33" s="93">
-        <f t="shared" si="6"/>
         <v>6.2515043184071715</v>
       </c>
       <c r="L33" s="93">
@@ -22533,12 +22741,24 @@
         <v>3920.751796721097</v>
       </c>
       <c r="M33" s="109">
-        <f t="shared" si="7"/>
         <v>21273.04526796686</v>
       </c>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="109">
+        <v>3920.751796721097</v>
+      </c>
+      <c r="AA33" s="93">
+        <v>6.2515043184071715</v>
+      </c>
+      <c r="AB33" s="105">
+        <f t="shared" si="6"/>
+        <v>17447.345495408881</v>
+      </c>
+      <c r="AC33" s="109">
+        <v>3920.751796721097</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="130">
         <v>20</v>
       </c>
@@ -22575,7 +22795,6 @@
         <v>0.29481671756579186</v>
       </c>
       <c r="K34" s="93">
-        <f t="shared" si="6"/>
         <v>6.5463210359729631</v>
       </c>
       <c r="L34" s="93">
@@ -22583,12 +22802,24 @@
         <v>3923.1600891050684</v>
       </c>
       <c r="M34" s="109">
-        <f t="shared" si="7"/>
         <v>22429.658447921935</v>
       </c>
       <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="109">
+        <v>3923.1600891050684</v>
+      </c>
+      <c r="AA34" s="93">
+        <v>6.5463210359729631</v>
+      </c>
+      <c r="AB34" s="105">
+        <f t="shared" si="6"/>
+        <v>17458.062396517555</v>
+      </c>
+      <c r="AC34" s="109">
+        <v>3923.1600891050684</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="130">
         <v>21</v>
       </c>
@@ -22625,7 +22856,6 @@
         <v>0.29498650589683306</v>
       </c>
       <c r="K35" s="93">
-        <f t="shared" si="6"/>
         <v>6.8413075418697957</v>
       </c>
       <c r="L35" s="93">
@@ -22633,12 +22863,24 @@
         <v>3917.5214014524076</v>
       </c>
       <c r="M35" s="109">
-        <f t="shared" si="7"/>
         <v>23585.274397912446</v>
       </c>
       <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="109">
+        <v>3917.5214014524076</v>
+      </c>
+      <c r="AA35" s="93">
+        <v>6.8413075418697957</v>
+      </c>
+      <c r="AB35" s="105">
+        <f t="shared" si="6"/>
+        <v>17432.970236463214</v>
+      </c>
+      <c r="AC35" s="109">
+        <v>3917.5214014524076</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="130">
         <v>22</v>
       </c>
@@ -22675,7 +22917,6 @@
         <v>0.29539897772620699</v>
       </c>
       <c r="K36" s="93">
-        <f t="shared" si="6"/>
         <v>7.1367065195960029</v>
       </c>
       <c r="L36" s="93">
@@ -22683,12 +22924,24 @@
         <v>3903.8687368907258</v>
       </c>
       <c r="M36" s="109">
-        <f t="shared" si="7"/>
         <v>24738.473231967266</v>
       </c>
       <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="109">
+        <v>3903.8687368907258</v>
+      </c>
+      <c r="AA36" s="93">
+        <v>7.1367065195960029</v>
+      </c>
+      <c r="AB36" s="105">
+        <f t="shared" si="6"/>
+        <v>17372.21587916373</v>
+      </c>
+      <c r="AC36" s="109">
+        <v>3903.8687368907258</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="130">
         <v>23</v>
       </c>
@@ -22725,7 +22978,6 @@
         <v>0.29605515087775336</v>
       </c>
       <c r="K37" s="93">
-        <f t="shared" si="6"/>
         <v>7.4327616704737558</v>
       </c>
       <c r="L37" s="93">
@@ -22733,12 +22985,24 @@
         <v>3882.2818819919044</v>
       </c>
       <c r="M37" s="109">
-        <f t="shared" si="7"/>
         <v>25887.842780290346</v>
       </c>
       <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="109">
+        <v>3882.2818819919044</v>
+      </c>
+      <c r="AA37" s="93">
+        <v>7.4327616704737558</v>
+      </c>
+      <c r="AB37" s="105">
+        <f t="shared" si="6"/>
+        <v>17276.154374863974</v>
+      </c>
+      <c r="AC37" s="109">
+        <v>3882.2818819919044</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="130">
         <v>24</v>
       </c>
@@ -22775,7 +23039,6 @@
         <v>0.29695664648863773</v>
       </c>
       <c r="K38" s="93">
-        <f t="shared" si="6"/>
         <v>7.7297183169623933</v>
       </c>
       <c r="L38" s="93">
@@ -22783,12 +23046,24 @@
         <v>3852.886636775851</v>
       </c>
       <c r="M38" s="109">
-        <f t="shared" si="7"/>
         <v>27031.98307524819</v>
       </c>
       <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="109">
+        <v>3852.886636775851</v>
+      </c>
+      <c r="AA38" s="93">
+        <v>7.7297183169623933</v>
+      </c>
+      <c r="AB38" s="105">
+        <f t="shared" si="6"/>
+        <v>17145.345533652537</v>
+      </c>
+      <c r="AC38" s="109">
+        <v>3852.886636775851</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="130">
         <v>25</v>
       </c>
@@ -22825,7 +23100,6 @@
         <v>0.29810569568644274</v>
       </c>
       <c r="K39" s="93">
-        <f t="shared" si="6"/>
         <v>8.0278240126488356</v>
       </c>
       <c r="L39" s="93">
@@ -22833,12 +23107,24 @@
         <v>3815.8536039584455</v>
       </c>
       <c r="M39" s="109">
-        <f t="shared" si="7"/>
         <v>28169.510768493841</v>
       </c>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="109">
+        <v>3815.8536039584455</v>
+      </c>
+      <c r="AA39" s="93">
+        <v>8.0278240126488356</v>
+      </c>
+      <c r="AB39" s="105">
+        <f t="shared" si="6"/>
+        <v>16980.548537615083</v>
+      </c>
+      <c r="AC39" s="109">
+        <v>3815.8536039584455</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="130">
         <v>26</v>
       </c>
@@ -22875,7 +23161,6 @@
         <v>0.29950514879474238</v>
       </c>
       <c r="K40" s="93">
-        <f t="shared" si="6"/>
         <v>8.3273291614435774</v>
       </c>
       <c r="L40" s="93">
@@ -22883,12 +23168,24 @@
         <v>3771.3965535388102</v>
       </c>
       <c r="M40" s="109">
-        <f t="shared" si="7"/>
         <v>29299.063454425461</v>
       </c>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="109">
+        <v>3771.3965535388102</v>
+      </c>
+      <c r="AA40" s="93">
+        <v>8.3273291614435774</v>
+      </c>
+      <c r="AB40" s="105">
+        <f t="shared" si="6"/>
+        <v>16782.714663247705</v>
+      </c>
+      <c r="AC40" s="109">
+        <v>3771.3965535388102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="130">
         <v>27</v>
       </c>
@@ -22925,7 +23222,6 @@
         <v>0.3011584871203512</v>
       </c>
       <c r="K41" s="93">
-        <f t="shared" si="6"/>
         <v>8.6284876485639295</v>
       </c>
       <c r="L41" s="93">
@@ -22933,12 +23229,24 @@
         <v>3719.7703843769095</v>
       </c>
       <c r="M41" s="109">
-        <f t="shared" si="7"/>
         <v>30419.3038758195</v>
       </c>
       <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="109">
+        <v>3719.7703843769095</v>
+      </c>
+      <c r="AA41" s="93">
+        <v>8.6284876485639295</v>
+      </c>
+      <c r="AB41" s="105">
+        <f t="shared" si="6"/>
+        <v>16552.978210477249</v>
+      </c>
+      <c r="AC41" s="109">
+        <v>3719.7703843769095</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="130">
         <v>28</v>
       </c>
@@ -22975,7 +23283,6 @@
         <v>0.30306983739045917</v>
       </c>
       <c r="K42" s="93">
-        <f t="shared" si="6"/>
         <v>8.9315574859543894</v>
       </c>
       <c r="L42" s="93">
@@ -22983,12 +23290,24 @@
         <v>3661.2687096002337</v>
       </c>
       <c r="M42" s="109">
-        <f t="shared" si="7"/>
         <v>31528.923988280818</v>
       </c>
       <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y42" s="109">
+        <v>3661.2687096002337</v>
+      </c>
+      <c r="AA42" s="93">
+        <v>8.9315574859543894</v>
+      </c>
+      <c r="AB42" s="105">
+        <f t="shared" si="6"/>
+        <v>16292.64575772104</v>
+      </c>
+      <c r="AC42" s="109">
+        <v>3661.2687096002337</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="131">
         <v>29</v>
       </c>
@@ -23025,7 +23344,6 @@
         <v>0.30524398892354138</v>
       </c>
       <c r="K43" s="97">
-        <f t="shared" si="6"/>
         <v>9.2368014748779306</v>
       </c>
       <c r="L43" s="97">
@@ -23033,12 +23351,24 @@
         <v>3596.2210974122804</v>
       </c>
       <c r="M43" s="113">
-        <f t="shared" si="7"/>
         <v>32626.648861105939</v>
       </c>
       <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y43" s="113">
+        <v>3596.2210974122804</v>
+      </c>
+      <c r="AA43" s="97">
+        <v>9.2368014748779306</v>
+      </c>
+      <c r="AB43" s="105">
+        <f t="shared" si="6"/>
+        <v>16003.183883484648</v>
+      </c>
+      <c r="AC43" s="113">
+        <v>3596.2210974122804</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="82"/>
       <c r="D44" s="80"/>
       <c r="E44" s="80"/>
@@ -23050,34 +23380,46 @@
       <c r="M44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="105">
+        <f>J47*M47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
+      <c r="P48" s="109">
+        <f t="shared" ref="P48:P76" si="7">(J48*M48)+P47</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
+      <c r="P49" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
@@ -23085,6 +23427,10 @@
       <c r="F50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
+      <c r="P50" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23093,6 +23439,10 @@
       <c r="F51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
+      <c r="P51" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23101,6 +23451,10 @@
       <c r="F52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
+      <c r="P52" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23109,6 +23463,10 @@
       <c r="F53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
+      <c r="P53" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23117,6 +23475,10 @@
       <c r="F54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
+      <c r="P54" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23125,6 +23487,10 @@
       <c r="F55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
+      <c r="P55" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23133,15 +23499,28 @@
       <c r="F56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
+      <c r="P56" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="58" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
+      <c r="P58" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23150,6 +23529,10 @@
       <c r="F59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
+      <c r="P59" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23158,6 +23541,10 @@
       <c r="F60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
+      <c r="P60" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23166,6 +23553,10 @@
       <c r="F61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
+      <c r="P61" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23174,6 +23565,10 @@
       <c r="F62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
+      <c r="P62" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23182,6 +23577,10 @@
       <c r="F63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
+      <c r="P63" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23190,6 +23589,10 @@
       <c r="F64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
+      <c r="P64" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23198,6 +23601,10 @@
       <c r="F65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
+      <c r="P65" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23206,6 +23613,10 @@
       <c r="F66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
+      <c r="P66" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23214,6 +23625,10 @@
       <c r="F67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
+      <c r="P67" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23222,6 +23637,10 @@
       <c r="F68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
+      <c r="P68" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23230,6 +23649,10 @@
       <c r="F69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
+      <c r="P69" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23238,6 +23661,10 @@
       <c r="F70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
+      <c r="P70" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23246,6 +23673,10 @@
       <c r="F71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
+      <c r="P71" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23254,6 +23685,10 @@
       <c r="F72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
+      <c r="P72" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23262,6 +23697,10 @@
       <c r="F73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
+      <c r="P73" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23270,6 +23709,10 @@
       <c r="F74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
+      <c r="P74" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23278,14 +23721,22 @@
       <c r="F75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
+      <c r="P75" s="109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
+      <c r="P76" s="113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30733,6 +31184,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F2:G2"/>
@@ -30747,15 +31207,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
